--- a/PS-VRP/Dati_output/output_ridotto.xlsx
+++ b/PS-VRP/Dati_output/output_ridotto.xlsx
@@ -38,14 +38,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFF2CC"/>
-        <bgColor rgb="00FFF2CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D5E8D4"/>
-        <bgColor rgb="00D5E8D4"/>
+        <fgColor rgb="00CCE5FF"/>
+        <bgColor rgb="00CCE5FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -56,14 +50,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CCE5FF"/>
-        <bgColor rgb="00CCE5FF"/>
+        <fgColor rgb="00EAD1DC"/>
+        <bgColor rgb="00EAD1DC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EAD1DC"/>
-        <bgColor rgb="00EAD1DC"/>
+        <fgColor rgb="00D9D2E9"/>
+        <bgColor rgb="00D9D2E9"/>
       </patternFill>
     </fill>
     <fill>
@@ -80,8 +74,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D9D2E9"/>
-        <bgColor rgb="00D9D2E9"/>
+        <fgColor rgb="00D5E8D4"/>
+        <bgColor rgb="00D5E8D4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFF2CC"/>
+        <bgColor rgb="00FFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -536,227 +536,227 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>251219</v>
+        <v>243569</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>05-06-2025 12:00:00</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>05-06-2025 12:36:00</t>
+          <t>08-07-2025 07:17:00</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>251362</v>
+        <v>252207</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>05-06-2025 14:23:30</t>
+          <t>08-07-2025 07:38:40</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>05-06-2025 14:44:30</t>
+          <t>08-07-2025 07:53:40</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>251186</v>
+        <v>252371</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>06-06-2025 07:23:38</t>
+          <t>08-07-2025 08:45:13</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>06-06-2025 07:55:38</t>
+          <t>08-07-2025 09:02:13</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>245623</v>
+        <v>252298</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>06-06-2025 14:34:15</t>
+          <t>08-07-2025 09:52:16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>09-06-2025 07:08:15</t>
+          <t>08-07-2025 10:11:16</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>251798</v>
+        <v>252546</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>09-06-2025 14:01:03</t>
+          <t>08-07-2025 11:22:02</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>09-06-2025 14:35:03</t>
+          <t>08-07-2025 11:43:02</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>251762</v>
+        <v>252087</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10-06-2025 12:28:53</t>
+          <t>08-07-2025 12:37:40</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10-06-2025 13:00:53</t>
+          <t>08-07-2025 13:07:40</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>251943</v>
+        <v>252237</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10-06-2025 14:22:15</t>
+          <t>08-07-2025 13:43:10</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10-06-2025 14:39:15</t>
+          <t>08-07-2025 14:15:10</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>252042</v>
+        <v>252999</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11-06-2025 08:11:30</t>
+          <t>09-07-2025 07:40:07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11-06-2025 08:30:30</t>
+          <t>09-07-2025 08:14:07</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>251905</v>
+        <v>245089</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>11-06-2025 10:30:33</t>
+          <t>09-07-2025 13:39:57</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11-06-2025 11:08:33</t>
+          <t>09-07-2025 14:13:57</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>252121</v>
+        <v>252755</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11-06-2025 14:44:49</t>
+          <t>14-07-2025 07:16:10</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12-06-2025 07:22:49</t>
+          <t>14-07-2025 07:46:10</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>251680</v>
+        <v>252899</v>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>12-06-2025 10:37:24</t>
+          <t>14-07-2025 09:35:44</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>12-06-2025 11:00:24</t>
+          <t>14-07-2025 09:52:44</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>252108</v>
+        <v>243525</v>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
@@ -765,18 +765,18 @@
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>05-06-2025 07:00:00</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>05-06-2025 07:40:00</t>
+          <t>08-07-2025 07:44:00</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>252058</v>
+        <v>250284</v>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
@@ -785,18 +785,18 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>05-06-2025 11:34:26</t>
+          <t>08-07-2025 09:53:59</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>05-06-2025 12:03:26</t>
+          <t>08-07-2025 10:43:59</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>251897</v>
+        <v>252636</v>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
@@ -805,18 +805,18 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>05-06-2025 13:30:19</t>
+          <t>08-07-2025 13:10:20</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>05-06-2025 14:05:19</t>
+          <t>08-07-2025 13:45:20</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>251958</v>
+        <v>252085</v>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
@@ -825,18 +825,18 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>06-06-2025 11:10:21</t>
+          <t>08-07-2025 13:56:36</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>06-06-2025 12:02:21</t>
+          <t>08-07-2025 14:23:36</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>251445</v>
+        <v>252665</v>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
@@ -845,18 +845,18 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>06-06-2025 14:24:40</t>
+          <t>08-07-2025 14:52:09</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>09-06-2025 07:06:40</t>
+          <t>09-07-2025 07:21:09</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>243569</v>
+        <v>252244</v>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
@@ -865,18 +865,18 @@
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>09-06-2025 14:32:08</t>
+          <t>09-07-2025 08:10:02</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>10-06-2025 07:12:08</t>
+          <t>09-07-2025 08:54:02</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>251879</v>
+        <v>252784</v>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
@@ -885,18 +885,18 @@
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>10-06-2025 07:54:47</t>
+          <t>09-07-2025 10:41:36</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>10-06-2025 08:34:47</t>
+          <t>09-07-2025 11:25:36</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>251935</v>
+        <v>252723</v>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
@@ -905,198 +905,198 @@
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>10-06-2025 10:13:15</t>
+          <t>09-07-2025 11:52:35</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>10-06-2025 10:40:15</t>
+          <t>09-07-2025 12:38:35</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="n">
-        <v>251752</v>
-      </c>
-      <c r="B21" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C21" s="4" t="inlineStr">
-        <is>
-          <t>04-06-2025 12:00:00</t>
-        </is>
-      </c>
-      <c r="D21" s="4" t="inlineStr">
-        <is>
-          <t>04-06-2025 12:17:00</t>
+      <c r="A21" s="3" t="n">
+        <v>252350</v>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>10-07-2025 07:12:32</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>10-07-2025 07:54:32</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="n">
-        <v>251972</v>
-      </c>
-      <c r="B22" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C22" s="4" t="inlineStr">
-        <is>
-          <t>04-06-2025 12:17:00</t>
-        </is>
-      </c>
-      <c r="D22" s="4" t="inlineStr">
-        <is>
-          <t>04-06-2025 12:34:00</t>
+      <c r="A22" s="3" t="n">
+        <v>252638</v>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>10-07-2025 08:46:25</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>10-07-2025 09:17:25</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="n">
-        <v>251565</v>
-      </c>
-      <c r="B23" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C23" s="4" t="inlineStr">
-        <is>
-          <t>04-06-2025 13:42:16</t>
-        </is>
-      </c>
-      <c r="D23" s="4" t="inlineStr">
-        <is>
-          <t>04-06-2025 14:16:16</t>
+      <c r="A23" s="3" t="n">
+        <v>252456</v>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>10-07-2025 10:18:55</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>10-07-2025 10:43:55</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="n">
-        <v>251895</v>
-      </c>
-      <c r="B24" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C24" s="4" t="inlineStr">
-        <is>
-          <t>05-06-2025 09:13:01</t>
-        </is>
-      </c>
-      <c r="D24" s="4" t="inlineStr">
-        <is>
-          <t>05-06-2025 09:44:01</t>
+      <c r="A24" s="3" t="n">
+        <v>252549</v>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>10-07-2025 13:08:22</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>10-07-2025 13:37:22</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="n">
-        <v>251218</v>
-      </c>
-      <c r="B25" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C25" s="4" t="inlineStr">
-        <is>
-          <t>05-06-2025 13:53:14</t>
-        </is>
-      </c>
-      <c r="D25" s="4" t="inlineStr">
-        <is>
-          <t>05-06-2025 14:31:14</t>
+      <c r="A25" s="3" t="n">
+        <v>252336</v>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>11-07-2025 07:09:58</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>11-07-2025 07:38:58</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="n">
-        <v>251792</v>
-      </c>
-      <c r="B26" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C26" s="4" t="inlineStr">
-        <is>
-          <t>06-06-2025 08:08:08</t>
-        </is>
-      </c>
-      <c r="D26" s="4" t="inlineStr">
-        <is>
-          <t>06-06-2025 08:29:08</t>
+      <c r="A26" s="3" t="n">
+        <v>252547</v>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>11-07-2025 09:39:14</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>11-07-2025 10:04:14</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="n">
-        <v>252195</v>
-      </c>
-      <c r="B27" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C27" s="4" t="inlineStr">
-        <is>
-          <t>06-06-2025 10:38:46</t>
-        </is>
-      </c>
-      <c r="D27" s="4" t="inlineStr">
-        <is>
-          <t>06-06-2025 11:08:46</t>
+      <c r="A27" s="3" t="n">
+        <v>252157</v>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>11-07-2025 11:25:24</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>11-07-2025 11:58:24</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="n">
-        <v>252082</v>
-      </c>
-      <c r="B28" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C28" s="4" t="inlineStr">
-        <is>
-          <t>09-06-2025 11:32:20</t>
-        </is>
-      </c>
-      <c r="D28" s="4" t="inlineStr">
-        <is>
-          <t>09-06-2025 11:49:20</t>
+      <c r="A28" s="3" t="n">
+        <v>252790</v>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>14-07-2025 10:35:14</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t>14-07-2025 11:08:14</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="n">
-        <v>251741</v>
-      </c>
-      <c r="B29" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C29" s="4" t="inlineStr">
-        <is>
-          <t>10-06-2025 14:21:33</t>
-        </is>
-      </c>
-      <c r="D29" s="4" t="inlineStr">
-        <is>
-          <t>10-06-2025 14:40:33</t>
+      <c r="A29" s="3" t="n">
+        <v>252467</v>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>14-07-2025 11:20:20</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="inlineStr">
+        <is>
+          <t>14-07-2025 11:45:20</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="n">
-        <v>251978</v>
+        <v>252230</v>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
@@ -1105,18 +1105,18 @@
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>11-06-2025 07:57:06</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>11-06-2025 08:14:06</t>
+          <t>08-07-2025 07:21:00</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="n">
-        <v>252196</v>
+        <v>252063</v>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
@@ -1125,18 +1125,18 @@
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>12-06-2025 07:34:15</t>
+          <t>08-07-2025 08:24:07</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>12-06-2025 07:53:15</t>
+          <t>08-07-2025 08:39:07</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="n">
-        <v>251684</v>
+        <v>251798</v>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
@@ -1145,138 +1145,138 @@
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>13-06-2025 10:56:28</t>
+          <t>08-07-2025 09:59:04</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>13-06-2025 11:13:28</t>
+          <t>08-07-2025 10:16:04</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="n">
-        <v>251070</v>
-      </c>
-      <c r="B33" s="5" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C33" s="5" t="inlineStr">
-        <is>
-          <t>05-06-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="D33" s="5" t="inlineStr">
-        <is>
-          <t>05-06-2025 07:36:30</t>
+      <c r="A33" s="4" t="n">
+        <v>243529</v>
+      </c>
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t>08-07-2025 12:19:21</t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="inlineStr">
+        <is>
+          <t>08-07-2025 12:36:21</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="n">
-        <v>251773</v>
-      </c>
-      <c r="B34" s="5" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C34" s="5" t="inlineStr">
-        <is>
-          <t>05-06-2025 07:36:30</t>
-        </is>
-      </c>
-      <c r="D34" s="5" t="inlineStr">
-        <is>
-          <t>05-06-2025 08:09:00</t>
+      <c r="A34" s="4" t="n">
+        <v>252476</v>
+      </c>
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>08-07-2025 14:46:20</t>
+        </is>
+      </c>
+      <c r="D34" s="4" t="inlineStr">
+        <is>
+          <t>09-07-2025 07:16:20</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="n">
-        <v>244023</v>
-      </c>
-      <c r="B35" s="5" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C35" s="5" t="inlineStr">
-        <is>
-          <t>05-06-2025 08:09:00</t>
-        </is>
-      </c>
-      <c r="D35" s="5" t="inlineStr">
-        <is>
-          <t>05-06-2025 08:41:30</t>
+      <c r="A35" s="4" t="n">
+        <v>252814</v>
+      </c>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>09-07-2025 08:28:41</t>
+        </is>
+      </c>
+      <c r="D35" s="4" t="inlineStr">
+        <is>
+          <t>09-07-2025 09:00:41</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="5" t="n">
-        <v>251500</v>
-      </c>
-      <c r="B36" s="5" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C36" s="5" t="inlineStr">
-        <is>
-          <t>05-06-2025 08:59:37</t>
-        </is>
-      </c>
-      <c r="D36" s="5" t="inlineStr">
-        <is>
-          <t>05-06-2025 09:34:07</t>
+      <c r="A36" s="4" t="n">
+        <v>252243</v>
+      </c>
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C36" s="4" t="inlineStr">
+        <is>
+          <t>09-07-2025 09:50:46</t>
+        </is>
+      </c>
+      <c r="D36" s="4" t="inlineStr">
+        <is>
+          <t>09-07-2025 10:05:46</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="n">
-        <v>252156</v>
-      </c>
-      <c r="B37" s="5" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C37" s="5" t="inlineStr">
-        <is>
-          <t>05-06-2025 12:34:03</t>
-        </is>
-      </c>
-      <c r="D37" s="5" t="inlineStr">
-        <is>
-          <t>05-06-2025 13:06:33</t>
+      <c r="A37" s="4" t="n">
+        <v>252785</v>
+      </c>
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>09-07-2025 11:42:28</t>
+        </is>
+      </c>
+      <c r="D37" s="4" t="inlineStr">
+        <is>
+          <t>09-07-2025 12:16:28</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="5" t="n">
-        <v>252111</v>
-      </c>
-      <c r="B38" s="5" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C38" s="5" t="inlineStr">
-        <is>
-          <t>09-06-2025 12:40:33</t>
-        </is>
-      </c>
-      <c r="D38" s="5" t="inlineStr">
-        <is>
-          <t>09-06-2025 13:15:03</t>
+      <c r="A38" s="4" t="n">
+        <v>241783</v>
+      </c>
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t>09-07-2025 13:12:13</t>
+        </is>
+      </c>
+      <c r="D38" s="4" t="inlineStr">
+        <is>
+          <t>09-07-2025 13:48:13</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="5" t="n">
-        <v>251979</v>
+        <v>252345</v>
       </c>
       <c r="B39" s="5" t="inlineStr">
         <is>
@@ -1285,18 +1285,18 @@
       </c>
       <c r="C39" s="5" t="inlineStr">
         <is>
-          <t>10-06-2025 10:45:43</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="D39" s="5" t="inlineStr">
         <is>
-          <t>10-06-2025 11:18:13</t>
+          <t>08-07-2025 07:34:30</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="5" t="n">
-        <v>251747</v>
+        <v>252347</v>
       </c>
       <c r="B40" s="5" t="inlineStr">
         <is>
@@ -1305,18 +1305,18 @@
       </c>
       <c r="C40" s="5" t="inlineStr">
         <is>
-          <t>11-06-2025 09:32:20</t>
+          <t>08-07-2025 08:17:49</t>
         </is>
       </c>
       <c r="D40" s="5" t="inlineStr">
         <is>
-          <t>11-06-2025 10:04:50</t>
+          <t>08-07-2025 08:50:19</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="5" t="n">
-        <v>251916</v>
+        <v>252220</v>
       </c>
       <c r="B41" s="5" t="inlineStr">
         <is>
@@ -1325,18 +1325,18 @@
       </c>
       <c r="C41" s="5" t="inlineStr">
         <is>
-          <t>11-06-2025 14:47:40</t>
+          <t>08-07-2025 10:22:36</t>
         </is>
       </c>
       <c r="D41" s="5" t="inlineStr">
         <is>
-          <t>12-06-2025 07:20:10</t>
+          <t>08-07-2025 10:57:06</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="5" t="n">
-        <v>251780</v>
+        <v>252652</v>
       </c>
       <c r="B42" s="5" t="inlineStr">
         <is>
@@ -1345,672 +1345,552 @@
       </c>
       <c r="C42" s="5" t="inlineStr">
         <is>
-          <t>13-06-2025 13:32:26</t>
+          <t>08-07-2025 12:17:37</t>
         </is>
       </c>
       <c r="D42" s="5" t="inlineStr">
         <is>
-          <t>13-06-2025 14:04:56</t>
+          <t>08-07-2025 12:50:07</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="n">
-        <v>251180</v>
-      </c>
-      <c r="B43" s="3" t="inlineStr">
-        <is>
-          <t>R10</t>
-        </is>
-      </c>
-      <c r="C43" s="3" t="inlineStr">
-        <is>
-          <t>04-06-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="D43" s="3" t="inlineStr">
-        <is>
-          <t>04-06-2025 07:30:00</t>
+      <c r="A43" s="5" t="n">
+        <v>251674</v>
+      </c>
+      <c r="B43" s="5" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C43" s="5" t="inlineStr">
+        <is>
+          <t>09-07-2025 07:56:08</t>
+        </is>
+      </c>
+      <c r="D43" s="5" t="inlineStr">
+        <is>
+          <t>09-07-2025 08:48:38</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="n">
-        <v>252282</v>
-      </c>
-      <c r="B44" s="3" t="inlineStr">
-        <is>
-          <t>R10</t>
-        </is>
-      </c>
-      <c r="C44" s="3" t="inlineStr">
-        <is>
-          <t>04-06-2025 07:30:00</t>
-        </is>
-      </c>
-      <c r="D44" s="3" t="inlineStr">
-        <is>
-          <t>04-06-2025 07:55:00</t>
+      <c r="A44" s="5" t="n">
+        <v>251685</v>
+      </c>
+      <c r="B44" s="5" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C44" s="5" t="inlineStr">
+        <is>
+          <t>09-07-2025 11:15:45</t>
+        </is>
+      </c>
+      <c r="D44" s="5" t="inlineStr">
+        <is>
+          <t>09-07-2025 12:02:15</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="n">
-        <v>251984</v>
-      </c>
-      <c r="B45" s="3" t="inlineStr">
-        <is>
-          <t>R10</t>
-        </is>
-      </c>
-      <c r="C45" s="3" t="inlineStr">
-        <is>
-          <t>04-06-2025 08:39:53</t>
-        </is>
-      </c>
-      <c r="D45" s="3" t="inlineStr">
-        <is>
-          <t>04-06-2025 09:09:53</t>
+      <c r="A45" s="5" t="n">
+        <v>252783</v>
+      </c>
+      <c r="B45" s="5" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C45" s="5" t="inlineStr">
+        <is>
+          <t>09-07-2025 13:41:01</t>
+        </is>
+      </c>
+      <c r="D45" s="5" t="inlineStr">
+        <is>
+          <t>09-07-2025 14:11:31</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="n">
-        <v>251772</v>
-      </c>
-      <c r="B46" s="3" t="inlineStr">
-        <is>
-          <t>R10</t>
-        </is>
-      </c>
-      <c r="C46" s="3" t="inlineStr">
-        <is>
-          <t>04-06-2025 14:48:12</t>
-        </is>
-      </c>
-      <c r="D46" s="3" t="inlineStr">
-        <is>
-          <t>05-06-2025 07:13:12</t>
+      <c r="A46" s="6" t="n">
+        <v>252047</v>
+      </c>
+      <c r="B46" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C46" s="6" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D46" s="6" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:40:00</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="n">
-        <v>252084</v>
-      </c>
-      <c r="B47" s="3" t="inlineStr">
-        <is>
-          <t>R10</t>
-        </is>
-      </c>
-      <c r="C47" s="3" t="inlineStr">
-        <is>
-          <t>06-06-2025 11:34:53</t>
-        </is>
-      </c>
-      <c r="D47" s="3" t="inlineStr">
-        <is>
-          <t>06-06-2025 12:04:53</t>
+      <c r="A47" s="6" t="n">
+        <v>252152</v>
+      </c>
+      <c r="B47" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C47" s="6" t="inlineStr">
+        <is>
+          <t>08-07-2025 08:50:53</t>
+        </is>
+      </c>
+      <c r="D47" s="6" t="inlineStr">
+        <is>
+          <t>08-07-2025 09:20:53</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="n">
-        <v>251519</v>
-      </c>
-      <c r="B48" s="3" t="inlineStr">
-        <is>
-          <t>R10</t>
-        </is>
-      </c>
-      <c r="C48" s="3" t="inlineStr">
-        <is>
-          <t>09-06-2025 14:45:53</t>
-        </is>
-      </c>
-      <c r="D48" s="3" t="inlineStr">
-        <is>
-          <t>10-06-2025 07:05:53</t>
+      <c r="A48" s="6" t="n">
+        <v>252402</v>
+      </c>
+      <c r="B48" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C48" s="6" t="inlineStr">
+        <is>
+          <t>08-07-2025 09:48:15</t>
+        </is>
+      </c>
+      <c r="D48" s="6" t="inlineStr">
+        <is>
+          <t>08-07-2025 10:18:15</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="n">
-        <v>251679</v>
-      </c>
-      <c r="B49" s="3" t="inlineStr">
-        <is>
-          <t>R10</t>
-        </is>
-      </c>
-      <c r="C49" s="3" t="inlineStr">
-        <is>
-          <t>10-06-2025 10:41:52</t>
-        </is>
-      </c>
-      <c r="D49" s="3" t="inlineStr">
-        <is>
-          <t>10-06-2025 11:21:52</t>
+      <c r="A49" s="6" t="n">
+        <v>252146</v>
+      </c>
+      <c r="B49" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C49" s="6" t="inlineStr">
+        <is>
+          <t>08-07-2025 10:43:19</t>
+        </is>
+      </c>
+      <c r="D49" s="6" t="inlineStr">
+        <is>
+          <t>08-07-2025 11:18:19</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="5" t="n">
-        <v>251631</v>
-      </c>
-      <c r="B50" s="5" t="inlineStr">
+      <c r="A50" s="6" t="n">
+        <v>251632</v>
+      </c>
+      <c r="B50" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C50" s="6" t="inlineStr">
+        <is>
+          <t>08-07-2025 12:24:57</t>
+        </is>
+      </c>
+      <c r="D50" s="6" t="inlineStr">
+        <is>
+          <t>08-07-2025 13:54:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="7" t="n">
+        <v>252201</v>
+      </c>
+      <c r="B51" s="7" t="inlineStr">
         <is>
           <t>R12</t>
         </is>
       </c>
-      <c r="C50" s="5" t="inlineStr">
-        <is>
-          <t>05-06-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="D50" s="5" t="inlineStr">
-        <is>
-          <t>05-06-2025 07:17:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="5" t="n">
-        <v>251237</v>
-      </c>
-      <c r="B51" s="5" t="inlineStr">
+      <c r="C51" s="7" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D51" s="7" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="7" t="n">
+        <v>252978</v>
+      </c>
+      <c r="B52" s="7" t="inlineStr">
         <is>
           <t>R12</t>
         </is>
       </c>
-      <c r="C51" s="5" t="inlineStr">
-        <is>
-          <t>05-06-2025 09:43:03</t>
-        </is>
-      </c>
-      <c r="D51" s="5" t="inlineStr">
-        <is>
-          <t>05-06-2025 10:19:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="5" t="n">
-        <v>245089</v>
-      </c>
-      <c r="B52" s="5" t="inlineStr">
+      <c r="C52" s="7" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:49:06</t>
+        </is>
+      </c>
+      <c r="D52" s="7" t="inlineStr">
+        <is>
+          <t>08-07-2025 08:04:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="7" t="n">
+        <v>243335</v>
+      </c>
+      <c r="B53" s="7" t="inlineStr">
         <is>
           <t>R12</t>
         </is>
       </c>
-      <c r="C52" s="5" t="inlineStr">
-        <is>
-          <t>06-06-2025 11:44:24</t>
-        </is>
-      </c>
-      <c r="D52" s="5" t="inlineStr">
-        <is>
-          <t>06-06-2025 12:18:24</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="5" t="n">
-        <v>252235</v>
-      </c>
-      <c r="B53" s="5" t="inlineStr">
+      <c r="C53" s="7" t="inlineStr">
+        <is>
+          <t>08-07-2025 08:27:24</t>
+        </is>
+      </c>
+      <c r="D53" s="7" t="inlineStr">
+        <is>
+          <t>08-07-2025 08:59:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="7" t="n">
+        <v>245623</v>
+      </c>
+      <c r="B54" s="7" t="inlineStr">
         <is>
           <t>R12</t>
         </is>
       </c>
-      <c r="C53" s="5" t="inlineStr">
-        <is>
-          <t>12-06-2025 09:06:05</t>
-        </is>
-      </c>
-      <c r="D53" s="5" t="inlineStr">
-        <is>
-          <t>12-06-2025 09:29:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="6" t="n">
-        <v>252112</v>
-      </c>
-      <c r="B54" s="6" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="C54" s="6" t="inlineStr">
-        <is>
-          <t>04-06-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="D54" s="6" t="inlineStr">
-        <is>
-          <t>04-06-2025 07:40:00</t>
+      <c r="C54" s="7" t="inlineStr">
+        <is>
+          <t>08-07-2025 13:34:26</t>
+        </is>
+      </c>
+      <c r="D54" s="7" t="inlineStr">
+        <is>
+          <t>08-07-2025 13:53:26</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="6" t="n">
-        <v>251917</v>
-      </c>
-      <c r="B55" s="6" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="C55" s="6" t="inlineStr">
-        <is>
-          <t>04-06-2025 11:54:08</t>
-        </is>
-      </c>
-      <c r="D55" s="6" t="inlineStr">
-        <is>
-          <t>04-06-2025 12:44:08</t>
+      <c r="A55" s="7" t="n">
+        <v>252686</v>
+      </c>
+      <c r="B55" s="7" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C55" s="7" t="inlineStr">
+        <is>
+          <t>09-07-2025 09:33:36</t>
+        </is>
+      </c>
+      <c r="D55" s="7" t="inlineStr">
+        <is>
+          <t>09-07-2025 09:50:36</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="6" t="n">
-        <v>251911</v>
-      </c>
-      <c r="B56" s="6" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="C56" s="6" t="inlineStr">
-        <is>
-          <t>04-06-2025 13:30:53</t>
-        </is>
-      </c>
-      <c r="D56" s="6" t="inlineStr">
-        <is>
-          <t>04-06-2025 14:10:53</t>
+      <c r="A56" s="8" t="n">
+        <v>252997</v>
+      </c>
+      <c r="B56" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C56" s="8" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D56" s="8" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:30:00</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="6" t="n">
-        <v>251390</v>
-      </c>
-      <c r="B57" s="6" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="C57" s="6" t="inlineStr">
-        <is>
-          <t>05-06-2025 09:22:13</t>
-        </is>
-      </c>
-      <c r="D57" s="6" t="inlineStr">
-        <is>
-          <t>05-06-2025 09:57:13</t>
+      <c r="A57" s="8" t="n">
+        <v>244023</v>
+      </c>
+      <c r="B57" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="inlineStr">
+        <is>
+          <t>08-07-2025 08:10:01</t>
+        </is>
+      </c>
+      <c r="D57" s="8" t="inlineStr">
+        <is>
+          <t>08-07-2025 08:50:01</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="6" t="n">
-        <v>251910</v>
-      </c>
-      <c r="B58" s="6" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="C58" s="6" t="inlineStr">
-        <is>
-          <t>05-06-2025 10:41:12</t>
-        </is>
-      </c>
-      <c r="D58" s="6" t="inlineStr">
-        <is>
-          <t>05-06-2025 11:16:12</t>
+      <c r="A58" s="8" t="n">
+        <v>252144</v>
+      </c>
+      <c r="B58" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="inlineStr">
+        <is>
+          <t>08-07-2025 08:58:19</t>
+        </is>
+      </c>
+      <c r="D58" s="8" t="inlineStr">
+        <is>
+          <t>08-07-2025 09:43:19</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="6" t="n">
-        <v>251992</v>
-      </c>
-      <c r="B59" s="6" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="C59" s="6" t="inlineStr">
-        <is>
-          <t>06-06-2025 07:46:26</t>
-        </is>
-      </c>
-      <c r="D59" s="6" t="inlineStr">
-        <is>
-          <t>06-06-2025 08:31:26</t>
+      <c r="A59" s="8" t="n">
+        <v>251790</v>
+      </c>
+      <c r="B59" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="inlineStr">
+        <is>
+          <t>08-07-2025 10:37:27</t>
+        </is>
+      </c>
+      <c r="D59" s="8" t="inlineStr">
+        <is>
+          <t>08-07-2025 11:02:27</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="6" t="n">
-        <v>251993</v>
-      </c>
-      <c r="B60" s="6" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="C60" s="6" t="inlineStr">
-        <is>
-          <t>06-06-2025 10:03:47</t>
-        </is>
-      </c>
-      <c r="D60" s="6" t="inlineStr">
-        <is>
-          <t>06-06-2025 10:48:47</t>
+      <c r="A60" s="8" t="n">
+        <v>252364</v>
+      </c>
+      <c r="B60" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="inlineStr">
+        <is>
+          <t>08-07-2025 14:57:31</t>
+        </is>
+      </c>
+      <c r="D60" s="8" t="inlineStr">
+        <is>
+          <t>09-07-2025 07:32:31</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="6" t="n">
-        <v>251898</v>
-      </c>
-      <c r="B61" s="6" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="C61" s="6" t="inlineStr">
-        <is>
-          <t>06-06-2025 14:56:48</t>
-        </is>
-      </c>
-      <c r="D61" s="6" t="inlineStr">
-        <is>
-          <t>09-06-2025 07:33:48</t>
+      <c r="A61" s="8" t="n">
+        <v>252071</v>
+      </c>
+      <c r="B61" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>09-07-2025 09:07:04</t>
+        </is>
+      </c>
+      <c r="D61" s="8" t="inlineStr">
+        <is>
+          <t>09-07-2025 09:42:04</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="6" t="n">
-        <v>252110</v>
-      </c>
-      <c r="B62" s="6" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="C62" s="6" t="inlineStr">
-        <is>
-          <t>09-06-2025 09:48:36</t>
-        </is>
-      </c>
-      <c r="D62" s="6" t="inlineStr">
-        <is>
-          <t>09-06-2025 10:30:36</t>
+      <c r="A62" s="8" t="n">
+        <v>252713</v>
+      </c>
+      <c r="B62" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>09-07-2025 10:27:48</t>
+        </is>
+      </c>
+      <c r="D62" s="8" t="inlineStr">
+        <is>
+          <t>09-07-2025 10:57:48</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="6" t="n">
-        <v>252410</v>
-      </c>
-      <c r="B63" s="6" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="C63" s="6" t="inlineStr">
-        <is>
-          <t>09-06-2025 12:41:25</t>
-        </is>
-      </c>
-      <c r="D63" s="6" t="inlineStr">
-        <is>
-          <t>09-06-2025 13:31:25</t>
+      <c r="A63" s="8" t="n">
+        <v>251926</v>
+      </c>
+      <c r="B63" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>11-07-2025 10:05:34</t>
+        </is>
+      </c>
+      <c r="D63" s="8" t="inlineStr">
+        <is>
+          <t>11-07-2025 10:35:34</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="6" t="n">
-        <v>252337</v>
-      </c>
-      <c r="B64" s="6" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="C64" s="6" t="inlineStr">
-        <is>
-          <t>10-06-2025 08:05:19</t>
-        </is>
-      </c>
-      <c r="D64" s="6" t="inlineStr">
-        <is>
-          <t>10-06-2025 08:40:19</t>
+      <c r="A64" s="8" t="n">
+        <v>251495</v>
+      </c>
+      <c r="B64" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>11-07-2025 11:54:29</t>
+        </is>
+      </c>
+      <c r="D64" s="8" t="inlineStr">
+        <is>
+          <t>11-07-2025 12:24:29</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="6" t="n">
-        <v>251681</v>
-      </c>
-      <c r="B65" s="6" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="C65" s="6" t="inlineStr">
-        <is>
-          <t>16-06-2025 09:03:57</t>
-        </is>
-      </c>
-      <c r="D65" s="6" t="inlineStr">
-        <is>
-          <t>16-06-2025 09:43:57</t>
+      <c r="A65" s="8" t="n">
+        <v>252470</v>
+      </c>
+      <c r="B65" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>11-07-2025 13:36:49</t>
+        </is>
+      </c>
+      <c r="D65" s="8" t="inlineStr">
+        <is>
+          <t>11-07-2025 14:06:49</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="6" t="n">
-        <v>252293</v>
-      </c>
-      <c r="B66" s="6" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="C66" s="6" t="inlineStr">
-        <is>
-          <t>16-06-2025 11:05:17</t>
-        </is>
-      </c>
-      <c r="D66" s="6" t="inlineStr">
-        <is>
-          <t>16-06-2025 11:40:17</t>
+      <c r="A66" s="8" t="n">
+        <v>252334</v>
+      </c>
+      <c r="B66" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>14-07-2025 07:09:19</t>
+        </is>
+      </c>
+      <c r="D66" s="8" t="inlineStr">
+        <is>
+          <t>14-07-2025 07:39:19</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="7" t="n">
-        <v>251655</v>
-      </c>
-      <c r="B67" s="7" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="C67" s="7" t="inlineStr">
-        <is>
-          <t>05-06-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="D67" s="7" t="inlineStr">
-        <is>
-          <t>05-06-2025 07:40:00</t>
+      <c r="A67" s="9" t="n">
+        <v>251919</v>
+      </c>
+      <c r="B67" s="9" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C67" s="9" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D67" s="9" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:40:00</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="8" t="n">
-        <v>251573</v>
-      </c>
-      <c r="B68" s="8" t="inlineStr">
+      <c r="A68" s="9" t="n">
+        <v>244828</v>
+      </c>
+      <c r="B68" s="9" t="inlineStr">
         <is>
           <t>R9</t>
         </is>
       </c>
-      <c r="C68" s="8" t="inlineStr">
-        <is>
-          <t>06-06-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="D68" s="8" t="inlineStr">
-        <is>
-          <t>06-06-2025 07:35:00</t>
+      <c r="C68" s="9" t="inlineStr">
+        <is>
+          <t>08-07-2025 10:00:03</t>
+        </is>
+      </c>
+      <c r="D68" s="9" t="inlineStr">
+        <is>
+          <t>08-07-2025 10:35:03</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="8" t="n">
-        <v>243335</v>
-      </c>
-      <c r="B69" s="8" t="inlineStr">
+      <c r="A69" s="9" t="n">
+        <v>243524</v>
+      </c>
+      <c r="B69" s="9" t="inlineStr">
         <is>
           <t>R9</t>
         </is>
       </c>
-      <c r="C69" s="8" t="inlineStr">
-        <is>
-          <t>06-06-2025 09:04:53</t>
-        </is>
-      </c>
-      <c r="D69" s="8" t="inlineStr">
-        <is>
-          <t>06-06-2025 09:34:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="8" t="n">
-        <v>251944</v>
-      </c>
-      <c r="B70" s="8" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C70" s="8" t="inlineStr">
-        <is>
-          <t>09-06-2025 09:33:13</t>
-        </is>
-      </c>
-      <c r="D70" s="8" t="inlineStr">
-        <is>
-          <t>09-06-2025 10:08:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="8" t="n">
-        <v>252395</v>
-      </c>
-      <c r="B71" s="8" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C71" s="8" t="inlineStr">
-        <is>
-          <t>10-06-2025 11:59:03</t>
-        </is>
-      </c>
-      <c r="D71" s="8" t="inlineStr">
-        <is>
-          <t>10-06-2025 12:44:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="8" t="n">
-        <v>252325</v>
-      </c>
-      <c r="B72" s="8" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C72" s="8" t="inlineStr">
-        <is>
-          <t>13-06-2025 10:25:19</t>
-        </is>
-      </c>
-      <c r="D72" s="8" t="inlineStr">
-        <is>
-          <t>13-06-2025 11:15:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="8" t="n">
-        <v>252326</v>
-      </c>
-      <c r="B73" s="8" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C73" s="8" t="inlineStr">
-        <is>
-          <t>16-06-2025 07:37:38</t>
-        </is>
-      </c>
-      <c r="D73" s="8" t="inlineStr">
-        <is>
-          <t>16-06-2025 08:02:38</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="9" t="n">
-        <v>251082</v>
-      </c>
-      <c r="B74" s="9" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="C74" s="9" t="inlineStr">
-        <is>
-          <t>05-06-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="D74" s="9" t="inlineStr">
-        <is>
-          <t>05-06-2025 07:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="9" t="n">
-        <v>252375</v>
-      </c>
-      <c r="B75" s="9" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="C75" s="9" t="inlineStr">
-        <is>
-          <t>05-06-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="D75" s="9" t="inlineStr">
-        <is>
-          <t>05-06-2025 07:00:00</t>
+      <c r="C69" s="9" t="inlineStr">
+        <is>
+          <t>08-07-2025 11:18:24</t>
+        </is>
+      </c>
+      <c r="D69" s="9" t="inlineStr">
+        <is>
+          <t>08-07-2025 11:53:24</t>
         </is>
       </c>
     </row>

--- a/PS-VRP/Dati_output/output_ridotto.xlsx
+++ b/PS-VRP/Dati_output/output_ridotto.xlsx
@@ -44,6 +44,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FFF2CC"/>
+        <bgColor rgb="00FFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00E2EFDA"/>
         <bgColor rgb="00E2EFDA"/>
       </patternFill>
@@ -56,20 +62,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D9D2E9"/>
-        <bgColor rgb="00D9D2E9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00F4CCCC"/>
         <bgColor rgb="00F4CCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FCE5CD"/>
-        <bgColor rgb="00FCE5CD"/>
       </patternFill>
     </fill>
     <fill>
@@ -80,8 +74,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFF2CC"/>
-        <bgColor rgb="00FFF2CC"/>
+        <fgColor rgb="00D9D2E9"/>
+        <bgColor rgb="00D9D2E9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FCE5CD"/>
+        <bgColor rgb="00FCE5CD"/>
       </patternFill>
     </fill>
   </fills>
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -536,7 +536,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>243569</v>
+        <v>243524</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
@@ -556,7 +556,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>252207</v>
+        <v>252978</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
@@ -565,18 +565,18 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 07:38:40</t>
+          <t>08-07-2025 08:23:37</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 07:53:40</t>
+          <t>08-07-2025 08:38:37</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>252371</v>
+        <v>250284</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
@@ -585,18 +585,18 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 08:45:13</t>
+          <t>08-07-2025 09:01:55</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 09:02:13</t>
+          <t>08-07-2025 09:41:55</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>252298</v>
+        <v>243569</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
@@ -605,18 +605,18 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 09:52:16</t>
+          <t>08-07-2025 12:08:16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 10:11:16</t>
+          <t>08-07-2025 12:48:16</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>252546</v>
+        <v>251919</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
@@ -625,18 +625,18 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 11:22:02</t>
+          <t>08-07-2025 13:09:56</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 11:43:02</t>
+          <t>08-07-2025 13:39:56</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>252087</v>
+        <v>252220</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
@@ -645,18 +645,18 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 12:37:40</t>
+          <t>09-07-2025 07:59:59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 13:07:40</t>
+          <t>09-07-2025 08:31:59</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>252237</v>
+        <v>252686</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
@@ -665,18 +665,18 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 13:43:10</t>
+          <t>09-07-2025 09:52:30</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 14:15:10</t>
+          <t>09-07-2025 10:24:30</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>252999</v>
+        <v>252207</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
@@ -685,78 +685,78 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>09-07-2025 07:40:07</t>
+          <t>10-07-2025 07:53:39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>09-07-2025 08:14:07</t>
+          <t>10-07-2025 08:23:39</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>245089</v>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>BIMEC 3</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>09-07-2025 13:39:57</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>09-07-2025 14:13:57</t>
+      <c r="A10" s="3" t="n">
+        <v>252298</v>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:50:00</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>252755</v>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>BIMEC 3</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>14-07-2025 07:16:10</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>14-07-2025 07:46:10</t>
+      <c r="A11" s="3" t="n">
+        <v>252371</v>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>08-07-2025 09:00:46</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>08-07-2025 09:29:46</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>252899</v>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>BIMEC 3</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>14-07-2025 09:35:44</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>14-07-2025 09:52:44</t>
+      <c r="A12" s="3" t="n">
+        <v>252230</v>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>08-07-2025 10:19:48</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>08-07-2025 10:46:48</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>243525</v>
+        <v>252347</v>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
@@ -765,18 +765,18 @@
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>08-07-2025 11:49:56</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>08-07-2025 07:44:00</t>
+          <t>08-07-2025 12:31:56</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>250284</v>
+        <v>252087</v>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
@@ -785,18 +785,18 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>08-07-2025 09:53:59</t>
+          <t>08-07-2025 14:04:13</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>08-07-2025 10:43:59</t>
+          <t>08-07-2025 14:31:13</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>252636</v>
+        <v>252063</v>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
@@ -805,18 +805,18 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>08-07-2025 13:10:20</t>
+          <t>09-07-2025 07:06:43</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>08-07-2025 13:45:20</t>
+          <t>09-07-2025 07:46:43</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>252085</v>
+        <v>252144</v>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
@@ -825,12 +825,12 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>08-07-2025 13:56:36</t>
+          <t>09-07-2025 09:06:39</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>08-07-2025 14:23:36</t>
+          <t>09-07-2025 09:31:39</t>
         </is>
       </c>
     </row>
@@ -845,18 +845,18 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>08-07-2025 14:52:09</t>
+          <t>09-07-2025 10:25:47</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>09-07-2025 07:21:09</t>
+          <t>09-07-2025 11:07:47</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>252244</v>
+        <v>245623</v>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
@@ -865,18 +865,18 @@
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>09-07-2025 08:10:02</t>
+          <t>09-07-2025 11:56:40</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>09-07-2025 08:54:02</t>
+          <t>09-07-2025 12:36:40</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>252784</v>
+        <v>252456</v>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
@@ -885,738 +885,738 @@
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>09-07-2025 10:41:36</t>
+          <t>10-07-2025 08:16:49</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>09-07-2025 11:25:36</t>
+          <t>10-07-2025 09:02:49</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
+        <v>243335</v>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>10-07-2025 11:27:17</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>10-07-2025 12:09:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="n">
+        <v>251231</v>
+      </c>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D21" s="4" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:30:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="n">
+        <v>252244</v>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>08-07-2025 12:42:18</t>
+        </is>
+      </c>
+      <c r="D22" s="4" t="inlineStr">
+        <is>
+          <t>08-07-2025 13:16:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="n">
+        <v>252201</v>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>09-07-2025 07:03:53</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="inlineStr">
+        <is>
+          <t>09-07-2025 07:20:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="n">
+        <v>252476</v>
+      </c>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>09-07-2025 07:54:59</t>
+        </is>
+      </c>
+      <c r="D24" s="4" t="inlineStr">
+        <is>
+          <t>09-07-2025 08:24:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="n">
+        <v>243525</v>
+      </c>
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>09-07-2025 09:37:20</t>
+        </is>
+      </c>
+      <c r="D25" s="4" t="inlineStr">
+        <is>
+          <t>09-07-2025 10:07:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="n">
+        <v>252785</v>
+      </c>
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t>09-07-2025 12:17:19</t>
+        </is>
+      </c>
+      <c r="D26" s="4" t="inlineStr">
+        <is>
+          <t>09-07-2025 12:53:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="n">
+        <v>252638</v>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>09-07-2025 13:49:04</t>
+        </is>
+      </c>
+      <c r="D27" s="4" t="inlineStr">
+        <is>
+          <t>09-07-2025 14:06:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="n">
+        <v>252350</v>
+      </c>
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t>10-07-2025 07:07:33</t>
+        </is>
+      </c>
+      <c r="D28" s="4" t="inlineStr">
+        <is>
+          <t>10-07-2025 07:28:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="n">
+        <v>252277</v>
+      </c>
+      <c r="B29" s="5" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:34:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="n">
+        <v>251674</v>
+      </c>
+      <c r="B30" s="5" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>08-07-2025 09:59:25</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="inlineStr">
+        <is>
+          <t>08-07-2025 10:51:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="n">
+        <v>252636</v>
+      </c>
+      <c r="B31" s="5" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>08-07-2025 13:19:03</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="inlineStr">
+        <is>
+          <t>08-07-2025 14:11:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="n">
+        <v>252345</v>
+      </c>
+      <c r="B32" s="5" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C32" s="5" t="inlineStr">
+        <is>
+          <t>08-07-2025 14:22:49</t>
+        </is>
+      </c>
+      <c r="D32" s="5" t="inlineStr">
+        <is>
+          <t>08-07-2025 14:53:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="n">
+        <v>252085</v>
+      </c>
+      <c r="B33" s="5" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>09-07-2025 07:36:39</t>
+        </is>
+      </c>
+      <c r="D33" s="5" t="inlineStr">
+        <is>
+          <t>09-07-2025 08:09:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="n">
+        <v>251685</v>
+      </c>
+      <c r="B34" s="5" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t>09-07-2025 08:37:42</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="inlineStr">
+        <is>
+          <t>09-07-2025 09:12:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="n">
+        <v>252652</v>
+      </c>
+      <c r="B35" s="5" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>09-07-2025 10:50:57</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="inlineStr">
+        <is>
+          <t>09-07-2025 11:27:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="n">
+        <v>252549</v>
+      </c>
+      <c r="B36" s="5" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
+        <is>
+          <t>09-07-2025 14:33:28</t>
+        </is>
+      </c>
+      <c r="D36" s="5" t="inlineStr">
+        <is>
+          <t>10-07-2025 07:03:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="n">
+        <v>252402</v>
+      </c>
+      <c r="B37" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D37" s="6" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:40:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="n">
+        <v>252071</v>
+      </c>
+      <c r="B38" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="inlineStr">
+        <is>
+          <t>08-07-2025 08:05:04</t>
+        </is>
+      </c>
+      <c r="D38" s="6" t="inlineStr">
+        <is>
+          <t>08-07-2025 08:30:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="6" t="n">
+        <v>252152</v>
+      </c>
+      <c r="B39" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="inlineStr">
+        <is>
+          <t>08-07-2025 09:15:48</t>
+        </is>
+      </c>
+      <c r="D39" s="6" t="inlineStr">
+        <is>
+          <t>08-07-2025 09:45:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="n">
+        <v>251632</v>
+      </c>
+      <c r="B40" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C40" s="6" t="inlineStr">
+        <is>
+          <t>08-07-2025 10:13:10</t>
+        </is>
+      </c>
+      <c r="D40" s="6" t="inlineStr">
+        <is>
+          <t>08-07-2025 11:38:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="n">
+        <v>252783</v>
+      </c>
+      <c r="B41" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C41" s="6" t="inlineStr">
+        <is>
+          <t>09-07-2025 13:26:41</t>
+        </is>
+      </c>
+      <c r="D41" s="6" t="inlineStr">
+        <is>
+          <t>09-07-2025 14:31:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="7" t="n">
+        <v>243529</v>
+      </c>
+      <c r="B42" s="7" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C42" s="7" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D42" s="7" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="7" t="n">
+        <v>244828</v>
+      </c>
+      <c r="B43" s="7" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C43" s="7" t="inlineStr">
+        <is>
+          <t>08-07-2025 09:24:59</t>
+        </is>
+      </c>
+      <c r="D43" s="7" t="inlineStr">
+        <is>
+          <t>08-07-2025 09:56:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="7" t="n">
         <v>252723</v>
       </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>09-07-2025 11:52:35</t>
-        </is>
-      </c>
-      <c r="D20" s="3" t="inlineStr">
-        <is>
-          <t>09-07-2025 12:38:35</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="n">
-        <v>252350</v>
-      </c>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>10-07-2025 07:12:32</t>
-        </is>
-      </c>
-      <c r="D21" s="3" t="inlineStr">
-        <is>
-          <t>10-07-2025 07:54:32</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="n">
-        <v>252638</v>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>10-07-2025 08:46:25</t>
-        </is>
-      </c>
-      <c r="D22" s="3" t="inlineStr">
-        <is>
-          <t>10-07-2025 09:17:25</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="n">
-        <v>252456</v>
-      </c>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>10-07-2025 10:18:55</t>
-        </is>
-      </c>
-      <c r="D23" s="3" t="inlineStr">
-        <is>
-          <t>10-07-2025 10:43:55</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="n">
-        <v>252549</v>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>10-07-2025 13:08:22</t>
-        </is>
-      </c>
-      <c r="D24" s="3" t="inlineStr">
-        <is>
-          <t>10-07-2025 13:37:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="n">
-        <v>252336</v>
-      </c>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr">
-        <is>
-          <t>11-07-2025 07:09:58</t>
-        </is>
-      </c>
-      <c r="D25" s="3" t="inlineStr">
-        <is>
-          <t>11-07-2025 07:38:58</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="n">
-        <v>252547</v>
-      </c>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C26" s="3" t="inlineStr">
-        <is>
-          <t>11-07-2025 09:39:14</t>
-        </is>
-      </c>
-      <c r="D26" s="3" t="inlineStr">
-        <is>
-          <t>11-07-2025 10:04:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="n">
+      <c r="B44" s="7" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C44" s="7" t="inlineStr">
+        <is>
+          <t>08-07-2025 10:40:20</t>
+        </is>
+      </c>
+      <c r="D44" s="7" t="inlineStr">
+        <is>
+          <t>08-07-2025 11:12:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="7" t="n">
+        <v>252814</v>
+      </c>
+      <c r="B45" s="7" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C45" s="7" t="inlineStr">
+        <is>
+          <t>08-07-2025 13:46:18</t>
+        </is>
+      </c>
+      <c r="D45" s="7" t="inlineStr">
+        <is>
+          <t>08-07-2025 14:03:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="7" t="n">
+        <v>251790</v>
+      </c>
+      <c r="B46" s="7" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C46" s="7" t="inlineStr">
+        <is>
+          <t>08-07-2025 14:53:23</t>
+        </is>
+      </c>
+      <c r="D46" s="7" t="inlineStr">
+        <is>
+          <t>09-07-2025 07:10:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="7" t="n">
+        <v>241783</v>
+      </c>
+      <c r="B47" s="7" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C47" s="7" t="inlineStr">
+        <is>
+          <t>09-07-2025 11:05:26</t>
+        </is>
+      </c>
+      <c r="D47" s="7" t="inlineStr">
+        <is>
+          <t>09-07-2025 11:20:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="7" t="n">
+        <v>245089</v>
+      </c>
+      <c r="B48" s="7" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C48" s="7" t="inlineStr">
+        <is>
+          <t>09-07-2025 12:03:46</t>
+        </is>
+      </c>
+      <c r="D48" s="7" t="inlineStr">
+        <is>
+          <t>09-07-2025 12:20:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="8" t="n">
+        <v>252146</v>
+      </c>
+      <c r="B49" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D49" s="8" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:30:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="8" t="n">
+        <v>252470</v>
+      </c>
+      <c r="B50" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="inlineStr">
+        <is>
+          <t>08-07-2025 08:36:38</t>
+        </is>
+      </c>
+      <c r="D50" s="8" t="inlineStr">
+        <is>
+          <t>08-07-2025 09:11:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="8" t="n">
+        <v>244023</v>
+      </c>
+      <c r="B51" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="inlineStr">
+        <is>
+          <t>08-07-2025 10:14:08</t>
+        </is>
+      </c>
+      <c r="D51" s="8" t="inlineStr">
+        <is>
+          <t>08-07-2025 10:49:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="8" t="n">
+        <v>252237</v>
+      </c>
+      <c r="B52" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="inlineStr">
+        <is>
+          <t>08-07-2025 10:57:26</t>
+        </is>
+      </c>
+      <c r="D52" s="8" t="inlineStr">
+        <is>
+          <t>08-07-2025 11:37:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="8" t="n">
+        <v>252364</v>
+      </c>
+      <c r="B53" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="inlineStr">
+        <is>
+          <t>08-07-2025 13:02:23</t>
+        </is>
+      </c>
+      <c r="D53" s="8" t="inlineStr">
+        <is>
+          <t>08-07-2025 13:32:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="8" t="n">
+        <v>252713</v>
+      </c>
+      <c r="B54" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="inlineStr">
+        <is>
+          <t>09-07-2025 07:06:56</t>
+        </is>
+      </c>
+      <c r="D54" s="8" t="inlineStr">
+        <is>
+          <t>09-07-2025 07:36:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="8" t="n">
         <v>252157</v>
       </c>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr">
-        <is>
-          <t>11-07-2025 11:25:24</t>
-        </is>
-      </c>
-      <c r="D27" s="3" t="inlineStr">
-        <is>
-          <t>11-07-2025 11:58:24</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="3" t="n">
-        <v>252790</v>
-      </c>
-      <c r="B28" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C28" s="3" t="inlineStr">
-        <is>
-          <t>14-07-2025 10:35:14</t>
-        </is>
-      </c>
-      <c r="D28" s="3" t="inlineStr">
-        <is>
-          <t>14-07-2025 11:08:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="n">
-        <v>252467</v>
-      </c>
-      <c r="B29" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C29" s="3" t="inlineStr">
-        <is>
-          <t>14-07-2025 11:20:20</t>
-        </is>
-      </c>
-      <c r="D29" s="3" t="inlineStr">
-        <is>
-          <t>14-07-2025 11:45:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="4" t="n">
-        <v>252230</v>
-      </c>
-      <c r="B30" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C30" s="4" t="inlineStr">
-        <is>
-          <t>08-07-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="D30" s="4" t="inlineStr">
-        <is>
-          <t>08-07-2025 07:21:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="4" t="n">
-        <v>252063</v>
-      </c>
-      <c r="B31" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C31" s="4" t="inlineStr">
-        <is>
-          <t>08-07-2025 08:24:07</t>
-        </is>
-      </c>
-      <c r="D31" s="4" t="inlineStr">
-        <is>
-          <t>08-07-2025 08:39:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="4" t="n">
-        <v>251798</v>
-      </c>
-      <c r="B32" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C32" s="4" t="inlineStr">
-        <is>
-          <t>08-07-2025 09:59:04</t>
-        </is>
-      </c>
-      <c r="D32" s="4" t="inlineStr">
-        <is>
-          <t>08-07-2025 10:16:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="4" t="n">
-        <v>243529</v>
-      </c>
-      <c r="B33" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C33" s="4" t="inlineStr">
-        <is>
-          <t>08-07-2025 12:19:21</t>
-        </is>
-      </c>
-      <c r="D33" s="4" t="inlineStr">
-        <is>
-          <t>08-07-2025 12:36:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="4" t="n">
-        <v>252476</v>
-      </c>
-      <c r="B34" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C34" s="4" t="inlineStr">
-        <is>
-          <t>08-07-2025 14:46:20</t>
-        </is>
-      </c>
-      <c r="D34" s="4" t="inlineStr">
-        <is>
-          <t>09-07-2025 07:16:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="4" t="n">
-        <v>252814</v>
-      </c>
-      <c r="B35" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C35" s="4" t="inlineStr">
-        <is>
-          <t>09-07-2025 08:28:41</t>
-        </is>
-      </c>
-      <c r="D35" s="4" t="inlineStr">
-        <is>
-          <t>09-07-2025 09:00:41</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="4" t="n">
-        <v>252243</v>
-      </c>
-      <c r="B36" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C36" s="4" t="inlineStr">
-        <is>
-          <t>09-07-2025 09:50:46</t>
-        </is>
-      </c>
-      <c r="D36" s="4" t="inlineStr">
-        <is>
-          <t>09-07-2025 10:05:46</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="4" t="n">
-        <v>252785</v>
-      </c>
-      <c r="B37" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C37" s="4" t="inlineStr">
-        <is>
-          <t>09-07-2025 11:42:28</t>
-        </is>
-      </c>
-      <c r="D37" s="4" t="inlineStr">
-        <is>
-          <t>09-07-2025 12:16:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="4" t="n">
-        <v>241783</v>
-      </c>
-      <c r="B38" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C38" s="4" t="inlineStr">
-        <is>
-          <t>09-07-2025 13:12:13</t>
-        </is>
-      </c>
-      <c r="D38" s="4" t="inlineStr">
-        <is>
-          <t>09-07-2025 13:48:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="5" t="n">
-        <v>252345</v>
-      </c>
-      <c r="B39" s="5" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C39" s="5" t="inlineStr">
-        <is>
-          <t>08-07-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="D39" s="5" t="inlineStr">
-        <is>
-          <t>08-07-2025 07:34:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="5" t="n">
-        <v>252347</v>
-      </c>
-      <c r="B40" s="5" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C40" s="5" t="inlineStr">
-        <is>
-          <t>08-07-2025 08:17:49</t>
-        </is>
-      </c>
-      <c r="D40" s="5" t="inlineStr">
-        <is>
-          <t>08-07-2025 08:50:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="5" t="n">
-        <v>252220</v>
-      </c>
-      <c r="B41" s="5" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C41" s="5" t="inlineStr">
-        <is>
-          <t>08-07-2025 10:22:36</t>
-        </is>
-      </c>
-      <c r="D41" s="5" t="inlineStr">
-        <is>
-          <t>08-07-2025 10:57:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="5" t="n">
-        <v>252652</v>
-      </c>
-      <c r="B42" s="5" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C42" s="5" t="inlineStr">
-        <is>
-          <t>08-07-2025 12:17:37</t>
-        </is>
-      </c>
-      <c r="D42" s="5" t="inlineStr">
-        <is>
-          <t>08-07-2025 12:50:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="5" t="n">
-        <v>251674</v>
-      </c>
-      <c r="B43" s="5" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C43" s="5" t="inlineStr">
-        <is>
-          <t>09-07-2025 07:56:08</t>
-        </is>
-      </c>
-      <c r="D43" s="5" t="inlineStr">
-        <is>
-          <t>09-07-2025 08:48:38</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="5" t="n">
-        <v>251685</v>
-      </c>
-      <c r="B44" s="5" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C44" s="5" t="inlineStr">
-        <is>
-          <t>09-07-2025 11:15:45</t>
-        </is>
-      </c>
-      <c r="D44" s="5" t="inlineStr">
-        <is>
-          <t>09-07-2025 12:02:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="5" t="n">
-        <v>252783</v>
-      </c>
-      <c r="B45" s="5" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C45" s="5" t="inlineStr">
-        <is>
-          <t>09-07-2025 13:41:01</t>
-        </is>
-      </c>
-      <c r="D45" s="5" t="inlineStr">
-        <is>
-          <t>09-07-2025 14:11:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="6" t="n">
-        <v>252047</v>
-      </c>
-      <c r="B46" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C46" s="6" t="inlineStr">
-        <is>
-          <t>08-07-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="D46" s="6" t="inlineStr">
-        <is>
-          <t>08-07-2025 07:40:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="6" t="n">
-        <v>252152</v>
-      </c>
-      <c r="B47" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C47" s="6" t="inlineStr">
-        <is>
-          <t>08-07-2025 08:50:53</t>
-        </is>
-      </c>
-      <c r="D47" s="6" t="inlineStr">
-        <is>
-          <t>08-07-2025 09:20:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="6" t="n">
-        <v>252402</v>
-      </c>
-      <c r="B48" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C48" s="6" t="inlineStr">
-        <is>
-          <t>08-07-2025 09:48:15</t>
-        </is>
-      </c>
-      <c r="D48" s="6" t="inlineStr">
-        <is>
-          <t>08-07-2025 10:18:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="6" t="n">
-        <v>252146</v>
-      </c>
-      <c r="B49" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C49" s="6" t="inlineStr">
-        <is>
-          <t>08-07-2025 10:43:19</t>
-        </is>
-      </c>
-      <c r="D49" s="6" t="inlineStr">
-        <is>
-          <t>08-07-2025 11:18:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="6" t="n">
-        <v>251632</v>
-      </c>
-      <c r="B50" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C50" s="6" t="inlineStr">
-        <is>
-          <t>08-07-2025 12:24:57</t>
-        </is>
-      </c>
-      <c r="D50" s="6" t="inlineStr">
-        <is>
-          <t>08-07-2025 13:54:57</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="7" t="n">
-        <v>252201</v>
-      </c>
-      <c r="B51" s="7" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C51" s="7" t="inlineStr">
-        <is>
-          <t>08-07-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="D51" s="7" t="inlineStr">
-        <is>
-          <t>08-07-2025 07:15:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="7" t="n">
-        <v>252978</v>
-      </c>
-      <c r="B52" s="7" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C52" s="7" t="inlineStr">
-        <is>
-          <t>08-07-2025 07:49:06</t>
-        </is>
-      </c>
-      <c r="D52" s="7" t="inlineStr">
-        <is>
-          <t>08-07-2025 08:04:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="7" t="n">
-        <v>243335</v>
-      </c>
-      <c r="B53" s="7" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C53" s="7" t="inlineStr">
-        <is>
-          <t>08-07-2025 08:27:24</t>
-        </is>
-      </c>
-      <c r="D53" s="7" t="inlineStr">
-        <is>
-          <t>08-07-2025 08:59:24</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="7" t="n">
-        <v>245623</v>
-      </c>
-      <c r="B54" s="7" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C54" s="7" t="inlineStr">
-        <is>
-          <t>08-07-2025 13:34:26</t>
-        </is>
-      </c>
-      <c r="D54" s="7" t="inlineStr">
-        <is>
-          <t>08-07-2025 13:53:26</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="7" t="n">
-        <v>252686</v>
-      </c>
-      <c r="B55" s="7" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C55" s="7" t="inlineStr">
-        <is>
-          <t>09-07-2025 09:33:36</t>
-        </is>
-      </c>
-      <c r="D55" s="7" t="inlineStr">
-        <is>
-          <t>09-07-2025 09:50:36</t>
+      <c r="B55" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C55" s="8" t="inlineStr">
+        <is>
+          <t>10-07-2025 14:44:42</t>
+        </is>
+      </c>
+      <c r="D55" s="8" t="inlineStr">
+        <is>
+          <t>11-07-2025 07:29:42</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="8" t="n">
-        <v>252997</v>
+        <v>252243</v>
       </c>
       <c r="B56" s="8" t="inlineStr">
         <is>
@@ -1625,18 +1625,18 @@
       </c>
       <c r="C56" s="8" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>11-07-2025 14:06:32</t>
         </is>
       </c>
       <c r="D56" s="8" t="inlineStr">
         <is>
-          <t>08-07-2025 07:30:00</t>
+          <t>14-07-2025 07:01:32</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="8" t="n">
-        <v>244023</v>
+        <v>251926</v>
       </c>
       <c r="B57" s="8" t="inlineStr">
         <is>
@@ -1645,18 +1645,18 @@
       </c>
       <c r="C57" s="8" t="inlineStr">
         <is>
-          <t>08-07-2025 08:10:01</t>
+          <t>14-07-2025 08:38:14</t>
         </is>
       </c>
       <c r="D57" s="8" t="inlineStr">
         <is>
-          <t>08-07-2025 08:50:01</t>
+          <t>14-07-2025 09:08:14</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="8" t="n">
-        <v>252144</v>
+        <v>251495</v>
       </c>
       <c r="B58" s="8" t="inlineStr">
         <is>
@@ -1665,18 +1665,18 @@
       </c>
       <c r="C58" s="8" t="inlineStr">
         <is>
-          <t>08-07-2025 08:58:19</t>
+          <t>14-07-2025 10:27:09</t>
         </is>
       </c>
       <c r="D58" s="8" t="inlineStr">
         <is>
-          <t>08-07-2025 09:43:19</t>
+          <t>14-07-2025 10:57:09</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="8" t="n">
-        <v>251790</v>
+        <v>252336</v>
       </c>
       <c r="B59" s="8" t="inlineStr">
         <is>
@@ -1685,18 +1685,18 @@
       </c>
       <c r="C59" s="8" t="inlineStr">
         <is>
-          <t>08-07-2025 10:37:27</t>
+          <t>14-07-2025 12:09:30</t>
         </is>
       </c>
       <c r="D59" s="8" t="inlineStr">
         <is>
-          <t>08-07-2025 11:02:27</t>
+          <t>14-07-2025 12:34:30</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="8" t="n">
-        <v>252364</v>
+        <v>252334</v>
       </c>
       <c r="B60" s="8" t="inlineStr">
         <is>
@@ -1705,18 +1705,18 @@
       </c>
       <c r="C60" s="8" t="inlineStr">
         <is>
-          <t>08-07-2025 14:57:31</t>
+          <t>14-07-2025 14:34:46</t>
         </is>
       </c>
       <c r="D60" s="8" t="inlineStr">
         <is>
-          <t>09-07-2025 07:32:31</t>
+          <t>14-07-2025 14:59:46</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="8" t="n">
-        <v>252071</v>
+        <v>252755</v>
       </c>
       <c r="B61" s="8" t="inlineStr">
         <is>
@@ -1725,18 +1725,18 @@
       </c>
       <c r="C61" s="8" t="inlineStr">
         <is>
-          <t>09-07-2025 09:07:04</t>
+          <t>16-07-2025 07:06:22</t>
         </is>
       </c>
       <c r="D61" s="8" t="inlineStr">
         <is>
-          <t>09-07-2025 09:42:04</t>
+          <t>16-07-2025 07:36:22</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="8" t="n">
-        <v>252713</v>
+        <v>252899</v>
       </c>
       <c r="B62" s="8" t="inlineStr">
         <is>
@@ -1745,18 +1745,18 @@
       </c>
       <c r="C62" s="8" t="inlineStr">
         <is>
-          <t>09-07-2025 10:27:48</t>
+          <t>16-07-2025 09:25:56</t>
         </is>
       </c>
       <c r="D62" s="8" t="inlineStr">
         <is>
-          <t>09-07-2025 10:57:48</t>
+          <t>16-07-2025 09:55:56</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="8" t="n">
-        <v>251926</v>
+        <v>252790</v>
       </c>
       <c r="B63" s="8" t="inlineStr">
         <is>
@@ -1765,18 +1765,18 @@
       </c>
       <c r="C63" s="8" t="inlineStr">
         <is>
-          <t>11-07-2025 10:05:34</t>
+          <t>16-07-2025 12:56:30</t>
         </is>
       </c>
       <c r="D63" s="8" t="inlineStr">
         <is>
-          <t>11-07-2025 10:35:34</t>
+          <t>16-07-2025 13:31:30</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="8" t="n">
-        <v>251495</v>
+        <v>252467</v>
       </c>
       <c r="B64" s="8" t="inlineStr">
         <is>
@@ -1785,58 +1785,58 @@
       </c>
       <c r="C64" s="8" t="inlineStr">
         <is>
-          <t>11-07-2025 11:54:29</t>
+          <t>16-07-2025 13:43:37</t>
         </is>
       </c>
       <c r="D64" s="8" t="inlineStr">
         <is>
-          <t>11-07-2025 12:24:29</t>
+          <t>16-07-2025 14:08:37</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="8" t="n">
-        <v>252470</v>
-      </c>
-      <c r="B65" s="8" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C65" s="8" t="inlineStr">
-        <is>
-          <t>11-07-2025 13:36:49</t>
-        </is>
-      </c>
-      <c r="D65" s="8" t="inlineStr">
-        <is>
-          <t>11-07-2025 14:06:49</t>
+      <c r="A65" s="9" t="n">
+        <v>251849</v>
+      </c>
+      <c r="B65" s="9" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C65" s="9" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:45:00</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="8" t="n">
-        <v>252334</v>
-      </c>
-      <c r="B66" s="8" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C66" s="8" t="inlineStr">
-        <is>
-          <t>14-07-2025 07:09:19</t>
-        </is>
-      </c>
-      <c r="D66" s="8" t="inlineStr">
-        <is>
-          <t>14-07-2025 07:39:19</t>
+      <c r="A66" s="9" t="n">
+        <v>252047</v>
+      </c>
+      <c r="B66" s="9" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C66" s="9" t="inlineStr">
+        <is>
+          <t>08-07-2025 08:18:23</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="inlineStr">
+        <is>
+          <t>08-07-2025 08:58:23</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="9" t="n">
-        <v>251919</v>
+        <v>252546</v>
       </c>
       <c r="B67" s="9" t="inlineStr">
         <is>
@@ -1845,18 +1845,18 @@
       </c>
       <c r="C67" s="9" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>08-07-2025 10:09:16</t>
         </is>
       </c>
       <c r="D67" s="9" t="inlineStr">
         <is>
-          <t>08-07-2025 07:40:00</t>
+          <t>08-07-2025 10:34:16</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="9" t="n">
-        <v>244828</v>
+        <v>252997</v>
       </c>
       <c r="B68" s="9" t="inlineStr">
         <is>
@@ -1865,18 +1865,18 @@
       </c>
       <c r="C68" s="9" t="inlineStr">
         <is>
-          <t>08-07-2025 10:00:03</t>
+          <t>08-07-2025 11:28:54</t>
         </is>
       </c>
       <c r="D68" s="9" t="inlineStr">
         <is>
-          <t>08-07-2025 10:35:03</t>
+          <t>08-07-2025 12:03:54</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="9" t="n">
-        <v>243524</v>
+        <v>251798</v>
       </c>
       <c r="B69" s="9" t="inlineStr">
         <is>
@@ -1885,12 +1885,72 @@
       </c>
       <c r="C69" s="9" t="inlineStr">
         <is>
-          <t>08-07-2025 11:18:24</t>
+          <t>08-07-2025 12:43:55</t>
         </is>
       </c>
       <c r="D69" s="9" t="inlineStr">
         <is>
-          <t>08-07-2025 11:53:24</t>
+          <t>08-07-2025 13:13:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="9" t="n">
+        <v>252999</v>
+      </c>
+      <c r="B70" s="9" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C70" s="9" t="inlineStr">
+        <is>
+          <t>09-07-2025 07:17:12</t>
+        </is>
+      </c>
+      <c r="D70" s="9" t="inlineStr">
+        <is>
+          <t>09-07-2025 07:57:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="9" t="n">
+        <v>252784</v>
+      </c>
+      <c r="B71" s="9" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C71" s="9" t="inlineStr">
+        <is>
+          <t>09-07-2025 13:23:03</t>
+        </is>
+      </c>
+      <c r="D71" s="9" t="inlineStr">
+        <is>
+          <t>09-07-2025 14:08:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="9" t="n">
+        <v>252547</v>
+      </c>
+      <c r="B72" s="9" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C72" s="9" t="inlineStr">
+        <is>
+          <t>09-07-2025 14:35:01</t>
+        </is>
+      </c>
+      <c r="D72" s="9" t="inlineStr">
+        <is>
+          <t>10-07-2025 07:05:01</t>
         </is>
       </c>
     </row>

--- a/PS-VRP/Dati_output/output_ridotto.xlsx
+++ b/PS-VRP/Dati_output/output_ridotto.xlsx
@@ -38,8 +38,38 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00D5E8D4"/>
+        <bgColor rgb="00D5E8D4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D9D2E9"/>
+        <bgColor rgb="00D9D2E9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EAD1DC"/>
+        <bgColor rgb="00EAD1DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00CCE5FF"/>
         <bgColor rgb="00CCE5FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFF2CC"/>
+        <bgColor rgb="00FFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FCE5CD"/>
+        <bgColor rgb="00FCE5CD"/>
       </patternFill>
     </fill>
     <fill>
@@ -50,38 +80,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EAD1DC"/>
-        <bgColor rgb="00EAD1DC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D9D2E9"/>
-        <bgColor rgb="00D9D2E9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00F4CCCC"/>
         <bgColor rgb="00F4CCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FCE5CD"/>
-        <bgColor rgb="00FCE5CD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D5E8D4"/>
-        <bgColor rgb="00D5E8D4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFF2CC"/>
-        <bgColor rgb="00FFF2CC"/>
       </patternFill>
     </fill>
   </fills>

--- a/PS-VRP/Dati_output/output_ridotto.xlsx
+++ b/PS-VRP/Dati_output/output_ridotto.xlsx
@@ -38,14 +38,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CCE5FF"/>
-        <bgColor rgb="00CCE5FF"/>
+        <fgColor rgb="00F4CCCC"/>
+        <bgColor rgb="00F4CCCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E2EFDA"/>
-        <bgColor rgb="00E2EFDA"/>
+        <fgColor rgb="00D9D2E9"/>
+        <bgColor rgb="00D9D2E9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D5E8D4"/>
+        <bgColor rgb="00D5E8D4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FCE5CD"/>
+        <bgColor rgb="00FCE5CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CCE5FF"/>
+        <bgColor rgb="00CCE5FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -56,32 +74,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D9D2E9"/>
-        <bgColor rgb="00D9D2E9"/>
+        <fgColor rgb="00FFF2CC"/>
+        <bgColor rgb="00FFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F4CCCC"/>
-        <bgColor rgb="00F4CCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FCE5CD"/>
-        <bgColor rgb="00FCE5CD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D5E8D4"/>
-        <bgColor rgb="00D5E8D4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFF2CC"/>
-        <bgColor rgb="00FFF2CC"/>
+        <fgColor rgb="00E2EFDA"/>
+        <bgColor rgb="00E2EFDA"/>
       </patternFill>
     </fill>
   </fills>

--- a/PS-VRP/Dati_output/output_ridotto.xlsx
+++ b/PS-VRP/Dati_output/output_ridotto.xlsx
@@ -38,6 +38,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00D5E8D4"/>
+        <bgColor rgb="00D5E8D4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F4CCCC"/>
+        <bgColor rgb="00F4CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFF2CC"/>
+        <bgColor rgb="00FFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00E2EFDA"/>
         <bgColor rgb="00E2EFDA"/>
       </patternFill>
@@ -50,14 +68,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F4CCCC"/>
-        <bgColor rgb="00F4CCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CCE5FF"/>
-        <bgColor rgb="00CCE5FF"/>
+        <fgColor rgb="00FCE5CD"/>
+        <bgColor rgb="00FCE5CD"/>
       </patternFill>
     </fill>
     <fill>
@@ -68,20 +80,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFF2CC"/>
-        <bgColor rgb="00FFF2CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D5E8D4"/>
-        <bgColor rgb="00D5E8D4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FCE5CD"/>
-        <bgColor rgb="00FCE5CD"/>
+        <fgColor rgb="00CCE5FF"/>
+        <bgColor rgb="00CCE5FF"/>
       </patternFill>
     </fill>
   </fills>

--- a/PS-VRP/Dati_output/output_ridotto.xlsx
+++ b/PS-VRP/Dati_output/output_ridotto.xlsx
@@ -38,18 +38,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFF2CC"/>
-        <bgColor rgb="00FFF2CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E2EFDA"/>
-        <bgColor rgb="00E2EFDA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00CCE5FF"/>
         <bgColor rgb="00CCE5FF"/>
       </patternFill>
@@ -68,6 +56,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00D5E8D4"/>
+        <bgColor rgb="00D5E8D4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00F4CCCC"/>
         <bgColor rgb="00F4CCCC"/>
       </patternFill>
@@ -80,8 +74,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D5E8D4"/>
-        <bgColor rgb="00D5E8D4"/>
+        <fgColor rgb="00FFF2CC"/>
+        <bgColor rgb="00FFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E2EFDA"/>
+        <bgColor rgb="00E2EFDA"/>
       </patternFill>
     </fill>
   </fills>
@@ -541,7 +541,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>252085</v>
+        <v>252978</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
@@ -555,7 +555,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 07:34:00</t>
+          <t>08-07-2025 07:17:00</t>
         </is>
       </c>
       <c r="E2" s="2" t="n">
@@ -564,7 +564,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>252636</v>
+        <v>252371</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
@@ -573,12 +573,12 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 08:02:33</t>
+          <t>08-07-2025 07:40:18</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 08:19:33</t>
+          <t>08-07-2025 07:57:18</t>
         </is>
       </c>
       <c r="E3" s="2" t="n">
@@ -587,7 +587,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>252978</v>
+        <v>252047</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
@@ -596,12 +596,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 08:30:49</t>
+          <t>08-07-2025 08:47:20</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 09:04:49</t>
+          <t>08-07-2025 09:04:20</t>
         </is>
       </c>
       <c r="E4" s="2" t="n">
@@ -610,7 +610,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>252371</v>
+        <v>252152</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
@@ -619,12 +619,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 09:28:07</t>
+          <t>08-07-2025 10:15:13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 09:45:07</t>
+          <t>08-07-2025 10:32:13</t>
         </is>
       </c>
       <c r="E5" s="2" t="n">
@@ -642,12 +642,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 10:35:10</t>
+          <t>08-07-2025 10:59:35</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 10:52:10</t>
+          <t>08-07-2025 11:16:35</t>
         </is>
       </c>
       <c r="E6" s="2" t="n">
@@ -656,7 +656,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>252063</v>
+        <v>252402</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
@@ -665,12 +665,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 11:46:48</t>
+          <t>08-07-2025 12:11:13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 12:01:48</t>
+          <t>08-07-2025 12:30:13</t>
         </is>
       </c>
       <c r="E7" s="2" t="n">
@@ -679,7 +679,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>252244</v>
+        <v>252345</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
@@ -688,12 +688,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 13:21:44</t>
+          <t>08-07-2025 12:55:18</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 13:38:44</t>
+          <t>08-07-2025 13:29:18</t>
         </is>
       </c>
       <c r="E8" s="2" t="n">
@@ -702,7 +702,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>252298</v>
+        <v>252686</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
@@ -711,12 +711,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>09-07-2025 07:26:19</t>
+          <t>08-07-2025 14:12:37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>09-07-2025 07:45:19</t>
+          <t>08-07-2025 14:46:37</t>
         </is>
       </c>
       <c r="E9" s="2" t="n">
@@ -725,7 +725,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>252230</v>
+        <v>252476</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
@@ -734,12 +734,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>09-07-2025 08:56:05</t>
+          <t>09-07-2025 12:15:46</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>09-07-2025 09:17:05</t>
+          <t>09-07-2025 12:49:46</t>
         </is>
       </c>
       <c r="E10" s="2" t="n">
@@ -748,7 +748,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>243569</v>
+        <v>245623</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
@@ -757,12 +757,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>09-07-2025 10:20:12</t>
+          <t>09-07-2025 14:02:07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>09-07-2025 10:39:12</t>
+          <t>09-07-2025 14:34:07</t>
         </is>
       </c>
       <c r="E11" s="2" t="n">
@@ -771,7 +771,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>252144</v>
+        <v>252636</v>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
@@ -780,12 +780,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>09-07-2025 11:00:53</t>
+          <t>10-07-2025 10:14:16</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>09-07-2025 11:19:53</t>
+          <t>10-07-2025 10:46:16</t>
         </is>
       </c>
       <c r="E12" s="2" t="n">
@@ -793,79 +793,77 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="n">
-        <v>251790</v>
-      </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>08-07-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>08-07-2025 07:44:00</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="n">
+      <c r="A13" s="2" t="n">
+        <v>252364</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>BIMEC 3</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>10-07-2025 10:57:33</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>10-07-2025 11:14:33</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="n">
-        <v>252814</v>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>08-07-2025 11:39:03</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>08-07-2025 12:06:03</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="n">
+      <c r="A14" s="2" t="n">
+        <v>252456</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>BIMEC 3</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>10-07-2025 12:49:06</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>10-07-2025 13:06:06</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="n">
-        <v>251849</v>
-      </c>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>08-07-2025 12:56:08</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>08-07-2025 13:38:08</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="A15" s="2" t="n">
+        <v>252350</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>BIMEC 3</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>11-07-2025 07:30:33</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>11-07-2025 07:51:33</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>252345</v>
+        <v>244023</v>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
@@ -874,12 +872,12 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>08-07-2025 14:11:31</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>08-07-2025 14:40:31</t>
+          <t>08-07-2025 07:50:00</t>
         </is>
       </c>
       <c r="E16" s="3" t="n">
@@ -897,12 +895,12 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>09-07-2025 07:23:51</t>
+          <t>08-07-2025 07:58:18</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>09-07-2025 07:50:51</t>
+          <t>08-07-2025 08:31:18</t>
         </is>
       </c>
       <c r="E17" s="3" t="n">
@@ -911,7 +909,7 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>251231</v>
+        <v>251790</v>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
@@ -920,23 +918,21 @@
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>09-07-2025 08:39:43</t>
+          <t>08-07-2025 09:20:11</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>09-07-2025 09:12:43</t>
-        </is>
-      </c>
-      <c r="E18" s="3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>08-07-2025 10:02:11</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>252277</v>
+        <v>252201</v>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
@@ -945,23 +941,21 @@
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>09-07-2025 14:25:02</t>
+          <t>08-07-2025 13:57:14</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>09-07-2025 14:56:02</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>08-07-2025 14:26:14</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>252638</v>
+        <v>252999</v>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
@@ -970,12 +964,12 @@
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>10-07-2025 09:20:57</t>
+          <t>09-07-2025 07:00:21</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>10-07-2025 09:49:57</t>
+          <t>09-07-2025 07:42:21</t>
         </is>
       </c>
       <c r="E20" s="3" t="n">
@@ -984,7 +978,7 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>252547</v>
+        <v>252298</v>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
@@ -993,12 +987,12 @@
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>10-07-2025 10:51:27</t>
+          <t>09-07-2025 13:08:11</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>10-07-2025 11:24:27</t>
+          <t>09-07-2025 13:56:11</t>
         </is>
       </c>
       <c r="E21" s="3" t="n">
@@ -1007,7 +1001,7 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>252243</v>
+        <v>252277</v>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
@@ -1016,67 +1010,69 @@
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>10-07-2025 12:45:37</t>
+          <t>10-07-2025 07:06:57</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
         <is>
-          <t>10-07-2025 13:27:37</t>
-        </is>
-      </c>
-      <c r="E22" s="3" t="n">
-        <v>0</v>
+          <t>10-07-2025 07:52:57</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="n">
-        <v>252402</v>
-      </c>
-      <c r="B23" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C23" s="4" t="inlineStr">
-        <is>
-          <t>08-07-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="D23" s="4" t="inlineStr">
-        <is>
-          <t>08-07-2025 07:17:00</t>
-        </is>
-      </c>
-      <c r="E23" s="4" t="n">
+      <c r="A23" s="3" t="n">
+        <v>252087</v>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>10-07-2025 10:17:53</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>10-07-2025 10:46:53</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="n">
-        <v>252201</v>
-      </c>
-      <c r="B24" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C24" s="4" t="inlineStr">
-        <is>
-          <t>08-07-2025 07:42:04</t>
-        </is>
-      </c>
-      <c r="D24" s="4" t="inlineStr">
-        <is>
-          <t>08-07-2025 08:01:04</t>
-        </is>
-      </c>
-      <c r="E24" s="4" t="n">
+      <c r="A24" s="3" t="n">
+        <v>252085</v>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>10-07-2025 11:22:23</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>10-07-2025 11:49:23</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="n">
-        <v>243529</v>
+        <v>252243</v>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
@@ -1085,12 +1081,12 @@
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>08-07-2025 08:35:11</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>08-07-2025 08:54:11</t>
+          <t>08-07-2025 07:19:00</t>
         </is>
       </c>
       <c r="E25" s="4" t="n">
@@ -1099,7 +1095,7 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="n">
-        <v>251919</v>
+        <v>243569</v>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
@@ -1108,12 +1104,12 @@
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>08-07-2025 11:04:10</t>
+          <t>08-07-2025 08:55:42</t>
         </is>
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
-          <t>08-07-2025 11:38:10</t>
+          <t>08-07-2025 09:12:42</t>
         </is>
       </c>
       <c r="E26" s="4" t="n">
@@ -1122,7 +1118,7 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="n">
-        <v>251685</v>
+        <v>252244</v>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
@@ -1131,12 +1127,12 @@
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>08-07-2025 13:58:13</t>
+          <t>08-07-2025 09:34:23</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>08-07-2025 14:34:13</t>
+          <t>08-07-2025 09:51:23</t>
         </is>
       </c>
       <c r="E27" s="4" t="n">
@@ -1145,7 +1141,7 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="n">
-        <v>252783</v>
+        <v>252146</v>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
@@ -1154,12 +1150,12 @@
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>09-07-2025 08:12:58</t>
+          <t>08-07-2025 11:38:57</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>09-07-2025 08:37:58</t>
+          <t>08-07-2025 11:55:57</t>
         </is>
       </c>
       <c r="E28" s="4" t="n">
@@ -1168,7 +1164,7 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="n">
-        <v>250284</v>
+        <v>251798</v>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
@@ -1177,12 +1173,12 @@
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>09-07-2025 08:49:55</t>
+          <t>08-07-2025 13:02:35</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>09-07-2025 09:08:55</t>
+          <t>08-07-2025 13:19:35</t>
         </is>
       </c>
       <c r="E29" s="4" t="n">
@@ -1191,7 +1187,7 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="n">
-        <v>244023</v>
+        <v>243525</v>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
@@ -1200,12 +1196,12 @@
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>09-07-2025 11:35:16</t>
+          <t>09-07-2025 07:22:53</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>09-07-2025 11:54:16</t>
+          <t>09-07-2025 07:39:53</t>
         </is>
       </c>
       <c r="E30" s="4" t="n">
@@ -1214,7 +1210,7 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="n">
-        <v>252476</v>
+        <v>243529</v>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
@@ -1223,12 +1219,12 @@
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>09-07-2025 12:02:35</t>
+          <t>09-07-2025 09:49:52</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>09-07-2025 12:23:35</t>
+          <t>09-07-2025 10:04:52</t>
         </is>
       </c>
       <c r="E31" s="4" t="n">
@@ -1236,192 +1232,192 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="n">
-        <v>252784</v>
-      </c>
-      <c r="B32" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C32" s="4" t="inlineStr">
-        <is>
-          <t>09-07-2025 13:35:55</t>
-        </is>
-      </c>
-      <c r="D32" s="4" t="inlineStr">
-        <is>
-          <t>09-07-2025 13:56:55</t>
-        </is>
-      </c>
-      <c r="E32" s="4" t="n">
+      <c r="A32" s="5" t="n">
+        <v>252549</v>
+      </c>
+      <c r="B32" s="5" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C32" s="5" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D32" s="5" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:34:30</t>
+        </is>
+      </c>
+      <c r="E32" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="n">
-        <v>252347</v>
-      </c>
-      <c r="B33" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C33" s="4" t="inlineStr">
-        <is>
-          <t>09-07-2025 14:23:54</t>
-        </is>
-      </c>
-      <c r="D33" s="4" t="inlineStr">
-        <is>
-          <t>09-07-2025 14:46:54</t>
-        </is>
-      </c>
-      <c r="E33" s="4" t="n">
+      <c r="A33" s="5" t="n">
+        <v>252652</v>
+      </c>
+      <c r="B33" s="5" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>08-07-2025 09:07:05</t>
+        </is>
+      </c>
+      <c r="D33" s="5" t="inlineStr">
+        <is>
+          <t>08-07-2025 09:41:35</t>
+        </is>
+      </c>
+      <c r="E33" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="n">
-        <v>245089</v>
-      </c>
-      <c r="B34" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C34" s="4" t="inlineStr">
-        <is>
-          <t>10-07-2025 08:19:11</t>
-        </is>
-      </c>
-      <c r="D34" s="4" t="inlineStr">
-        <is>
-          <t>10-07-2025 08:53:11</t>
-        </is>
-      </c>
-      <c r="E34" s="4" t="n">
+      <c r="A34" s="5" t="n">
+        <v>251632</v>
+      </c>
+      <c r="B34" s="5" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t>08-07-2025 12:47:36</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="inlineStr">
+        <is>
+          <t>08-07-2025 13:40:06</t>
+        </is>
+      </c>
+      <c r="E34" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="n">
-        <v>252456</v>
-      </c>
-      <c r="B35" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C35" s="4" t="inlineStr">
-        <is>
-          <t>14-07-2025 09:55:23</t>
-        </is>
-      </c>
-      <c r="D35" s="4" t="inlineStr">
-        <is>
-          <t>14-07-2025 10:27:23</t>
-        </is>
-      </c>
-      <c r="E35" s="4" t="n">
+      <c r="A35" s="6" t="n">
+        <v>251495</v>
+      </c>
+      <c r="B35" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C35" s="6" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D35" s="6" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:30:00</t>
+        </is>
+      </c>
+      <c r="E35" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="n">
+      <c r="A36" s="6" t="n">
+        <v>252785</v>
+      </c>
+      <c r="B36" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C36" s="6" t="inlineStr">
+        <is>
+          <t>08-07-2025 08:42:20</t>
+        </is>
+      </c>
+      <c r="D36" s="6" t="inlineStr">
+        <is>
+          <t>08-07-2025 09:12:20</t>
+        </is>
+      </c>
+      <c r="E36" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="n">
+        <v>252713</v>
+      </c>
+      <c r="B37" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="inlineStr">
+        <is>
+          <t>08-07-2025 10:08:05</t>
+        </is>
+      </c>
+      <c r="D37" s="6" t="inlineStr">
+        <is>
+          <t>08-07-2025 10:38:05</t>
+        </is>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="n">
         <v>251926</v>
       </c>
-      <c r="B36" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C36" s="4" t="inlineStr">
-        <is>
-          <t>14-07-2025 12:51:51</t>
-        </is>
-      </c>
-      <c r="D36" s="4" t="inlineStr">
-        <is>
-          <t>14-07-2025 13:08:51</t>
-        </is>
-      </c>
-      <c r="E36" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="4" t="n">
-        <v>252334</v>
-      </c>
-      <c r="B37" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C37" s="4" t="inlineStr">
-        <is>
-          <t>14-07-2025 14:27:46</t>
-        </is>
-      </c>
-      <c r="D37" s="4" t="inlineStr">
-        <is>
-          <t>14-07-2025 14:44:46</t>
-        </is>
-      </c>
-      <c r="E37" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="4" t="n">
-        <v>252899</v>
-      </c>
-      <c r="B38" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C38" s="4" t="inlineStr">
-        <is>
-          <t>15-07-2025 14:51:21</t>
-        </is>
-      </c>
-      <c r="D38" s="4" t="inlineStr">
-        <is>
-          <t>16-07-2025 07:10:21</t>
-        </is>
-      </c>
-      <c r="E38" s="4" t="n">
+      <c r="B38" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="inlineStr">
+        <is>
+          <t>10-07-2025 09:45:51</t>
+        </is>
+      </c>
+      <c r="D38" s="6" t="inlineStr">
+        <is>
+          <t>10-07-2025 10:15:51</t>
+        </is>
+      </c>
+      <c r="E38" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="n">
-        <v>252652</v>
-      </c>
-      <c r="B39" s="5" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C39" s="5" t="inlineStr">
-        <is>
-          <t>08-07-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="D39" s="5" t="inlineStr">
-        <is>
-          <t>08-07-2025 07:34:30</t>
-        </is>
-      </c>
-      <c r="E39" s="5" t="n">
+      <c r="A39" s="6" t="n">
+        <v>250284</v>
+      </c>
+      <c r="B39" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="inlineStr">
+        <is>
+          <t>10-07-2025 11:34:46</t>
+        </is>
+      </c>
+      <c r="D39" s="6" t="inlineStr">
+        <is>
+          <t>10-07-2025 12:19:46</t>
+        </is>
+      </c>
+      <c r="E39" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="6" t="n">
-        <v>252790</v>
+        <v>251674</v>
       </c>
       <c r="B40" s="6" t="inlineStr">
         <is>
@@ -1430,12 +1426,12 @@
       </c>
       <c r="C40" s="6" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>10-07-2025 14:46:07</t>
         </is>
       </c>
       <c r="D40" s="6" t="inlineStr">
         <is>
-          <t>08-07-2025 07:30:00</t>
+          <t>11-07-2025 07:41:07</t>
         </is>
       </c>
       <c r="E40" s="6" t="n">
@@ -1444,7 +1440,7 @@
     </row>
     <row r="41">
       <c r="A41" s="6" t="n">
-        <v>251632</v>
+        <v>252157</v>
       </c>
       <c r="B41" s="6" t="inlineStr">
         <is>
@@ -1453,12 +1449,12 @@
       </c>
       <c r="C41" s="6" t="inlineStr">
         <is>
-          <t>08-07-2025 07:42:06</t>
+          <t>11-07-2025 10:08:15</t>
         </is>
       </c>
       <c r="D41" s="6" t="inlineStr">
         <is>
-          <t>08-07-2025 08:52:06</t>
+          <t>11-07-2025 10:58:15</t>
         </is>
       </c>
       <c r="E41" s="6" t="n">
@@ -1467,7 +1463,7 @@
     </row>
     <row r="42">
       <c r="A42" s="6" t="n">
-        <v>251674</v>
+        <v>252790</v>
       </c>
       <c r="B42" s="6" t="inlineStr">
         <is>
@@ -1476,12 +1472,12 @@
       </c>
       <c r="C42" s="6" t="inlineStr">
         <is>
-          <t>09-07-2025 10:40:37</t>
+          <t>14-07-2025 09:35:04</t>
         </is>
       </c>
       <c r="D42" s="6" t="inlineStr">
         <is>
-          <t>09-07-2025 11:05:37</t>
+          <t>14-07-2025 10:20:04</t>
         </is>
       </c>
       <c r="E42" s="6" t="n">
@@ -1490,7 +1486,7 @@
     </row>
     <row r="43">
       <c r="A43" s="6" t="n">
-        <v>252157</v>
+        <v>252755</v>
       </c>
       <c r="B43" s="6" t="inlineStr">
         <is>
@@ -1499,12 +1495,12 @@
       </c>
       <c r="C43" s="6" t="inlineStr">
         <is>
-          <t>09-07-2025 13:32:44</t>
+          <t>14-07-2025 10:32:11</t>
         </is>
       </c>
       <c r="D43" s="6" t="inlineStr">
         <is>
-          <t>09-07-2025 14:22:44</t>
+          <t>14-07-2025 11:02:11</t>
         </is>
       </c>
       <c r="E43" s="6" t="n">
@@ -1513,7 +1509,7 @@
     </row>
     <row r="44">
       <c r="A44" s="6" t="n">
-        <v>252785</v>
+        <v>252899</v>
       </c>
       <c r="B44" s="6" t="inlineStr">
         <is>
@@ -1522,12 +1518,12 @@
       </c>
       <c r="C44" s="6" t="inlineStr">
         <is>
-          <t>10-07-2025 12:59:34</t>
+          <t>14-07-2025 12:51:45</t>
         </is>
       </c>
       <c r="D44" s="6" t="inlineStr">
         <is>
-          <t>10-07-2025 13:39:34</t>
+          <t>14-07-2025 13:21:45</t>
         </is>
       </c>
       <c r="E44" s="6" t="n">
@@ -1535,399 +1531,401 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="6" t="n">
-        <v>252713</v>
-      </c>
-      <c r="B45" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C45" s="6" t="inlineStr">
-        <is>
-          <t>10-07-2025 14:35:19</t>
-        </is>
-      </c>
-      <c r="D45" s="6" t="inlineStr">
-        <is>
-          <t>11-07-2025 07:05:19</t>
-        </is>
-      </c>
-      <c r="E45" s="6" t="n">
+      <c r="A45" s="7" t="n">
+        <v>252814</v>
+      </c>
+      <c r="B45" s="7" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C45" s="7" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D45" s="7" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:17:00</t>
+        </is>
+      </c>
+      <c r="E45" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="6" t="n">
-        <v>252755</v>
-      </c>
-      <c r="B46" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C46" s="6" t="inlineStr">
-        <is>
-          <t>14-07-2025 14:13:05</t>
-        </is>
-      </c>
-      <c r="D46" s="6" t="inlineStr">
-        <is>
-          <t>14-07-2025 14:43:05</t>
-        </is>
-      </c>
-      <c r="E46" s="6" t="n">
+      <c r="A46" s="7" t="n">
+        <v>252144</v>
+      </c>
+      <c r="B46" s="7" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C46" s="7" t="inlineStr">
+        <is>
+          <t>08-07-2025 08:07:05</t>
+        </is>
+      </c>
+      <c r="D46" s="7" t="inlineStr">
+        <is>
+          <t>08-07-2025 08:24:05</t>
+        </is>
+      </c>
+      <c r="E46" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="6" t="n">
-        <v>251495</v>
-      </c>
-      <c r="B47" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C47" s="6" t="inlineStr">
-        <is>
-          <t>15-07-2025 08:32:39</t>
-        </is>
-      </c>
-      <c r="D47" s="6" t="inlineStr">
-        <is>
-          <t>15-07-2025 09:02:39</t>
-        </is>
-      </c>
-      <c r="E47" s="6" t="n">
+      <c r="A47" s="7" t="n">
+        <v>252237</v>
+      </c>
+      <c r="B47" s="7" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C47" s="7" t="inlineStr">
+        <is>
+          <t>08-07-2025 09:18:13</t>
+        </is>
+      </c>
+      <c r="D47" s="7" t="inlineStr">
+        <is>
+          <t>08-07-2025 09:50:13</t>
+        </is>
+      </c>
+      <c r="E47" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="6" t="n">
+      <c r="A48" s="7" t="n">
+        <v>243335</v>
+      </c>
+      <c r="B48" s="7" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C48" s="7" t="inlineStr">
+        <is>
+          <t>08-07-2025 11:15:10</t>
+        </is>
+      </c>
+      <c r="D48" s="7" t="inlineStr">
+        <is>
+          <t>08-07-2025 11:51:10</t>
+        </is>
+      </c>
+      <c r="E48" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="7" t="n">
+        <v>251919</v>
+      </c>
+      <c r="B49" s="7" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C49" s="7" t="inlineStr">
+        <is>
+          <t>09-07-2025 08:26:12</t>
+        </is>
+      </c>
+      <c r="D49" s="7" t="inlineStr">
+        <is>
+          <t>09-07-2025 08:43:12</t>
+        </is>
+      </c>
+      <c r="E49" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="7" t="n">
+        <v>252997</v>
+      </c>
+      <c r="B50" s="7" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C50" s="7" t="inlineStr">
+        <is>
+          <t>09-07-2025 11:03:15</t>
+        </is>
+      </c>
+      <c r="D50" s="7" t="inlineStr">
+        <is>
+          <t>09-07-2025 11:20:15</t>
+        </is>
+      </c>
+      <c r="E50" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="8" t="n">
+        <v>241783</v>
+      </c>
+      <c r="B51" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D51" s="8" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:40:00</t>
+        </is>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="8" t="n">
+        <v>252207</v>
+      </c>
+      <c r="B52" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="inlineStr">
+        <is>
+          <t>08-07-2025 08:23:19</t>
+        </is>
+      </c>
+      <c r="D52" s="8" t="inlineStr">
+        <is>
+          <t>08-07-2025 08:58:19</t>
+        </is>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="8" t="n">
+        <v>252723</v>
+      </c>
+      <c r="B53" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="inlineStr">
+        <is>
+          <t>08-07-2025 09:49:52</t>
+        </is>
+      </c>
+      <c r="D53" s="8" t="inlineStr">
+        <is>
+          <t>08-07-2025 10:14:52</t>
+        </is>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="8" t="n">
+        <v>252071</v>
+      </c>
+      <c r="B54" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="inlineStr">
+        <is>
+          <t>08-07-2025 12:48:50</t>
+        </is>
+      </c>
+      <c r="D54" s="8" t="inlineStr">
+        <is>
+          <t>08-07-2025 13:23:50</t>
+        </is>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="8" t="n">
+        <v>251685</v>
+      </c>
+      <c r="B55" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C55" s="8" t="inlineStr">
+        <is>
+          <t>08-07-2025 14:09:34</t>
+        </is>
+      </c>
+      <c r="D55" s="8" t="inlineStr">
+        <is>
+          <t>08-07-2025 14:44:34</t>
+        </is>
+      </c>
+      <c r="E55" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="8" t="n">
+        <v>251849</v>
+      </c>
+      <c r="B56" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C56" s="8" t="inlineStr">
+        <is>
+          <t>09-07-2025 08:23:19</t>
+        </is>
+      </c>
+      <c r="D56" s="8" t="inlineStr">
+        <is>
+          <t>09-07-2025 08:53:19</t>
+        </is>
+      </c>
+      <c r="E56" s="8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="8" t="n">
+        <v>252063</v>
+      </c>
+      <c r="B57" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="inlineStr">
+        <is>
+          <t>09-07-2025 09:26:42</t>
+        </is>
+      </c>
+      <c r="D57" s="8" t="inlineStr">
+        <is>
+          <t>09-07-2025 10:06:42</t>
+        </is>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="8" t="n">
+        <v>245089</v>
+      </c>
+      <c r="B58" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="inlineStr">
+        <is>
+          <t>09-07-2025 11:26:39</t>
+        </is>
+      </c>
+      <c r="D58" s="8" t="inlineStr">
+        <is>
+          <t>09-07-2025 11:56:39</t>
+        </is>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="8" t="n">
+        <v>252547</v>
+      </c>
+      <c r="B59" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="inlineStr">
+        <is>
+          <t>11-07-2025 12:58:51</t>
+        </is>
+      </c>
+      <c r="D59" s="8" t="inlineStr">
+        <is>
+          <t>11-07-2025 13:33:51</t>
+        </is>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="8" t="n">
         <v>252470</v>
       </c>
-      <c r="B48" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C48" s="6" t="inlineStr">
-        <is>
-          <t>15-07-2025 10:15:00</t>
-        </is>
-      </c>
-      <c r="D48" s="6" t="inlineStr">
-        <is>
-          <t>15-07-2025 10:45:00</t>
-        </is>
-      </c>
-      <c r="E48" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="6" t="n">
-        <v>252336</v>
-      </c>
-      <c r="B49" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C49" s="6" t="inlineStr">
-        <is>
-          <t>15-07-2025 11:47:30</t>
-        </is>
-      </c>
-      <c r="D49" s="6" t="inlineStr">
-        <is>
-          <t>15-07-2025 12:17:30</t>
-        </is>
-      </c>
-      <c r="E49" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="6" t="n">
-        <v>252467</v>
-      </c>
-      <c r="B50" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C50" s="6" t="inlineStr">
-        <is>
-          <t>15-07-2025 14:17:46</t>
-        </is>
-      </c>
-      <c r="D50" s="6" t="inlineStr">
-        <is>
-          <t>15-07-2025 14:42:46</t>
-        </is>
-      </c>
-      <c r="E50" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="7" t="n">
-        <v>252152</v>
-      </c>
-      <c r="B51" s="7" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C51" s="7" t="inlineStr">
-        <is>
-          <t>08-07-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="D51" s="7" t="inlineStr">
-        <is>
-          <t>08-07-2025 07:17:00</t>
-        </is>
-      </c>
-      <c r="E51" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="7" t="n">
-        <v>243524</v>
-      </c>
-      <c r="B52" s="7" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C52" s="7" t="inlineStr">
-        <is>
-          <t>08-07-2025 07:44:22</t>
-        </is>
-      </c>
-      <c r="D52" s="7" t="inlineStr">
-        <is>
-          <t>08-07-2025 08:01:22</t>
-        </is>
-      </c>
-      <c r="E52" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="7" t="n">
-        <v>252237</v>
-      </c>
-      <c r="B53" s="7" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C53" s="7" t="inlineStr">
-        <is>
-          <t>08-07-2025 09:07:59</t>
-        </is>
-      </c>
-      <c r="D53" s="7" t="inlineStr">
-        <is>
-          <t>08-07-2025 09:39:59</t>
-        </is>
-      </c>
-      <c r="E53" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="7" t="n">
-        <v>241783</v>
-      </c>
-      <c r="B54" s="7" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C54" s="7" t="inlineStr">
-        <is>
-          <t>08-07-2025 11:04:56</t>
-        </is>
-      </c>
-      <c r="D54" s="7" t="inlineStr">
-        <is>
-          <t>08-07-2025 11:36:56</t>
-        </is>
-      </c>
-      <c r="E54" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="7" t="n">
-        <v>252207</v>
-      </c>
-      <c r="B55" s="7" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C55" s="7" t="inlineStr">
-        <is>
-          <t>08-07-2025 12:20:15</t>
-        </is>
-      </c>
-      <c r="D55" s="7" t="inlineStr">
-        <is>
-          <t>08-07-2025 12:39:15</t>
-        </is>
-      </c>
-      <c r="E55" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="7" t="n">
-        <v>251798</v>
-      </c>
-      <c r="B56" s="7" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C56" s="7" t="inlineStr">
-        <is>
-          <t>08-07-2025 13:30:48</t>
-        </is>
-      </c>
-      <c r="D56" s="7" t="inlineStr">
-        <is>
-          <t>08-07-2025 13:47:48</t>
-        </is>
-      </c>
-      <c r="E56" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="7" t="n">
-        <v>252071</v>
-      </c>
-      <c r="B57" s="7" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C57" s="7" t="inlineStr">
-        <is>
-          <t>09-07-2025 07:51:06</t>
-        </is>
-      </c>
-      <c r="D57" s="7" t="inlineStr">
-        <is>
-          <t>09-07-2025 08:08:06</t>
-        </is>
-      </c>
-      <c r="E57" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="7" t="n">
-        <v>252146</v>
-      </c>
-      <c r="B58" s="7" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C58" s="7" t="inlineStr">
-        <is>
-          <t>09-07-2025 08:53:50</t>
-        </is>
-      </c>
-      <c r="D58" s="7" t="inlineStr">
-        <is>
-          <t>09-07-2025 09:12:50</t>
-        </is>
-      </c>
-      <c r="E58" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="7" t="n">
-        <v>252997</v>
-      </c>
-      <c r="B59" s="7" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C59" s="7" t="inlineStr">
-        <is>
-          <t>09-07-2025 10:19:28</t>
-        </is>
-      </c>
-      <c r="D59" s="7" t="inlineStr">
-        <is>
-          <t>09-07-2025 10:51:28</t>
-        </is>
-      </c>
-      <c r="E59" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="7" t="n">
-        <v>252686</v>
-      </c>
-      <c r="B60" s="7" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C60" s="7" t="inlineStr">
-        <is>
-          <t>09-07-2025 11:31:29</t>
-        </is>
-      </c>
-      <c r="D60" s="7" t="inlineStr">
-        <is>
-          <t>09-07-2025 11:48:29</t>
-        </is>
-      </c>
-      <c r="E60" s="7" t="n">
+      <c r="B60" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="inlineStr">
+        <is>
+          <t>11-07-2025 14:55:01</t>
+        </is>
+      </c>
+      <c r="D60" s="8" t="inlineStr">
+        <is>
+          <t>14-07-2025 07:25:01</t>
+        </is>
+      </c>
+      <c r="E60" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="7" t="n">
-        <v>245623</v>
-      </c>
-      <c r="B61" s="7" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C61" s="7" t="inlineStr">
-        <is>
-          <t>10-07-2025 09:17:38</t>
-        </is>
-      </c>
-      <c r="D61" s="7" t="inlineStr">
-        <is>
-          <t>10-07-2025 09:34:38</t>
-        </is>
-      </c>
-      <c r="E61" s="7" t="n">
+      <c r="A61" s="8" t="n">
+        <v>252334</v>
+      </c>
+      <c r="B61" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>14-07-2025 08:27:31</t>
+        </is>
+      </c>
+      <c r="D61" s="8" t="inlineStr">
+        <is>
+          <t>14-07-2025 08:57:31</t>
+        </is>
+      </c>
+      <c r="E61" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="8" t="n">
-        <v>243335</v>
+        <v>252336</v>
       </c>
       <c r="B62" s="8" t="inlineStr">
         <is>
@@ -1936,12 +1934,12 @@
       </c>
       <c r="C62" s="8" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>15-07-2025 09:04:07</t>
         </is>
       </c>
       <c r="D62" s="8" t="inlineStr">
         <is>
-          <t>08-07-2025 07:30:00</t>
+          <t>15-07-2025 09:29:07</t>
         </is>
       </c>
       <c r="E62" s="8" t="n">
@@ -1950,7 +1948,7 @@
     </row>
     <row r="63">
       <c r="A63" s="8" t="n">
-        <v>252350</v>
+        <v>252467</v>
       </c>
       <c r="B63" s="8" t="inlineStr">
         <is>
@@ -1959,12 +1957,12 @@
       </c>
       <c r="C63" s="8" t="inlineStr">
         <is>
-          <t>08-07-2025 12:05:02</t>
+          <t>15-07-2025 11:29:23</t>
         </is>
       </c>
       <c r="D63" s="8" t="inlineStr">
         <is>
-          <t>08-07-2025 12:45:02</t>
+          <t>15-07-2025 11:54:23</t>
         </is>
       </c>
       <c r="E63" s="8" t="n">
@@ -1972,123 +1970,123 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="8" t="n">
-        <v>252087</v>
-      </c>
-      <c r="B64" s="8" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C64" s="8" t="inlineStr">
-        <is>
-          <t>08-07-2025 13:36:55</t>
-        </is>
-      </c>
-      <c r="D64" s="8" t="inlineStr">
-        <is>
-          <t>08-07-2025 14:06:55</t>
-        </is>
-      </c>
-      <c r="E64" s="8" t="n">
+      <c r="A64" s="9" t="n">
+        <v>252347</v>
+      </c>
+      <c r="B64" s="9" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C64" s="9" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:30:00</t>
+        </is>
+      </c>
+      <c r="E64" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="8" t="n">
-        <v>252220</v>
-      </c>
-      <c r="B65" s="8" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C65" s="8" t="inlineStr">
-        <is>
-          <t>08-07-2025 14:42:25</t>
-        </is>
-      </c>
-      <c r="D65" s="8" t="inlineStr">
-        <is>
-          <t>09-07-2025 07:12:25</t>
-        </is>
-      </c>
-      <c r="E65" s="8" t="n">
+      <c r="A65" s="9" t="n">
+        <v>252230</v>
+      </c>
+      <c r="B65" s="9" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C65" s="9" t="inlineStr">
+        <is>
+          <t>08-07-2025 09:02:17</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
+        <is>
+          <t>08-07-2025 09:37:17</t>
+        </is>
+      </c>
+      <c r="E65" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="8" t="n">
-        <v>252999</v>
-      </c>
-      <c r="B66" s="8" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C66" s="8" t="inlineStr">
-        <is>
-          <t>09-07-2025 08:32:56</t>
-        </is>
-      </c>
-      <c r="D66" s="8" t="inlineStr">
-        <is>
-          <t>09-07-2025 09:07:56</t>
-        </is>
-      </c>
-      <c r="E66" s="8" t="n">
+      <c r="A66" s="9" t="n">
+        <v>243524</v>
+      </c>
+      <c r="B66" s="9" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C66" s="9" t="inlineStr">
+        <is>
+          <t>08-07-2025 10:40:24</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="inlineStr">
+        <is>
+          <t>08-07-2025 11:15:24</t>
+        </is>
+      </c>
+      <c r="E66" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="8" t="n">
-        <v>252549</v>
-      </c>
-      <c r="B67" s="8" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C67" s="8" t="inlineStr">
-        <is>
-          <t>09-07-2025 14:33:46</t>
-        </is>
-      </c>
-      <c r="D67" s="8" t="inlineStr">
-        <is>
-          <t>10-07-2025 07:03:46</t>
-        </is>
-      </c>
-      <c r="E67" s="8" t="n">
+      <c r="A67" s="9" t="n">
+        <v>244828</v>
+      </c>
+      <c r="B67" s="9" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C67" s="9" t="inlineStr">
+        <is>
+          <t>08-07-2025 12:22:01</t>
+        </is>
+      </c>
+      <c r="D67" s="9" t="inlineStr">
+        <is>
+          <t>08-07-2025 12:57:01</t>
+        </is>
+      </c>
+      <c r="E67" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="8" t="n">
-        <v>244828</v>
-      </c>
-      <c r="B68" s="8" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C68" s="8" t="inlineStr">
-        <is>
-          <t>10-07-2025 08:36:22</t>
-        </is>
-      </c>
-      <c r="D68" s="8" t="inlineStr">
-        <is>
-          <t>10-07-2025 09:11:22</t>
-        </is>
-      </c>
-      <c r="E68" s="8" t="n">
+      <c r="A68" s="9" t="n">
+        <v>252784</v>
+      </c>
+      <c r="B68" s="9" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C68" s="9" t="inlineStr">
+        <is>
+          <t>08-07-2025 13:40:23</t>
+        </is>
+      </c>
+      <c r="D68" s="9" t="inlineStr">
+        <is>
+          <t>08-07-2025 14:20:23</t>
+        </is>
+      </c>
+      <c r="E68" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="9" t="n">
-        <v>252047</v>
+        <v>252783</v>
       </c>
       <c r="B69" s="9" t="inlineStr">
         <is>
@@ -2097,12 +2095,12 @@
       </c>
       <c r="C69" s="9" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>08-07-2025 14:47:21</t>
         </is>
       </c>
       <c r="D69" s="9" t="inlineStr">
         <is>
-          <t>08-07-2025 07:40:00</t>
+          <t>09-07-2025 07:12:21</t>
         </is>
       </c>
       <c r="E69" s="9" t="n">
@@ -2111,7 +2109,7 @@
     </row>
     <row r="70">
       <c r="A70" s="9" t="n">
-        <v>243525</v>
+        <v>252220</v>
       </c>
       <c r="B70" s="9" t="inlineStr">
         <is>
@@ -2120,12 +2118,12 @@
       </c>
       <c r="C70" s="9" t="inlineStr">
         <is>
-          <t>08-07-2025 08:50:53</t>
+          <t>09-07-2025 07:24:18</t>
         </is>
       </c>
       <c r="D70" s="9" t="inlineStr">
         <is>
-          <t>08-07-2025 09:25:53</t>
+          <t>09-07-2025 07:59:18</t>
         </is>
       </c>
       <c r="E70" s="9" t="n">
@@ -2134,7 +2132,7 @@
     </row>
     <row r="71">
       <c r="A71" s="9" t="n">
-        <v>252364</v>
+        <v>251231</v>
       </c>
       <c r="B71" s="9" t="inlineStr">
         <is>
@@ -2143,21 +2141,23 @@
       </c>
       <c r="C71" s="9" t="inlineStr">
         <is>
-          <t>08-07-2025 11:35:52</t>
+          <t>09-07-2025 09:19:49</t>
         </is>
       </c>
       <c r="D71" s="9" t="inlineStr">
         <is>
-          <t>08-07-2025 12:10:52</t>
-        </is>
-      </c>
-      <c r="E71" s="9" t="n">
-        <v>0</v>
+          <t>09-07-2025 09:54:49</t>
+        </is>
+      </c>
+      <c r="E71" s="9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="9" t="n">
-        <v>252723</v>
+        <v>252638</v>
       </c>
       <c r="B72" s="9" t="inlineStr">
         <is>
@@ -2166,12 +2166,12 @@
       </c>
       <c r="C72" s="9" t="inlineStr">
         <is>
-          <t>08-07-2025 13:45:25</t>
+          <t>10-07-2025 07:07:08</t>
         </is>
       </c>
       <c r="D72" s="9" t="inlineStr">
         <is>
-          <t>08-07-2025 14:20:25</t>
+          <t>10-07-2025 07:37:08</t>
         </is>
       </c>
       <c r="E72" s="9" t="n">

--- a/PS-VRP/Dati_output/output_ridotto.xlsx
+++ b/PS-VRP/Dati_output/output_ridotto.xlsx
@@ -38,12 +38,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D5E8D4"/>
-        <bgColor rgb="00D5E8D4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00D9D2E9"/>
         <bgColor rgb="00D9D2E9"/>
       </patternFill>
@@ -52,6 +46,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00E2EFDA"/>
         <bgColor rgb="00E2EFDA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D5E8D4"/>
+        <bgColor rgb="00D5E8D4"/>
       </patternFill>
     </fill>
     <fill>
@@ -68,8 +68,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F4CCCC"/>
-        <bgColor rgb="00F4CCCC"/>
+        <fgColor rgb="00FFF2CC"/>
+        <bgColor rgb="00FFF2CC"/>
       </patternFill>
     </fill>
     <fill>
@@ -80,8 +80,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFF2CC"/>
-        <bgColor rgb="00FFF2CC"/>
+        <fgColor rgb="00F4CCCC"/>
+        <bgColor rgb="00F4CCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -541,7 +541,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>252207</v>
+        <v>252063</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>252298</v>
+        <v>251790</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
@@ -573,12 +573,12 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 08:08:33</t>
+          <t>08-07-2025 08:36:56</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 08:29:33</t>
+          <t>08-07-2025 08:55:56</t>
         </is>
       </c>
       <c r="E3" s="2" t="n">
@@ -587,7 +587,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>252152</v>
+        <v>251926</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
@@ -596,12 +596,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 09:40:19</t>
+          <t>08-07-2025 12:51:00</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 09:59:19</t>
+          <t>08-07-2025 13:23:00</t>
         </is>
       </c>
       <c r="E4" s="2" t="n">
@@ -610,7 +610,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>244023</v>
+        <v>252999</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
@@ -619,12 +619,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 10:26:41</t>
+          <t>08-07-2025 14:41:55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 11:00:41</t>
+          <t>09-07-2025 07:00:55</t>
         </is>
       </c>
       <c r="E5" s="2" t="n">
@@ -633,7 +633,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>252285</v>
+        <v>245089</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
@@ -642,23 +642,21 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 11:08:59</t>
+          <t>09-07-2025 12:26:45</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 11:27:59</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>09-07-2025 13:00:45</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>251919</v>
+        <v>251495</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
@@ -667,12 +665,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 12:14:08</t>
+          <t>11-07-2025 14:02:58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 12:46:08</t>
+          <t>11-07-2025 14:34:58</t>
         </is>
       </c>
       <c r="E7" s="2" t="n">
@@ -681,7 +679,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>252085</v>
+        <v>252336</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
@@ -690,12 +688,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>09-07-2025 07:06:11</t>
+          <t>14-07-2025 07:47:18</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>09-07-2025 07:38:11</t>
+          <t>14-07-2025 08:10:18</t>
         </is>
       </c>
       <c r="E8" s="2" t="n">
@@ -704,7 +702,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>252345</v>
+        <v>252686</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
@@ -713,12 +711,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>09-07-2025 08:06:44</t>
+          <t>14-07-2025 10:10:35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>09-07-2025 08:23:44</t>
+          <t>14-07-2025 10:44:35</t>
         </is>
       </c>
       <c r="E9" s="2" t="n">
@@ -727,7 +725,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>241783</v>
+        <v>252755</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
@@ -736,12 +734,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>09-07-2025 09:07:03</t>
+          <t>15-07-2025 08:13:44</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>09-07-2025 09:41:03</t>
+          <t>15-07-2025 08:45:44</t>
         </is>
       </c>
       <c r="E10" s="2" t="n">
@@ -750,7 +748,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>252784</v>
+        <v>252899</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
@@ -759,12 +757,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>09-07-2025 10:24:23</t>
+          <t>15-07-2025 10:35:18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>09-07-2025 11:00:23</t>
+          <t>15-07-2025 10:52:18</t>
         </is>
       </c>
       <c r="E11" s="2" t="n">
@@ -773,7 +771,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>252785</v>
+        <v>252790</v>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
@@ -782,12 +780,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>09-07-2025 11:27:21</t>
+          <t>15-07-2025 13:52:52</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>09-07-2025 11:42:21</t>
+          <t>15-07-2025 14:11:52</t>
         </is>
       </c>
       <c r="E12" s="2" t="n">
@@ -796,7 +794,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>252284</v>
+        <v>252467</v>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
@@ -805,161 +803,159 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>09-07-2025 12:38:06</t>
+          <t>15-07-2025 14:23:59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>09-07-2025 12:57:06</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>15-07-2025 14:38:59</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>252665</v>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>BIMEC 3</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>09-07-2025 13:48:22</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>09-07-2025 14:07:22</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="n">
+      <c r="A14" s="3" t="n">
+        <v>252371</v>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:46:00</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>243335</v>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>BIMEC 3</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>09-07-2025 14:56:15</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>10-07-2025 07:30:15</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="n">
+      <c r="A15" s="3" t="n">
+        <v>243524</v>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>08-07-2025 08:36:02</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>08-07-2025 09:03:02</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>244828</v>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>BIMEC 3</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>10-07-2025 12:05:17</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>10-07-2025 12:41:17</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="n">
+      <c r="A16" s="3" t="n">
+        <v>252402</v>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>08-07-2025 10:09:39</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>08-07-2025 10:38:39</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>251685</v>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>BIMEC 3</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>10-07-2025 13:24:38</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>10-07-2025 13:58:38</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="n">
+      <c r="A17" s="3" t="n">
+        <v>252298</v>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>08-07-2025 11:03:44</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>08-07-2025 11:30:44</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>252547</v>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>BIMEC 3</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>11-07-2025 07:37:24</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>11-07-2025 07:54:24</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="n">
+      <c r="A18" s="3" t="n">
+        <v>252345</v>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>08-07-2025 12:41:30</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>08-07-2025 13:27:30</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>252350</v>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>BIMEC 3</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>11-07-2025 09:15:34</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>11-07-2025 09:36:34</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="n">
+      <c r="A19" s="3" t="n">
+        <v>252085</v>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>08-07-2025 14:10:49</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>08-07-2025 14:37:49</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>245623</v>
+        <v>252652</v>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
@@ -968,12 +964,12 @@
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>09-07-2025 07:06:22</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>08-07-2025 07:42:00</t>
+          <t>09-07-2025 07:33:22</t>
         </is>
       </c>
       <c r="E20" s="3" t="n">
@@ -982,7 +978,7 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>252146</v>
+        <v>252723</v>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
@@ -991,12 +987,12 @@
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>08-07-2025 11:22:09</t>
+          <t>09-07-2025 10:39:23</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>08-07-2025 12:04:09</t>
+          <t>09-07-2025 11:23:23</t>
         </is>
       </c>
       <c r="E21" s="3" t="n">
@@ -1004,240 +1000,240 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="n">
-        <v>252286</v>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>08-07-2025 13:10:47</t>
-        </is>
-      </c>
-      <c r="D22" s="3" t="inlineStr">
-        <is>
-          <t>08-07-2025 13:37:47</t>
-        </is>
-      </c>
-      <c r="E22" s="3" t="inlineStr">
+      <c r="A22" s="4" t="n">
+        <v>252152</v>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D22" s="4" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:19:00</t>
+        </is>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="n">
+        <v>252546</v>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:46:22</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="inlineStr">
+        <is>
+          <t>08-07-2025 08:03:22</t>
+        </is>
+      </c>
+      <c r="E23" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="n">
+        <v>251798</v>
+      </c>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>08-07-2025 08:58:00</t>
+        </is>
+      </c>
+      <c r="D24" s="4" t="inlineStr">
+        <is>
+          <t>08-07-2025 09:15:00</t>
+        </is>
+      </c>
+      <c r="E24" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="n">
+        <v>252087</v>
+      </c>
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>08-07-2025 11:18:17</t>
+        </is>
+      </c>
+      <c r="D25" s="4" t="inlineStr">
+        <is>
+          <t>08-07-2025 11:50:17</t>
+        </is>
+      </c>
+      <c r="E25" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="n">
+        <v>243529</v>
+      </c>
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t>08-07-2025 12:25:47</t>
+        </is>
+      </c>
+      <c r="D26" s="4" t="inlineStr">
+        <is>
+          <t>08-07-2025 12:59:47</t>
+        </is>
+      </c>
+      <c r="E26" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="n">
+        <v>251849</v>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>09-07-2025 07:09:46</t>
+        </is>
+      </c>
+      <c r="D27" s="4" t="inlineStr">
+        <is>
+          <t>09-07-2025 07:43:46</t>
+        </is>
+      </c>
+      <c r="E27" s="4" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="3" t="n">
-        <v>252402</v>
-      </c>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>08-07-2025 14:29:03</t>
-        </is>
-      </c>
-      <c r="D23" s="3" t="inlineStr">
-        <is>
-          <t>08-07-2025 14:56:03</t>
-        </is>
-      </c>
-      <c r="E23" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="n">
-        <v>252371</v>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>09-07-2025 07:21:08</t>
-        </is>
-      </c>
-      <c r="D24" s="3" t="inlineStr">
-        <is>
-          <t>09-07-2025 07:48:08</t>
-        </is>
-      </c>
-      <c r="E24" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="n">
-        <v>252723</v>
-      </c>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr">
-        <is>
-          <t>09-07-2025 08:38:10</t>
-        </is>
-      </c>
-      <c r="D25" s="3" t="inlineStr">
-        <is>
-          <t>09-07-2025 09:05:10</t>
-        </is>
-      </c>
-      <c r="E25" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="n">
+    <row r="28">
+      <c r="A28" s="4" t="n">
+        <v>252978</v>
+      </c>
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t>09-07-2025 08:17:09</t>
+        </is>
+      </c>
+      <c r="D28" s="4" t="inlineStr">
+        <is>
+          <t>09-07-2025 08:51:09</t>
+        </is>
+      </c>
+      <c r="E28" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="n">
+        <v>252783</v>
+      </c>
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t>09-07-2025 09:14:27</t>
+        </is>
+      </c>
+      <c r="D29" s="4" t="inlineStr">
+        <is>
+          <t>09-07-2025 09:50:27</t>
+        </is>
+      </c>
+      <c r="E29" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="n">
+        <v>252220</v>
+      </c>
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="inlineStr">
+        <is>
+          <t>09-07-2025 10:02:24</t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="inlineStr">
+        <is>
+          <t>09-07-2025 10:21:24</t>
+        </is>
+      </c>
+      <c r="E30" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="n">
         <v>252814</v>
       </c>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C26" s="3" t="inlineStr">
-        <is>
-          <t>09-07-2025 11:39:08</t>
-        </is>
-      </c>
-      <c r="D26" s="3" t="inlineStr">
-        <is>
-          <t>09-07-2025 12:06:08</t>
-        </is>
-      </c>
-      <c r="E26" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="n">
-        <v>252636</v>
-      </c>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr">
-        <is>
-          <t>09-07-2025 12:56:13</t>
-        </is>
-      </c>
-      <c r="D27" s="3" t="inlineStr">
-        <is>
-          <t>09-07-2025 13:38:13</t>
-        </is>
-      </c>
-      <c r="E27" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="3" t="n">
-        <v>252364</v>
-      </c>
-      <c r="B28" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C28" s="3" t="inlineStr">
-        <is>
-          <t>09-07-2025 13:49:29</t>
-        </is>
-      </c>
-      <c r="D28" s="3" t="inlineStr">
-        <is>
-          <t>09-07-2025 14:16:29</t>
-        </is>
-      </c>
-      <c r="E28" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="n">
-        <v>252087</v>
-      </c>
-      <c r="B29" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C29" s="3" t="inlineStr">
-        <is>
-          <t>10-07-2025 07:51:02</t>
-        </is>
-      </c>
-      <c r="D29" s="3" t="inlineStr">
-        <is>
-          <t>10-07-2025 08:18:02</t>
-        </is>
-      </c>
-      <c r="E29" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="n">
-        <v>252347</v>
-      </c>
-      <c r="B30" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C30" s="3" t="inlineStr">
-        <is>
-          <t>10-07-2025 08:53:32</t>
-        </is>
-      </c>
-      <c r="D30" s="3" t="inlineStr">
-        <is>
-          <t>10-07-2025 09:20:32</t>
-        </is>
-      </c>
-      <c r="E30" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="3" t="n">
-        <v>252999</v>
-      </c>
-      <c r="B31" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C31" s="3" t="inlineStr">
-        <is>
-          <t>10-07-2025 10:52:49</t>
-        </is>
-      </c>
-      <c r="D31" s="3" t="inlineStr">
-        <is>
-          <t>10-07-2025 11:19:49</t>
-        </is>
-      </c>
-      <c r="E31" s="3" t="n">
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>09-07-2025 11:41:55</t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t>09-07-2025 12:17:55</t>
+        </is>
+      </c>
+      <c r="E31" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="n">
-        <v>251790</v>
+        <v>252997</v>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
@@ -1246,12 +1242,12 @@
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>09-07-2025 13:08:00</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>08-07-2025 07:21:00</t>
+          <t>09-07-2025 13:44:00</t>
         </is>
       </c>
       <c r="E32" s="4" t="n">
@@ -1260,7 +1256,7 @@
     </row>
     <row r="33">
       <c r="A33" s="4" t="n">
-        <v>252978</v>
+        <v>252785</v>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
@@ -1269,12 +1265,12 @@
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>08-07-2025 11:16:03</t>
+          <t>09-07-2025 14:24:01</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>08-07-2025 11:35:03</t>
+          <t>09-07-2025 14:58:01</t>
         </is>
       </c>
       <c r="E33" s="4" t="n">
@@ -1283,7 +1279,7 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="n">
-        <v>252244</v>
+        <v>252456</v>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
@@ -1292,12 +1288,12 @@
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>08-07-2025 11:58:21</t>
+          <t>10-07-2025 07:53:46</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t>08-07-2025 12:15:21</t>
+          <t>10-07-2025 08:10:46</t>
         </is>
       </c>
       <c r="E34" s="4" t="n">
@@ -1305,221 +1301,219 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="n">
-        <v>252476</v>
-      </c>
-      <c r="B35" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C35" s="4" t="inlineStr">
-        <is>
-          <t>08-07-2025 14:02:56</t>
-        </is>
-      </c>
-      <c r="D35" s="4" t="inlineStr">
-        <is>
-          <t>08-07-2025 14:34:56</t>
-        </is>
-      </c>
-      <c r="E35" s="4" t="n">
+      <c r="A35" s="5" t="n">
+        <v>252347</v>
+      </c>
+      <c r="B35" s="5" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:32:30</t>
+        </is>
+      </c>
+      <c r="E35" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="n">
-        <v>251849</v>
-      </c>
-      <c r="B36" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C36" s="4" t="inlineStr">
-        <is>
-          <t>09-07-2025 07:47:16</t>
-        </is>
-      </c>
-      <c r="D36" s="4" t="inlineStr">
-        <is>
-          <t>09-07-2025 08:06:16</t>
-        </is>
-      </c>
-      <c r="E36" s="4" t="inlineStr">
+      <c r="A36" s="5" t="n">
+        <v>251674</v>
+      </c>
+      <c r="B36" s="5" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
+        <is>
+          <t>08-07-2025 09:04:47</t>
+        </is>
+      </c>
+      <c r="D36" s="5" t="inlineStr">
+        <is>
+          <t>08-07-2025 09:59:17</t>
+        </is>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="n">
+        <v>250284</v>
+      </c>
+      <c r="B37" s="5" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
+        <is>
+          <t>08-07-2025 12:26:24</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="inlineStr">
+        <is>
+          <t>08-07-2025 13:08:54</t>
+        </is>
+      </c>
+      <c r="E37" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5" t="n">
+        <v>251231</v>
+      </c>
+      <c r="B38" s="5" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C38" s="5" t="inlineStr">
+        <is>
+          <t>09-07-2025 07:35:15</t>
+        </is>
+      </c>
+      <c r="D38" s="5" t="inlineStr">
+        <is>
+          <t>09-07-2025 08:09:45</t>
+        </is>
+      </c>
+      <c r="E38" s="5" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="4" t="n">
-        <v>252638</v>
-      </c>
-      <c r="B37" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C37" s="4" t="inlineStr">
-        <is>
-          <t>09-07-2025 08:39:39</t>
-        </is>
-      </c>
-      <c r="D37" s="4" t="inlineStr">
-        <is>
-          <t>09-07-2025 09:02:39</t>
-        </is>
-      </c>
-      <c r="E37" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="4" t="n">
+    <row r="39">
+      <c r="A39" s="5" t="n">
         <v>252277</v>
       </c>
-      <c r="B38" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C38" s="4" t="inlineStr">
-        <is>
-          <t>09-07-2025 10:04:09</t>
-        </is>
-      </c>
-      <c r="D38" s="4" t="inlineStr">
-        <is>
-          <t>09-07-2025 10:23:09</t>
-        </is>
-      </c>
-      <c r="E38" s="4" t="inlineStr">
+      <c r="B39" s="5" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C39" s="5" t="inlineStr">
+        <is>
+          <t>09-07-2025 13:22:04</t>
+        </is>
+      </c>
+      <c r="D39" s="5" t="inlineStr">
+        <is>
+          <t>09-07-2025 13:58:34</t>
+        </is>
+      </c>
+      <c r="E39" s="5" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="4" t="n">
+    <row r="40">
+      <c r="A40" s="5" t="n">
         <v>252549</v>
       </c>
-      <c r="B39" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C39" s="4" t="inlineStr">
-        <is>
-          <t>09-07-2025 12:48:04</t>
-        </is>
-      </c>
-      <c r="D39" s="4" t="inlineStr">
-        <is>
-          <t>09-07-2025 13:07:04</t>
-        </is>
-      </c>
-      <c r="E39" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="4" t="n">
-        <v>252652</v>
-      </c>
-      <c r="B40" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C40" s="4" t="inlineStr">
-        <is>
-          <t>09-07-2025 14:39:40</t>
-        </is>
-      </c>
-      <c r="D40" s="4" t="inlineStr">
-        <is>
-          <t>09-07-2025 14:58:40</t>
-        </is>
-      </c>
-      <c r="E40" s="4" t="n">
+      <c r="B40" s="5" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="inlineStr">
+        <is>
+          <t>10-07-2025 08:23:29</t>
+        </is>
+      </c>
+      <c r="D40" s="5" t="inlineStr">
+        <is>
+          <t>10-07-2025 08:57:59</t>
+        </is>
+      </c>
+      <c r="E40" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="4" t="n">
-        <v>252456</v>
-      </c>
-      <c r="B41" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C41" s="4" t="inlineStr">
-        <is>
-          <t>10-07-2025 10:04:40</t>
-        </is>
-      </c>
-      <c r="D41" s="4" t="inlineStr">
-        <is>
-          <t>10-07-2025 10:23:40</t>
-        </is>
-      </c>
-      <c r="E41" s="4" t="n">
+      <c r="A41" s="5" t="n">
+        <v>252364</v>
+      </c>
+      <c r="B41" s="5" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="inlineStr">
+        <is>
+          <t>10-07-2025 10:30:35</t>
+        </is>
+      </c>
+      <c r="D41" s="5" t="inlineStr">
+        <is>
+          <t>10-07-2025 11:03:05</t>
+        </is>
+      </c>
+      <c r="E41" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="4" t="n">
-        <v>251231</v>
-      </c>
-      <c r="B42" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C42" s="4" t="inlineStr">
-        <is>
-          <t>10-07-2025 12:48:08</t>
-        </is>
-      </c>
-      <c r="D42" s="4" t="inlineStr">
-        <is>
-          <t>10-07-2025 13:05:08</t>
-        </is>
-      </c>
-      <c r="E42" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="A42" s="6" t="n">
+        <v>252144</v>
+      </c>
+      <c r="B42" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C42" s="6" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D42" s="6" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:40:00</t>
+        </is>
+      </c>
+      <c r="E42" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="5" t="n">
-        <v>251632</v>
-      </c>
-      <c r="B43" s="5" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C43" s="5" t="inlineStr">
-        <is>
-          <t>08-07-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="D43" s="5" t="inlineStr">
-        <is>
-          <t>08-07-2025 07:56:30</t>
-        </is>
-      </c>
-      <c r="E43" s="5" t="n">
+      <c r="A43" s="6" t="n">
+        <v>252230</v>
+      </c>
+      <c r="B43" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="inlineStr">
+        <is>
+          <t>08-07-2025 08:34:08</t>
+        </is>
+      </c>
+      <c r="D43" s="6" t="inlineStr">
+        <is>
+          <t>08-07-2025 09:09:08</t>
+        </is>
+      </c>
+      <c r="E43" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="6" t="n">
-        <v>243524</v>
+        <v>252286</v>
       </c>
       <c r="B44" s="6" t="inlineStr">
         <is>
@@ -1528,21 +1522,23 @@
       </c>
       <c r="C44" s="6" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>08-07-2025 10:12:15</t>
         </is>
       </c>
       <c r="D44" s="6" t="inlineStr">
         <is>
-          <t>08-07-2025 07:40:00</t>
-        </is>
-      </c>
-      <c r="E44" s="6" t="n">
-        <v>0</v>
+          <t>08-07-2025 10:42:15</t>
+        </is>
+      </c>
+      <c r="E44" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="6" t="n">
-        <v>252243</v>
+        <v>251632</v>
       </c>
       <c r="B45" s="6" t="inlineStr">
         <is>
@@ -1551,12 +1547,12 @@
       </c>
       <c r="C45" s="6" t="inlineStr">
         <is>
-          <t>08-07-2025 08:46:37</t>
+          <t>08-07-2025 11:33:31</t>
         </is>
       </c>
       <c r="D45" s="6" t="inlineStr">
         <is>
-          <t>08-07-2025 09:16:37</t>
+          <t>08-07-2025 12:58:31</t>
         </is>
       </c>
       <c r="E45" s="6" t="n">
@@ -1565,7 +1561,7 @@
     </row>
     <row r="46">
       <c r="A46" s="6" t="n">
-        <v>252071</v>
+        <v>252243</v>
       </c>
       <c r="B46" s="6" t="inlineStr">
         <is>
@@ -1574,12 +1570,12 @@
       </c>
       <c r="C46" s="6" t="inlineStr">
         <is>
-          <t>08-07-2025 10:53:19</t>
+          <t>09-07-2025 14:47:02</t>
         </is>
       </c>
       <c r="D46" s="6" t="inlineStr">
         <is>
-          <t>08-07-2025 11:23:19</t>
+          <t>10-07-2025 08:12:02</t>
         </is>
       </c>
       <c r="E46" s="6" t="n">
@@ -1588,7 +1584,7 @@
     </row>
     <row r="47">
       <c r="A47" s="6" t="n">
-        <v>251926</v>
+        <v>252713</v>
       </c>
       <c r="B47" s="6" t="inlineStr">
         <is>
@@ -1597,12 +1593,12 @@
       </c>
       <c r="C47" s="6" t="inlineStr">
         <is>
-          <t>08-07-2025 12:09:03</t>
+          <t>10-07-2025 09:48:44</t>
         </is>
       </c>
       <c r="D47" s="6" t="inlineStr">
         <is>
-          <t>08-07-2025 12:49:03</t>
+          <t>10-07-2025 10:28:44</t>
         </is>
       </c>
       <c r="E47" s="6" t="n">
@@ -1611,7 +1607,7 @@
     </row>
     <row r="48">
       <c r="A48" s="6" t="n">
-        <v>252713</v>
+        <v>252334</v>
       </c>
       <c r="B48" s="6" t="inlineStr">
         <is>
@@ -1620,12 +1616,12 @@
       </c>
       <c r="C48" s="6" t="inlineStr">
         <is>
-          <t>08-07-2025 14:07:58</t>
+          <t>14-07-2025 09:36:30</t>
         </is>
       </c>
       <c r="D48" s="6" t="inlineStr">
         <is>
-          <t>08-07-2025 14:37:58</t>
+          <t>14-07-2025 10:21:30</t>
         </is>
       </c>
       <c r="E48" s="6" t="n">
@@ -1634,7 +1630,7 @@
     </row>
     <row r="49">
       <c r="A49" s="6" t="n">
-        <v>252783</v>
+        <v>252470</v>
       </c>
       <c r="B49" s="6" t="inlineStr">
         <is>
@@ -1643,12 +1639,12 @@
       </c>
       <c r="C49" s="6" t="inlineStr">
         <is>
-          <t>10-07-2025 13:45:44</t>
+          <t>15-07-2025 10:28:06</t>
         </is>
       </c>
       <c r="D49" s="6" t="inlineStr">
         <is>
-          <t>10-07-2025 14:15:44</t>
+          <t>15-07-2025 10:58:06</t>
         </is>
       </c>
       <c r="E49" s="6" t="n">
@@ -1657,7 +1653,7 @@
     </row>
     <row r="50">
       <c r="A50" s="6" t="n">
-        <v>252336</v>
+        <v>252157</v>
       </c>
       <c r="B50" s="6" t="inlineStr">
         <is>
@@ -1666,12 +1662,12 @@
       </c>
       <c r="C50" s="6" t="inlineStr">
         <is>
-          <t>10-07-2025 14:27:41</t>
+          <t>15-07-2025 12:00:36</t>
         </is>
       </c>
       <c r="D50" s="6" t="inlineStr">
         <is>
-          <t>10-07-2025 14:57:41</t>
+          <t>15-07-2025 12:50:36</t>
         </is>
       </c>
       <c r="E50" s="6" t="n">
@@ -1679,514 +1675,518 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="6" t="n">
-        <v>252220</v>
-      </c>
-      <c r="B51" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C51" s="6" t="inlineStr">
-        <is>
-          <t>11-07-2025 08:57:58</t>
-        </is>
-      </c>
-      <c r="D51" s="6" t="inlineStr">
-        <is>
-          <t>11-07-2025 09:27:58</t>
-        </is>
-      </c>
-      <c r="E51" s="6" t="n">
+      <c r="A51" s="7" t="n">
+        <v>252201</v>
+      </c>
+      <c r="B51" s="7" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C51" s="7" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D51" s="7" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:19:00</t>
+        </is>
+      </c>
+      <c r="E51" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="6" t="n">
-        <v>251495</v>
-      </c>
-      <c r="B52" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C52" s="6" t="inlineStr">
-        <is>
-          <t>11-07-2025 10:48:29</t>
-        </is>
-      </c>
-      <c r="D52" s="6" t="inlineStr">
-        <is>
-          <t>11-07-2025 11:18:29</t>
-        </is>
-      </c>
-      <c r="E52" s="6" t="n">
+      <c r="A52" s="7" t="n">
+        <v>243525</v>
+      </c>
+      <c r="B52" s="7" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C52" s="7" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:53:06</t>
+        </is>
+      </c>
+      <c r="D52" s="7" t="inlineStr">
+        <is>
+          <t>08-07-2025 08:12:06</t>
+        </is>
+      </c>
+      <c r="E52" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="6" t="n">
-        <v>252334</v>
-      </c>
-      <c r="B53" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C53" s="6" t="inlineStr">
-        <is>
-          <t>11-07-2025 12:30:49</t>
-        </is>
-      </c>
-      <c r="D53" s="6" t="inlineStr">
-        <is>
-          <t>11-07-2025 13:15:49</t>
-        </is>
-      </c>
-      <c r="E53" s="6" t="n">
+      <c r="A53" s="7" t="n">
+        <v>241783</v>
+      </c>
+      <c r="B53" s="7" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C53" s="7" t="inlineStr">
+        <is>
+          <t>08-07-2025 10:22:05</t>
+        </is>
+      </c>
+      <c r="D53" s="7" t="inlineStr">
+        <is>
+          <t>08-07-2025 10:37:05</t>
+        </is>
+      </c>
+      <c r="E53" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="6" t="n">
-        <v>252470</v>
-      </c>
-      <c r="B54" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C54" s="6" t="inlineStr">
-        <is>
-          <t>14-07-2025 13:22:25</t>
-        </is>
-      </c>
-      <c r="D54" s="6" t="inlineStr">
-        <is>
-          <t>14-07-2025 13:52:25</t>
-        </is>
-      </c>
-      <c r="E54" s="6" t="n">
+      <c r="A54" s="7" t="n">
+        <v>245623</v>
+      </c>
+      <c r="B54" s="7" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C54" s="7" t="inlineStr">
+        <is>
+          <t>08-07-2025 11:20:25</t>
+        </is>
+      </c>
+      <c r="D54" s="7" t="inlineStr">
+        <is>
+          <t>08-07-2025 11:52:25</t>
+        </is>
+      </c>
+      <c r="E54" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="6" t="n">
-        <v>252467</v>
-      </c>
-      <c r="B55" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C55" s="6" t="inlineStr">
-        <is>
-          <t>14-07-2025 14:54:55</t>
-        </is>
-      </c>
-      <c r="D55" s="6" t="inlineStr">
-        <is>
-          <t>15-07-2025 07:24:55</t>
-        </is>
-      </c>
-      <c r="E55" s="6" t="n">
+      <c r="A55" s="8" t="n">
+        <v>252071</v>
+      </c>
+      <c r="B55" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C55" s="8" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D55" s="8" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:40:00</t>
+        </is>
+      </c>
+      <c r="E55" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="6" t="n">
-        <v>252790</v>
-      </c>
-      <c r="B56" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C56" s="6" t="inlineStr">
-        <is>
-          <t>15-07-2025 08:46:05</t>
-        </is>
-      </c>
-      <c r="D56" s="6" t="inlineStr">
-        <is>
-          <t>15-07-2025 09:11:05</t>
-        </is>
-      </c>
-      <c r="E56" s="6" t="n">
+      <c r="A56" s="8" t="n">
+        <v>244828</v>
+      </c>
+      <c r="B56" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C56" s="8" t="inlineStr">
+        <is>
+          <t>08-07-2025 08:25:44</t>
+        </is>
+      </c>
+      <c r="D56" s="8" t="inlineStr">
+        <is>
+          <t>08-07-2025 09:00:44</t>
+        </is>
+      </c>
+      <c r="E56" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="6" t="n">
-        <v>250284</v>
-      </c>
-      <c r="B57" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C57" s="6" t="inlineStr">
-        <is>
-          <t>15-07-2025 09:23:11</t>
-        </is>
-      </c>
-      <c r="D57" s="6" t="inlineStr">
-        <is>
-          <t>15-07-2025 10:03:11</t>
-        </is>
-      </c>
-      <c r="E57" s="6" t="n">
+      <c r="A57" s="8" t="n">
+        <v>252047</v>
+      </c>
+      <c r="B57" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="inlineStr">
+        <is>
+          <t>08-07-2025 09:44:05</t>
+        </is>
+      </c>
+      <c r="D57" s="8" t="inlineStr">
+        <is>
+          <t>08-07-2025 10:19:05</t>
+        </is>
+      </c>
+      <c r="E57" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="6" t="n">
-        <v>251674</v>
-      </c>
-      <c r="B58" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C58" s="6" t="inlineStr">
-        <is>
-          <t>15-07-2025 12:29:32</t>
-        </is>
-      </c>
-      <c r="D58" s="6" t="inlineStr">
-        <is>
-          <t>15-07-2025 13:24:32</t>
-        </is>
-      </c>
-      <c r="E58" s="6" t="n">
+      <c r="A58" s="8" t="n">
+        <v>252237</v>
+      </c>
+      <c r="B58" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="inlineStr">
+        <is>
+          <t>08-07-2025 11:29:58</t>
+        </is>
+      </c>
+      <c r="D58" s="8" t="inlineStr">
+        <is>
+          <t>08-07-2025 12:04:58</t>
+        </is>
+      </c>
+      <c r="E58" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="6" t="n">
-        <v>252157</v>
-      </c>
-      <c r="B59" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C59" s="6" t="inlineStr">
-        <is>
-          <t>16-07-2025 07:51:40</t>
-        </is>
-      </c>
-      <c r="D59" s="6" t="inlineStr">
-        <is>
-          <t>16-07-2025 08:41:40</t>
-        </is>
-      </c>
-      <c r="E59" s="6" t="n">
+      <c r="A59" s="8" t="n">
+        <v>252476</v>
+      </c>
+      <c r="B59" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="inlineStr">
+        <is>
+          <t>08-07-2025 13:29:55</t>
+        </is>
+      </c>
+      <c r="D59" s="8" t="inlineStr">
+        <is>
+          <t>08-07-2025 14:04:55</t>
+        </is>
+      </c>
+      <c r="E59" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="6" t="n">
-        <v>252755</v>
-      </c>
-      <c r="B60" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C60" s="6" t="inlineStr">
-        <is>
-          <t>17-07-2025 07:18:29</t>
-        </is>
-      </c>
-      <c r="D60" s="6" t="inlineStr">
-        <is>
-          <t>17-07-2025 08:08:29</t>
-        </is>
-      </c>
-      <c r="E60" s="6" t="n">
+      <c r="A60" s="8" t="n">
+        <v>252244</v>
+      </c>
+      <c r="B60" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="inlineStr">
+        <is>
+          <t>09-07-2025 07:17:16</t>
+        </is>
+      </c>
+      <c r="D60" s="8" t="inlineStr">
+        <is>
+          <t>09-07-2025 07:52:16</t>
+        </is>
+      </c>
+      <c r="E60" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="6" t="n">
-        <v>252899</v>
-      </c>
-      <c r="B61" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C61" s="6" t="inlineStr">
-        <is>
-          <t>17-07-2025 09:58:04</t>
-        </is>
-      </c>
-      <c r="D61" s="6" t="inlineStr">
-        <is>
-          <t>17-07-2025 10:28:04</t>
-        </is>
-      </c>
-      <c r="E61" s="6" t="n">
+      <c r="A61" s="8" t="n">
+        <v>252636</v>
+      </c>
+      <c r="B61" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>09-07-2025 09:39:50</t>
+        </is>
+      </c>
+      <c r="D61" s="8" t="inlineStr">
+        <is>
+          <t>09-07-2025 10:14:50</t>
+        </is>
+      </c>
+      <c r="E61" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="7" t="n">
-        <v>245089</v>
-      </c>
-      <c r="B62" s="7" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C62" s="7" t="inlineStr">
+      <c r="A62" s="8" t="n">
+        <v>252284</v>
+      </c>
+      <c r="B62" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>09-07-2025 10:26:07</t>
+        </is>
+      </c>
+      <c r="D62" s="8" t="inlineStr">
+        <is>
+          <t>09-07-2025 10:56:07</t>
+        </is>
+      </c>
+      <c r="E62" s="8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="8" t="n">
+        <v>252207</v>
+      </c>
+      <c r="B63" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>09-07-2025 11:47:23</t>
+        </is>
+      </c>
+      <c r="D63" s="8" t="inlineStr">
+        <is>
+          <t>09-07-2025 12:22:23</t>
+        </is>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="8" t="n">
+        <v>252350</v>
+      </c>
+      <c r="B64" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>09-07-2025 13:13:56</t>
+        </is>
+      </c>
+      <c r="D64" s="8" t="inlineStr">
+        <is>
+          <t>09-07-2025 13:48:56</t>
+        </is>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="8" t="n">
+        <v>251685</v>
+      </c>
+      <c r="B65" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>09-07-2025 14:40:49</t>
+        </is>
+      </c>
+      <c r="D65" s="8" t="inlineStr">
+        <is>
+          <t>10-07-2025 07:25:49</t>
+        </is>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="8" t="n">
+        <v>252638</v>
+      </c>
+      <c r="B66" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>10-07-2025 09:04:34</t>
+        </is>
+      </c>
+      <c r="D66" s="8" t="inlineStr">
+        <is>
+          <t>10-07-2025 09:34:34</t>
+        </is>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="8" t="n">
+        <v>252547</v>
+      </c>
+      <c r="B67" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="inlineStr">
+        <is>
+          <t>10-07-2025 10:36:04</t>
+        </is>
+      </c>
+      <c r="D67" s="8" t="inlineStr">
+        <is>
+          <t>10-07-2025 11:21:04</t>
+        </is>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="9" t="n">
+        <v>243569</v>
+      </c>
+      <c r="B68" s="9" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C68" s="9" t="inlineStr">
         <is>
           <t>08-07-2025 07:00:00</t>
         </is>
       </c>
-      <c r="D62" s="7" t="inlineStr">
-        <is>
-          <t>08-07-2025 07:17:00</t>
-        </is>
-      </c>
-      <c r="E62" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="7" t="n">
-        <v>243569</v>
-      </c>
-      <c r="B63" s="7" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C63" s="7" t="inlineStr">
-        <is>
-          <t>10-07-2025 08:19:12</t>
-        </is>
-      </c>
-      <c r="D63" s="7" t="inlineStr">
-        <is>
-          <t>10-07-2025 08:36:12</t>
-        </is>
-      </c>
-      <c r="E63" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="7" t="n">
-        <v>252201</v>
-      </c>
-      <c r="B64" s="7" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C64" s="7" t="inlineStr">
-        <is>
-          <t>10-07-2025 08:57:53</t>
-        </is>
-      </c>
-      <c r="D64" s="7" t="inlineStr">
-        <is>
-          <t>10-07-2025 09:16:53</t>
-        </is>
-      </c>
-      <c r="E64" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="7" t="n">
-        <v>252063</v>
-      </c>
-      <c r="B65" s="7" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C65" s="7" t="inlineStr">
-        <is>
-          <t>10-07-2025 09:50:59</t>
-        </is>
-      </c>
-      <c r="D65" s="7" t="inlineStr">
-        <is>
-          <t>10-07-2025 10:09:59</t>
-        </is>
-      </c>
-      <c r="E65" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="7" t="n">
-        <v>252144</v>
-      </c>
-      <c r="B66" s="7" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C66" s="7" t="inlineStr">
-        <is>
-          <t>10-07-2025 11:29:56</t>
-        </is>
-      </c>
-      <c r="D66" s="7" t="inlineStr">
-        <is>
-          <t>10-07-2025 11:48:56</t>
-        </is>
-      </c>
-      <c r="E66" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="7" t="n">
-        <v>252230</v>
-      </c>
-      <c r="B67" s="7" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C67" s="7" t="inlineStr">
-        <is>
-          <t>10-07-2025 12:43:04</t>
-        </is>
-      </c>
-      <c r="D67" s="7" t="inlineStr">
-        <is>
-          <t>10-07-2025 13:02:04</t>
-        </is>
-      </c>
-      <c r="E67" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="8" t="n">
-        <v>252997</v>
-      </c>
-      <c r="B68" s="8" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C68" s="8" t="inlineStr">
-        <is>
-          <t>08-07-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="D68" s="8" t="inlineStr">
-        <is>
-          <t>08-07-2025 07:30:00</t>
-        </is>
-      </c>
-      <c r="E68" s="8" t="n">
+      <c r="D68" s="9" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:40:00</t>
+        </is>
+      </c>
+      <c r="E68" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="8" t="n">
-        <v>243525</v>
-      </c>
-      <c r="B69" s="8" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C69" s="8" t="inlineStr">
-        <is>
-          <t>08-07-2025 08:10:01</t>
-        </is>
-      </c>
-      <c r="D69" s="8" t="inlineStr">
-        <is>
-          <t>08-07-2025 08:45:01</t>
-        </is>
-      </c>
-      <c r="E69" s="8" t="n">
+      <c r="A69" s="9" t="n">
+        <v>244023</v>
+      </c>
+      <c r="B69" s="9" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C69" s="9" t="inlineStr">
+        <is>
+          <t>08-07-2025 08:01:40</t>
+        </is>
+      </c>
+      <c r="D69" s="9" t="inlineStr">
+        <is>
+          <t>08-07-2025 08:46:40</t>
+        </is>
+      </c>
+      <c r="E69" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="8" t="n">
-        <v>243529</v>
-      </c>
-      <c r="B70" s="8" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C70" s="8" t="inlineStr">
-        <is>
-          <t>08-07-2025 10:55:00</t>
-        </is>
-      </c>
-      <c r="D70" s="8" t="inlineStr">
-        <is>
-          <t>08-07-2025 11:20:00</t>
-        </is>
-      </c>
-      <c r="E70" s="8" t="n">
+      <c r="A70" s="9" t="n">
+        <v>251919</v>
+      </c>
+      <c r="B70" s="9" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C70" s="9" t="inlineStr">
+        <is>
+          <t>08-07-2025 08:54:59</t>
+        </is>
+      </c>
+      <c r="D70" s="9" t="inlineStr">
+        <is>
+          <t>08-07-2025 09:39:59</t>
+        </is>
+      </c>
+      <c r="E70" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="8" t="n">
-        <v>252047</v>
-      </c>
-      <c r="B71" s="8" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C71" s="8" t="inlineStr">
-        <is>
-          <t>08-07-2025 13:29:59</t>
-        </is>
-      </c>
-      <c r="D71" s="8" t="inlineStr">
-        <is>
-          <t>08-07-2025 14:04:59</t>
-        </is>
-      </c>
-      <c r="E71" s="8" t="n">
+      <c r="A71" s="9" t="n">
+        <v>252146</v>
+      </c>
+      <c r="B71" s="9" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C71" s="9" t="inlineStr">
+        <is>
+          <t>08-07-2025 12:00:02</t>
+        </is>
+      </c>
+      <c r="D71" s="9" t="inlineStr">
+        <is>
+          <t>08-07-2025 12:40:02</t>
+        </is>
+      </c>
+      <c r="E71" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="8" t="n">
-        <v>251798</v>
-      </c>
-      <c r="B72" s="8" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C72" s="8" t="inlineStr">
-        <is>
-          <t>09-07-2025 07:15:52</t>
-        </is>
-      </c>
-      <c r="D72" s="8" t="inlineStr">
-        <is>
-          <t>09-07-2025 07:45:52</t>
-        </is>
-      </c>
-      <c r="E72" s="8" t="n">
-        <v>0</v>
+      <c r="A72" s="9" t="n">
+        <v>252285</v>
+      </c>
+      <c r="B72" s="9" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C72" s="9" t="inlineStr">
+        <is>
+          <t>08-07-2025 13:46:40</t>
+        </is>
+      </c>
+      <c r="D72" s="9" t="inlineStr">
+        <is>
+          <t>08-07-2025 14:21:40</t>
+        </is>
+      </c>
+      <c r="E72" s="9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="9" t="n">
-        <v>252686</v>
+        <v>243335</v>
       </c>
       <c r="B73" s="9" t="inlineStr">
         <is>
@@ -2195,12 +2195,12 @@
       </c>
       <c r="C73" s="9" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>09-07-2025 07:07:48</t>
         </is>
       </c>
       <c r="D73" s="9" t="inlineStr">
         <is>
-          <t>08-07-2025 07:40:00</t>
+          <t>09-07-2025 07:52:48</t>
         </is>
       </c>
       <c r="E73" s="9" t="n">
@@ -2209,7 +2209,7 @@
     </row>
     <row r="74">
       <c r="A74" s="9" t="n">
-        <v>252546</v>
+        <v>252665</v>
       </c>
       <c r="B74" s="9" t="inlineStr">
         <is>
@@ -2218,12 +2218,12 @@
       </c>
       <c r="C74" s="9" t="inlineStr">
         <is>
-          <t>08-07-2025 13:09:09</t>
+          <t>09-07-2025 12:27:50</t>
         </is>
       </c>
       <c r="D74" s="9" t="inlineStr">
         <is>
-          <t>08-07-2025 13:39:09</t>
+          <t>09-07-2025 13:07:50</t>
         </is>
       </c>
       <c r="E74" s="9" t="n">
@@ -2232,7 +2232,7 @@
     </row>
     <row r="75">
       <c r="A75" s="9" t="n">
-        <v>252237</v>
+        <v>252784</v>
       </c>
       <c r="B75" s="9" t="inlineStr">
         <is>
@@ -2241,12 +2241,12 @@
       </c>
       <c r="C75" s="9" t="inlineStr">
         <is>
-          <t>08-07-2025 14:33:47</t>
+          <t>09-07-2025 13:56:43</t>
         </is>
       </c>
       <c r="D75" s="9" t="inlineStr">
         <is>
-          <t>09-07-2025 07:08:47</t>
+          <t>09-07-2025 14:41:43</t>
         </is>
       </c>
       <c r="E75" s="9" t="n">

--- a/PS-VRP/Dati_output/output_ridotto.xlsx
+++ b/PS-VRP/Dati_output/output_ridotto.xlsx
@@ -38,14 +38,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D9D2E9"/>
-        <bgColor rgb="00D9D2E9"/>
+        <fgColor rgb="00EAD1DC"/>
+        <bgColor rgb="00EAD1DC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E2EFDA"/>
-        <bgColor rgb="00E2EFDA"/>
+        <fgColor rgb="00FCE5CD"/>
+        <bgColor rgb="00FCE5CD"/>
       </patternFill>
     </fill>
     <fill>
@@ -56,14 +56,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CCE5FF"/>
-        <bgColor rgb="00CCE5FF"/>
+        <fgColor rgb="00F4CCCC"/>
+        <bgColor rgb="00F4CCCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FCE5CD"/>
-        <bgColor rgb="00FCE5CD"/>
+        <fgColor rgb="00CCE5FF"/>
+        <bgColor rgb="00CCE5FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -74,14 +74,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EAD1DC"/>
-        <bgColor rgb="00EAD1DC"/>
+        <fgColor rgb="00D9D2E9"/>
+        <bgColor rgb="00D9D2E9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F4CCCC"/>
-        <bgColor rgb="00F4CCCC"/>
+        <fgColor rgb="00E2EFDA"/>
+        <bgColor rgb="00E2EFDA"/>
       </patternFill>
     </fill>
   </fills>

--- a/PS-VRP/Dati_output/output_ridotto.xlsx
+++ b/PS-VRP/Dati_output/output_ridotto.xlsx
@@ -38,20 +38,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EAD1DC"/>
-        <bgColor rgb="00EAD1DC"/>
+        <fgColor rgb="00E2EFDA"/>
+        <bgColor rgb="00E2EFDA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FCE5CD"/>
-        <bgColor rgb="00FCE5CD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D5E8D4"/>
-        <bgColor rgb="00D5E8D4"/>
+        <fgColor rgb="00FFF2CC"/>
+        <bgColor rgb="00FFF2CC"/>
       </patternFill>
     </fill>
     <fill>
@@ -68,20 +62,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFF2CC"/>
-        <bgColor rgb="00FFF2CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00D9D2E9"/>
         <bgColor rgb="00D9D2E9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E2EFDA"/>
-        <bgColor rgb="00E2EFDA"/>
+        <fgColor rgb="00D5E8D4"/>
+        <bgColor rgb="00D5E8D4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FCE5CD"/>
+        <bgColor rgb="00FCE5CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EAD1DC"/>
+        <bgColor rgb="00EAD1DC"/>
       </patternFill>
     </fill>
   </fills>
@@ -541,7 +541,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>252063</v>
+        <v>252146</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>251790</v>
+        <v>252665</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
@@ -573,12 +573,12 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 08:36:56</t>
+          <t>08-07-2025 08:23:38</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 08:55:56</t>
+          <t>08-07-2025 08:55:38</t>
         </is>
       </c>
       <c r="E3" s="2" t="n">
@@ -587,7 +587,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>251926</v>
+        <v>252087</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
@@ -596,12 +596,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 12:51:00</t>
+          <t>08-07-2025 09:44:30</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 13:23:00</t>
+          <t>08-07-2025 10:01:30</t>
         </is>
       </c>
       <c r="E4" s="2" t="n">
@@ -610,7 +610,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>252999</v>
+        <v>252285</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
@@ -619,21 +619,23 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 14:41:55</t>
+          <t>08-07-2025 10:37:00</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>09-07-2025 07:00:55</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>0</v>
+          <t>08-07-2025 10:54:00</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>245089</v>
+        <v>241783</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
@@ -642,12 +644,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>09-07-2025 12:26:45</t>
+          <t>08-07-2025 11:40:09</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>09-07-2025 13:00:45</t>
+          <t>08-07-2025 12:12:09</t>
         </is>
       </c>
       <c r="E6" s="2" t="n">
@@ -656,7 +658,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>251495</v>
+        <v>252286</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
@@ -665,21 +667,23 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11-07-2025 14:02:58</t>
+          <t>08-07-2025 12:55:28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11-07-2025 14:34:58</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>0</v>
+          <t>08-07-2025 13:12:28</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>252336</v>
+        <v>252723</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
@@ -688,12 +692,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>14-07-2025 07:47:18</t>
+          <t>08-07-2025 14:03:44</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>14-07-2025 08:10:18</t>
+          <t>08-07-2025 14:20:44</t>
         </is>
       </c>
       <c r="E8" s="2" t="n">
@@ -702,7 +706,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>252686</v>
+        <v>243525</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
@@ -711,12 +715,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14-07-2025 10:10:35</t>
+          <t>09-07-2025 08:54:42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14-07-2025 10:44:35</t>
+          <t>09-07-2025 09:13:42</t>
         </is>
       </c>
       <c r="E9" s="2" t="n">
@@ -725,7 +729,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>252755</v>
+        <v>252999</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
@@ -734,12 +738,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15-07-2025 08:13:44</t>
+          <t>09-07-2025 11:23:41</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15-07-2025 08:45:44</t>
+          <t>09-07-2025 11:55:41</t>
         </is>
       </c>
       <c r="E10" s="2" t="n">
@@ -748,7 +752,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>252899</v>
+        <v>244023</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
@@ -757,12 +761,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15-07-2025 10:35:18</t>
+          <t>10-07-2025 09:21:31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15-07-2025 10:52:18</t>
+          <t>10-07-2025 09:44:31</t>
         </is>
       </c>
       <c r="E11" s="2" t="n">
@@ -771,7 +775,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>252790</v>
+        <v>252549</v>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
@@ -780,12 +784,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>15-07-2025 13:52:52</t>
+          <t>10-07-2025 09:52:50</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>15-07-2025 14:11:52</t>
+          <t>10-07-2025 10:13:50</t>
         </is>
       </c>
       <c r="E12" s="2" t="n">
@@ -794,7 +798,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>252467</v>
+        <v>252783</v>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
@@ -803,12 +807,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15-07-2025 14:23:59</t>
+          <t>10-07-2025 11:46:25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15-07-2025 14:38:59</t>
+          <t>10-07-2025 12:07:25</t>
         </is>
       </c>
       <c r="E13" s="2" t="n">
@@ -816,54 +820,54 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="n">
-        <v>252371</v>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>08-07-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>08-07-2025 07:46:00</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="n">
+      <c r="A14" s="2" t="n">
+        <v>252547</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>BIMEC 3</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>10-07-2025 12:19:22</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>10-07-2025 12:36:22</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="n">
-        <v>243524</v>
-      </c>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>08-07-2025 08:36:02</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>08-07-2025 09:03:02</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="n">
+      <c r="A15" s="2" t="n">
+        <v>252638</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>BIMEC 3</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>10-07-2025 13:57:32</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>10-07-2025 14:20:32</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>252402</v>
+        <v>252997</v>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
@@ -872,12 +876,12 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>08-07-2025 10:09:39</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>08-07-2025 10:38:39</t>
+          <t>08-07-2025 07:46:00</t>
         </is>
       </c>
       <c r="E16" s="3" t="n">
@@ -886,7 +890,7 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>252298</v>
+        <v>251919</v>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
@@ -895,12 +899,12 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>08-07-2025 11:03:44</t>
+          <t>08-07-2025 08:26:01</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>08-07-2025 11:30:44</t>
+          <t>08-07-2025 08:53:01</t>
         </is>
       </c>
       <c r="E17" s="3" t="n">
@@ -909,7 +913,7 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>252345</v>
+        <v>252350</v>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
@@ -918,12 +922,12 @@
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>08-07-2025 12:41:30</t>
+          <t>08-07-2025 11:13:04</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>08-07-2025 13:27:30</t>
+          <t>08-07-2025 11:55:04</t>
         </is>
       </c>
       <c r="E18" s="3" t="n">
@@ -932,7 +936,7 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>252085</v>
+        <v>252364</v>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
@@ -941,12 +945,12 @@
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>08-07-2025 14:10:49</t>
+          <t>08-07-2025 12:46:57</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>08-07-2025 14:37:49</t>
+          <t>08-07-2025 13:15:57</t>
         </is>
       </c>
       <c r="E19" s="3" t="n">
@@ -955,7 +959,7 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>252652</v>
+        <v>251231</v>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
@@ -964,21 +968,23 @@
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>09-07-2025 07:06:22</t>
+          <t>08-07-2025 14:50:30</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>09-07-2025 07:33:22</t>
-        </is>
-      </c>
-      <c r="E20" s="3" t="n">
-        <v>0</v>
+          <t>09-07-2025 07:19:30</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>252723</v>
+        <v>252277</v>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
@@ -987,161 +993,161 @@
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>09-07-2025 10:39:23</t>
+          <t>09-07-2025 12:31:48</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>09-07-2025 11:23:23</t>
-        </is>
-      </c>
-      <c r="E21" s="3" t="n">
-        <v>0</v>
+          <t>09-07-2025 13:02:48</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="n">
-        <v>252152</v>
-      </c>
-      <c r="B22" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C22" s="4" t="inlineStr">
-        <is>
-          <t>08-07-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="D22" s="4" t="inlineStr">
-        <is>
-          <t>08-07-2025 07:19:00</t>
-        </is>
-      </c>
-      <c r="E22" s="4" t="n">
+      <c r="A22" s="3" t="n">
+        <v>252243</v>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>10-07-2025 07:27:44</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>10-07-2025 08:09:44</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="n">
-        <v>252546</v>
-      </c>
-      <c r="B23" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C23" s="4" t="inlineStr">
-        <is>
-          <t>08-07-2025 07:46:22</t>
-        </is>
-      </c>
-      <c r="D23" s="4" t="inlineStr">
-        <is>
-          <t>08-07-2025 08:03:22</t>
-        </is>
-      </c>
-      <c r="E23" s="4" t="n">
+      <c r="A23" s="3" t="n">
+        <v>252230</v>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>10-07-2025 09:46:26</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>10-07-2025 10:13:26</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="n">
-        <v>251798</v>
-      </c>
-      <c r="B24" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C24" s="4" t="inlineStr">
-        <is>
-          <t>08-07-2025 08:58:00</t>
-        </is>
-      </c>
-      <c r="D24" s="4" t="inlineStr">
-        <is>
-          <t>08-07-2025 09:15:00</t>
-        </is>
-      </c>
-      <c r="E24" s="4" t="n">
+      <c r="A24" s="3" t="n">
+        <v>252071</v>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>10-07-2025 11:16:34</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>10-07-2025 11:45:34</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="n">
-        <v>252087</v>
-      </c>
-      <c r="B25" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C25" s="4" t="inlineStr">
-        <is>
-          <t>08-07-2025 11:18:17</t>
-        </is>
-      </c>
-      <c r="D25" s="4" t="inlineStr">
-        <is>
-          <t>08-07-2025 11:50:17</t>
-        </is>
-      </c>
-      <c r="E25" s="4" t="n">
+      <c r="A25" s="3" t="n">
+        <v>252686</v>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>10-07-2025 12:31:18</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>10-07-2025 13:15:18</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="n">
-        <v>243529</v>
-      </c>
-      <c r="B26" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C26" s="4" t="inlineStr">
-        <is>
-          <t>08-07-2025 12:25:47</t>
-        </is>
-      </c>
-      <c r="D26" s="4" t="inlineStr">
-        <is>
-          <t>08-07-2025 12:59:47</t>
-        </is>
-      </c>
-      <c r="E26" s="4" t="n">
+      <c r="A26" s="3" t="n">
+        <v>252336</v>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>11-07-2025 10:44:27</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>11-07-2025 11:28:27</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="n">
-        <v>251849</v>
-      </c>
-      <c r="B27" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C27" s="4" t="inlineStr">
-        <is>
-          <t>09-07-2025 07:09:46</t>
-        </is>
-      </c>
-      <c r="D27" s="4" t="inlineStr">
-        <is>
-          <t>09-07-2025 07:43:46</t>
-        </is>
-      </c>
-      <c r="E27" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="A27" s="3" t="n">
+        <v>251495</v>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>11-07-2025 13:28:43</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>11-07-2025 14:01:43</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="n">
-        <v>252978</v>
+        <v>243569</v>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
@@ -1150,12 +1156,12 @@
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>09-07-2025 08:17:09</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>09-07-2025 08:51:09</t>
+          <t>08-07-2025 07:21:00</t>
         </is>
       </c>
       <c r="E28" s="4" t="n">
@@ -1164,7 +1170,7 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="n">
-        <v>252783</v>
+        <v>252244</v>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
@@ -1173,12 +1179,12 @@
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>09-07-2025 09:14:27</t>
+          <t>08-07-2025 07:42:40</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>09-07-2025 09:50:27</t>
+          <t>08-07-2025 07:59:40</t>
         </is>
       </c>
       <c r="E29" s="4" t="n">
@@ -1187,7 +1193,7 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="n">
-        <v>252220</v>
+        <v>252047</v>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
@@ -1196,12 +1202,12 @@
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>09-07-2025 10:02:24</t>
+          <t>08-07-2025 09:47:15</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>09-07-2025 10:21:24</t>
+          <t>08-07-2025 10:04:15</t>
         </is>
       </c>
       <c r="E30" s="4" t="n">
@@ -1210,7 +1216,7 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="n">
-        <v>252814</v>
+        <v>252144</v>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
@@ -1219,12 +1225,12 @@
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>09-07-2025 11:41:55</t>
+          <t>08-07-2025 11:15:08</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>09-07-2025 12:17:55</t>
+          <t>08-07-2025 11:30:08</t>
         </is>
       </c>
       <c r="E31" s="4" t="n">
@@ -1233,7 +1239,7 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="n">
-        <v>252997</v>
+        <v>243529</v>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
@@ -1242,12 +1248,12 @@
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>09-07-2025 13:08:00</t>
+          <t>08-07-2025 12:24:16</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>09-07-2025 13:44:00</t>
+          <t>08-07-2025 12:43:16</t>
         </is>
       </c>
       <c r="E32" s="4" t="n">
@@ -1256,7 +1262,7 @@
     </row>
     <row r="33">
       <c r="A33" s="4" t="n">
-        <v>252785</v>
+        <v>252085</v>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
@@ -1265,12 +1271,12 @@
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>09-07-2025 14:24:01</t>
+          <t>08-07-2025 14:53:15</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>09-07-2025 14:58:01</t>
+          <t>09-07-2025 07:25:15</t>
         </is>
       </c>
       <c r="E33" s="4" t="n">
@@ -1278,31 +1284,31 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="n">
-        <v>252456</v>
-      </c>
-      <c r="B34" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C34" s="4" t="inlineStr">
-        <is>
-          <t>10-07-2025 07:53:46</t>
-        </is>
-      </c>
-      <c r="D34" s="4" t="inlineStr">
-        <is>
-          <t>10-07-2025 08:10:46</t>
-        </is>
-      </c>
-      <c r="E34" s="4" t="n">
+      <c r="A34" s="5" t="n">
+        <v>252347</v>
+      </c>
+      <c r="B34" s="5" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:32:30</t>
+        </is>
+      </c>
+      <c r="E34" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="5" t="n">
-        <v>252347</v>
+        <v>252220</v>
       </c>
       <c r="B35" s="5" t="inlineStr">
         <is>
@@ -1311,12 +1317,12 @@
       </c>
       <c r="C35" s="5" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>08-07-2025 09:04:47</t>
         </is>
       </c>
       <c r="D35" s="5" t="inlineStr">
         <is>
-          <t>08-07-2025 07:32:30</t>
+          <t>08-07-2025 09:39:17</t>
         </is>
       </c>
       <c r="E35" s="5" t="n">
@@ -1325,7 +1331,7 @@
     </row>
     <row r="36">
       <c r="A36" s="5" t="n">
-        <v>251674</v>
+        <v>250284</v>
       </c>
       <c r="B36" s="5" t="inlineStr">
         <is>
@@ -1334,12 +1340,12 @@
       </c>
       <c r="C36" s="5" t="inlineStr">
         <is>
-          <t>08-07-2025 09:04:47</t>
+          <t>08-07-2025 10:59:48</t>
         </is>
       </c>
       <c r="D36" s="5" t="inlineStr">
         <is>
-          <t>08-07-2025 09:59:17</t>
+          <t>08-07-2025 11:38:18</t>
         </is>
       </c>
       <c r="E36" s="5" t="n">
@@ -1348,7 +1354,7 @@
     </row>
     <row r="37">
       <c r="A37" s="5" t="n">
-        <v>250284</v>
+        <v>251674</v>
       </c>
       <c r="B37" s="5" t="inlineStr">
         <is>
@@ -1357,12 +1363,12 @@
       </c>
       <c r="C37" s="5" t="inlineStr">
         <is>
-          <t>08-07-2025 12:26:24</t>
+          <t>08-07-2025 14:04:39</t>
         </is>
       </c>
       <c r="D37" s="5" t="inlineStr">
         <is>
-          <t>08-07-2025 13:08:54</t>
+          <t>08-07-2025 14:47:09</t>
         </is>
       </c>
       <c r="E37" s="5" t="n">
@@ -1371,7 +1377,7 @@
     </row>
     <row r="38">
       <c r="A38" s="5" t="n">
-        <v>251231</v>
+        <v>252713</v>
       </c>
       <c r="B38" s="5" t="inlineStr">
         <is>
@@ -1380,23 +1386,21 @@
       </c>
       <c r="C38" s="5" t="inlineStr">
         <is>
-          <t>09-07-2025 07:35:15</t>
+          <t>09-07-2025 09:14:16</t>
         </is>
       </c>
       <c r="D38" s="5" t="inlineStr">
         <is>
-          <t>09-07-2025 08:09:45</t>
-        </is>
-      </c>
-      <c r="E38" s="5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>09-07-2025 10:02:46</t>
+        </is>
+      </c>
+      <c r="E38" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="5" t="n">
-        <v>252277</v>
+        <v>251926</v>
       </c>
       <c r="B39" s="5" t="inlineStr">
         <is>
@@ -1405,23 +1409,21 @@
       </c>
       <c r="C39" s="5" t="inlineStr">
         <is>
-          <t>09-07-2025 13:22:04</t>
+          <t>11-07-2025 09:10:32</t>
         </is>
       </c>
       <c r="D39" s="5" t="inlineStr">
         <is>
-          <t>09-07-2025 13:58:34</t>
-        </is>
-      </c>
-      <c r="E39" s="5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>11-07-2025 09:43:02</t>
+        </is>
+      </c>
+      <c r="E39" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="5" t="n">
-        <v>252549</v>
+        <v>251685</v>
       </c>
       <c r="B40" s="5" t="inlineStr">
         <is>
@@ -1430,12 +1432,12 @@
       </c>
       <c r="C40" s="5" t="inlineStr">
         <is>
-          <t>10-07-2025 08:23:29</t>
+          <t>11-07-2025 11:01:57</t>
         </is>
       </c>
       <c r="D40" s="5" t="inlineStr">
         <is>
-          <t>10-07-2025 08:57:59</t>
+          <t>11-07-2025 11:36:27</t>
         </is>
       </c>
       <c r="E40" s="5" t="n">
@@ -1444,7 +1446,7 @@
     </row>
     <row r="41">
       <c r="A41" s="5" t="n">
-        <v>252364</v>
+        <v>252157</v>
       </c>
       <c r="B41" s="5" t="inlineStr">
         <is>
@@ -1453,12 +1455,12 @@
       </c>
       <c r="C41" s="5" t="inlineStr">
         <is>
-          <t>10-07-2025 10:30:35</t>
+          <t>11-07-2025 13:15:13</t>
         </is>
       </c>
       <c r="D41" s="5" t="inlineStr">
         <is>
-          <t>10-07-2025 11:03:05</t>
+          <t>11-07-2025 13:51:43</t>
         </is>
       </c>
       <c r="E41" s="5" t="n">
@@ -1466,148 +1468,146 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="6" t="n">
-        <v>252144</v>
-      </c>
-      <c r="B42" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C42" s="6" t="inlineStr">
-        <is>
-          <t>08-07-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="D42" s="6" t="inlineStr">
-        <is>
-          <t>08-07-2025 07:40:00</t>
-        </is>
-      </c>
-      <c r="E42" s="6" t="n">
+      <c r="A42" s="5" t="n">
+        <v>252755</v>
+      </c>
+      <c r="B42" s="5" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="inlineStr">
+        <is>
+          <t>14-07-2025 12:28:32</t>
+        </is>
+      </c>
+      <c r="D42" s="5" t="inlineStr">
+        <is>
+          <t>14-07-2025 13:09:02</t>
+        </is>
+      </c>
+      <c r="E42" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="6" t="n">
-        <v>252230</v>
-      </c>
-      <c r="B43" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C43" s="6" t="inlineStr">
-        <is>
-          <t>08-07-2025 08:34:08</t>
-        </is>
-      </c>
-      <c r="D43" s="6" t="inlineStr">
-        <is>
-          <t>08-07-2025 09:09:08</t>
-        </is>
-      </c>
-      <c r="E43" s="6" t="n">
+      <c r="A43" s="5" t="n">
+        <v>252899</v>
+      </c>
+      <c r="B43" s="5" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C43" s="5" t="inlineStr">
+        <is>
+          <t>14-07-2025 14:58:37</t>
+        </is>
+      </c>
+      <c r="D43" s="5" t="inlineStr">
+        <is>
+          <t>15-07-2025 07:31:07</t>
+        </is>
+      </c>
+      <c r="E43" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="6" t="n">
-        <v>252286</v>
-      </c>
-      <c r="B44" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C44" s="6" t="inlineStr">
-        <is>
-          <t>08-07-2025 10:12:15</t>
-        </is>
-      </c>
-      <c r="D44" s="6" t="inlineStr">
-        <is>
-          <t>08-07-2025 10:42:15</t>
-        </is>
-      </c>
-      <c r="E44" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="A44" s="5" t="n">
+        <v>252470</v>
+      </c>
+      <c r="B44" s="5" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C44" s="5" t="inlineStr">
+        <is>
+          <t>15-07-2025 10:31:41</t>
+        </is>
+      </c>
+      <c r="D44" s="5" t="inlineStr">
+        <is>
+          <t>15-07-2025 11:04:11</t>
+        </is>
+      </c>
+      <c r="E44" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="6" t="n">
-        <v>251632</v>
-      </c>
-      <c r="B45" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C45" s="6" t="inlineStr">
-        <is>
-          <t>08-07-2025 11:33:31</t>
-        </is>
-      </c>
-      <c r="D45" s="6" t="inlineStr">
-        <is>
-          <t>08-07-2025 12:58:31</t>
-        </is>
-      </c>
-      <c r="E45" s="6" t="n">
+      <c r="A45" s="5" t="n">
+        <v>252790</v>
+      </c>
+      <c r="B45" s="5" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C45" s="5" t="inlineStr">
+        <is>
+          <t>15-07-2025 12:06:41</t>
+        </is>
+      </c>
+      <c r="D45" s="5" t="inlineStr">
+        <is>
+          <t>15-07-2025 12:39:11</t>
+        </is>
+      </c>
+      <c r="E45" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="6" t="n">
-        <v>252243</v>
-      </c>
-      <c r="B46" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C46" s="6" t="inlineStr">
-        <is>
-          <t>09-07-2025 14:47:02</t>
-        </is>
-      </c>
-      <c r="D46" s="6" t="inlineStr">
-        <is>
-          <t>10-07-2025 08:12:02</t>
-        </is>
-      </c>
-      <c r="E46" s="6" t="n">
+      <c r="A46" s="5" t="n">
+        <v>252467</v>
+      </c>
+      <c r="B46" s="5" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C46" s="5" t="inlineStr">
+        <is>
+          <t>15-07-2025 12:51:17</t>
+        </is>
+      </c>
+      <c r="D46" s="5" t="inlineStr">
+        <is>
+          <t>15-07-2025 13:21:47</t>
+        </is>
+      </c>
+      <c r="E46" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="6" t="n">
-        <v>252713</v>
-      </c>
-      <c r="B47" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C47" s="6" t="inlineStr">
-        <is>
-          <t>10-07-2025 09:48:44</t>
-        </is>
-      </c>
-      <c r="D47" s="6" t="inlineStr">
-        <is>
-          <t>10-07-2025 10:28:44</t>
-        </is>
-      </c>
-      <c r="E47" s="6" t="n">
+      <c r="A47" s="5" t="n">
+        <v>252334</v>
+      </c>
+      <c r="B47" s="5" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C47" s="5" t="inlineStr">
+        <is>
+          <t>15-07-2025 14:42:57</t>
+        </is>
+      </c>
+      <c r="D47" s="5" t="inlineStr">
+        <is>
+          <t>16-07-2025 07:13:27</t>
+        </is>
+      </c>
+      <c r="E47" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="6" t="n">
-        <v>252334</v>
+        <v>252636</v>
       </c>
       <c r="B48" s="6" t="inlineStr">
         <is>
@@ -1616,12 +1616,12 @@
       </c>
       <c r="C48" s="6" t="inlineStr">
         <is>
-          <t>14-07-2025 09:36:30</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="D48" s="6" t="inlineStr">
         <is>
-          <t>14-07-2025 10:21:30</t>
+          <t>08-07-2025 07:30:00</t>
         </is>
       </c>
       <c r="E48" s="6" t="n">
@@ -1630,7 +1630,7 @@
     </row>
     <row r="49">
       <c r="A49" s="6" t="n">
-        <v>252470</v>
+        <v>252546</v>
       </c>
       <c r="B49" s="6" t="inlineStr">
         <is>
@@ -1639,12 +1639,12 @@
       </c>
       <c r="C49" s="6" t="inlineStr">
         <is>
-          <t>15-07-2025 10:28:06</t>
+          <t>08-07-2025 07:41:16</t>
         </is>
       </c>
       <c r="D49" s="6" t="inlineStr">
         <is>
-          <t>15-07-2025 10:58:06</t>
+          <t>08-07-2025 08:26:16</t>
         </is>
       </c>
       <c r="E49" s="6" t="n">
@@ -1653,7 +1653,7 @@
     </row>
     <row r="50">
       <c r="A50" s="6" t="n">
-        <v>252157</v>
+        <v>252201</v>
       </c>
       <c r="B50" s="6" t="inlineStr">
         <is>
@@ -1662,12 +1662,12 @@
       </c>
       <c r="C50" s="6" t="inlineStr">
         <is>
-          <t>15-07-2025 12:00:36</t>
+          <t>08-07-2025 09:20:54</t>
         </is>
       </c>
       <c r="D50" s="6" t="inlineStr">
         <is>
-          <t>15-07-2025 12:50:36</t>
+          <t>08-07-2025 09:55:54</t>
         </is>
       </c>
       <c r="E50" s="6" t="n">
@@ -1675,286 +1675,284 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="7" t="n">
-        <v>252201</v>
-      </c>
-      <c r="B51" s="7" t="inlineStr">
+      <c r="A51" s="6" t="n">
+        <v>252207</v>
+      </c>
+      <c r="B51" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C51" s="6" t="inlineStr">
+        <is>
+          <t>08-07-2025 10:30:01</t>
+        </is>
+      </c>
+      <c r="D51" s="6" t="inlineStr">
+        <is>
+          <t>08-07-2025 11:05:01</t>
+        </is>
+      </c>
+      <c r="E51" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="6" t="n">
+        <v>251798</v>
+      </c>
+      <c r="B52" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C52" s="6" t="inlineStr">
+        <is>
+          <t>08-07-2025 11:56:34</t>
+        </is>
+      </c>
+      <c r="D52" s="6" t="inlineStr">
+        <is>
+          <t>08-07-2025 12:26:34</t>
+        </is>
+      </c>
+      <c r="E52" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="6" t="n">
+        <v>252476</v>
+      </c>
+      <c r="B53" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C53" s="6" t="inlineStr">
+        <is>
+          <t>08-07-2025 14:29:51</t>
+        </is>
+      </c>
+      <c r="D53" s="6" t="inlineStr">
+        <is>
+          <t>09-07-2025 07:09:51</t>
+        </is>
+      </c>
+      <c r="E53" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="6" t="n">
+        <v>252785</v>
+      </c>
+      <c r="B54" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C54" s="6" t="inlineStr">
+        <is>
+          <t>09-07-2025 08:22:12</t>
+        </is>
+      </c>
+      <c r="D54" s="6" t="inlineStr">
+        <is>
+          <t>09-07-2025 09:02:12</t>
+        </is>
+      </c>
+      <c r="E54" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="n">
+        <v>251632</v>
+      </c>
+      <c r="B55" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C55" s="6" t="inlineStr">
+        <is>
+          <t>09-07-2025 09:57:57</t>
+        </is>
+      </c>
+      <c r="D55" s="6" t="inlineStr">
+        <is>
+          <t>09-07-2025 11:02:57</t>
+        </is>
+      </c>
+      <c r="E55" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="7" t="n">
+        <v>252063</v>
+      </c>
+      <c r="B56" s="7" t="inlineStr">
         <is>
           <t>R12</t>
         </is>
       </c>
-      <c r="C51" s="7" t="inlineStr">
+      <c r="C56" s="7" t="inlineStr">
         <is>
           <t>08-07-2025 07:00:00</t>
         </is>
       </c>
-      <c r="D51" s="7" t="inlineStr">
+      <c r="D56" s="7" t="inlineStr">
         <is>
           <t>08-07-2025 07:19:00</t>
         </is>
       </c>
-      <c r="E51" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="7" t="n">
-        <v>243525</v>
-      </c>
-      <c r="B52" s="7" t="inlineStr">
+      <c r="E56" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="7" t="n">
+        <v>244828</v>
+      </c>
+      <c r="B57" s="7" t="inlineStr">
         <is>
           <t>R12</t>
         </is>
       </c>
-      <c r="C52" s="7" t="inlineStr">
-        <is>
-          <t>08-07-2025 07:53:06</t>
-        </is>
-      </c>
-      <c r="D52" s="7" t="inlineStr">
-        <is>
-          <t>08-07-2025 08:12:06</t>
-        </is>
-      </c>
-      <c r="E52" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="7" t="n">
-        <v>241783</v>
-      </c>
-      <c r="B53" s="7" t="inlineStr">
+      <c r="C57" s="7" t="inlineStr">
+        <is>
+          <t>08-07-2025 08:38:56</t>
+        </is>
+      </c>
+      <c r="D57" s="7" t="inlineStr">
+        <is>
+          <t>08-07-2025 09:10:56</t>
+        </is>
+      </c>
+      <c r="E57" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="7" t="n">
+        <v>252237</v>
+      </c>
+      <c r="B58" s="7" t="inlineStr">
         <is>
           <t>R12</t>
         </is>
       </c>
-      <c r="C53" s="7" t="inlineStr">
-        <is>
-          <t>08-07-2025 10:22:05</t>
-        </is>
-      </c>
-      <c r="D53" s="7" t="inlineStr">
-        <is>
-          <t>08-07-2025 10:37:05</t>
-        </is>
-      </c>
-      <c r="E53" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="7" t="n">
+      <c r="C58" s="7" t="inlineStr">
+        <is>
+          <t>08-07-2025 09:54:18</t>
+        </is>
+      </c>
+      <c r="D58" s="7" t="inlineStr">
+        <is>
+          <t>08-07-2025 10:09:18</t>
+        </is>
+      </c>
+      <c r="E58" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="7" t="n">
         <v>245623</v>
       </c>
-      <c r="B54" s="7" t="inlineStr">
+      <c r="B59" s="7" t="inlineStr">
         <is>
           <t>R12</t>
         </is>
       </c>
-      <c r="C54" s="7" t="inlineStr">
-        <is>
-          <t>08-07-2025 11:20:25</t>
-        </is>
-      </c>
-      <c r="D54" s="7" t="inlineStr">
-        <is>
-          <t>08-07-2025 11:52:25</t>
-        </is>
-      </c>
-      <c r="E54" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="8" t="n">
-        <v>252071</v>
-      </c>
-      <c r="B55" s="8" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C55" s="8" t="inlineStr">
-        <is>
-          <t>08-07-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="D55" s="8" t="inlineStr">
-        <is>
-          <t>08-07-2025 07:40:00</t>
-        </is>
-      </c>
-      <c r="E55" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="8" t="n">
-        <v>244828</v>
-      </c>
-      <c r="B56" s="8" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C56" s="8" t="inlineStr">
-        <is>
-          <t>08-07-2025 08:25:44</t>
-        </is>
-      </c>
-      <c r="D56" s="8" t="inlineStr">
-        <is>
-          <t>08-07-2025 09:00:44</t>
-        </is>
-      </c>
-      <c r="E56" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="8" t="n">
-        <v>252047</v>
-      </c>
-      <c r="B57" s="8" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C57" s="8" t="inlineStr">
-        <is>
-          <t>08-07-2025 09:44:05</t>
-        </is>
-      </c>
-      <c r="D57" s="8" t="inlineStr">
-        <is>
-          <t>08-07-2025 10:19:05</t>
-        </is>
-      </c>
-      <c r="E57" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="8" t="n">
-        <v>252237</v>
-      </c>
-      <c r="B58" s="8" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C58" s="8" t="inlineStr">
-        <is>
-          <t>08-07-2025 11:29:58</t>
-        </is>
-      </c>
-      <c r="D58" s="8" t="inlineStr">
-        <is>
-          <t>08-07-2025 12:04:58</t>
-        </is>
-      </c>
-      <c r="E58" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="8" t="n">
-        <v>252476</v>
-      </c>
-      <c r="B59" s="8" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C59" s="8" t="inlineStr">
-        <is>
-          <t>08-07-2025 13:29:55</t>
-        </is>
-      </c>
-      <c r="D59" s="8" t="inlineStr">
-        <is>
-          <t>08-07-2025 14:04:55</t>
-        </is>
-      </c>
-      <c r="E59" s="8" t="n">
+      <c r="C59" s="7" t="inlineStr">
+        <is>
+          <t>08-07-2025 11:34:15</t>
+        </is>
+      </c>
+      <c r="D59" s="7" t="inlineStr">
+        <is>
+          <t>08-07-2025 12:08:15</t>
+        </is>
+      </c>
+      <c r="E59" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="8" t="n">
-        <v>252244</v>
-      </c>
-      <c r="B60" s="8" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C60" s="8" t="inlineStr">
-        <is>
-          <t>09-07-2025 07:17:16</t>
-        </is>
-      </c>
-      <c r="D60" s="8" t="inlineStr">
-        <is>
-          <t>09-07-2025 07:52:16</t>
-        </is>
-      </c>
-      <c r="E60" s="8" t="n">
+      <c r="A60" s="7" t="n">
+        <v>252152</v>
+      </c>
+      <c r="B60" s="7" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C60" s="7" t="inlineStr">
+        <is>
+          <t>09-07-2025 07:48:24</t>
+        </is>
+      </c>
+      <c r="D60" s="7" t="inlineStr">
+        <is>
+          <t>09-07-2025 08:22:24</t>
+        </is>
+      </c>
+      <c r="E60" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="8" t="n">
-        <v>252636</v>
-      </c>
-      <c r="B61" s="8" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C61" s="8" t="inlineStr">
-        <is>
-          <t>09-07-2025 09:39:50</t>
-        </is>
-      </c>
-      <c r="D61" s="8" t="inlineStr">
-        <is>
-          <t>09-07-2025 10:14:50</t>
-        </is>
-      </c>
-      <c r="E61" s="8" t="n">
+      <c r="A61" s="7" t="n">
+        <v>252402</v>
+      </c>
+      <c r="B61" s="7" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C61" s="7" t="inlineStr">
+        <is>
+          <t>09-07-2025 08:49:46</t>
+        </is>
+      </c>
+      <c r="D61" s="7" t="inlineStr">
+        <is>
+          <t>09-07-2025 09:06:46</t>
+        </is>
+      </c>
+      <c r="E61" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="8" t="n">
-        <v>252284</v>
-      </c>
-      <c r="B62" s="8" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C62" s="8" t="inlineStr">
-        <is>
-          <t>09-07-2025 10:26:07</t>
-        </is>
-      </c>
-      <c r="D62" s="8" t="inlineStr">
-        <is>
-          <t>09-07-2025 10:56:07</t>
-        </is>
-      </c>
-      <c r="E62" s="8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="A62" s="7" t="n">
+        <v>245089</v>
+      </c>
+      <c r="B62" s="7" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C62" s="7" t="inlineStr">
+        <is>
+          <t>09-07-2025 09:31:51</t>
+        </is>
+      </c>
+      <c r="D62" s="7" t="inlineStr">
+        <is>
+          <t>09-07-2025 09:48:51</t>
+        </is>
+      </c>
+      <c r="E62" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="8" t="n">
-        <v>252207</v>
+        <v>252371</v>
       </c>
       <c r="B63" s="8" t="inlineStr">
         <is>
@@ -1963,12 +1961,12 @@
       </c>
       <c r="C63" s="8" t="inlineStr">
         <is>
-          <t>09-07-2025 11:47:23</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="D63" s="8" t="inlineStr">
         <is>
-          <t>09-07-2025 12:22:23</t>
+          <t>08-07-2025 07:35:00</t>
         </is>
       </c>
       <c r="E63" s="8" t="n">
@@ -1977,7 +1975,7 @@
     </row>
     <row r="64">
       <c r="A64" s="8" t="n">
-        <v>252350</v>
+        <v>251790</v>
       </c>
       <c r="B64" s="8" t="inlineStr">
         <is>
@@ -1986,12 +1984,12 @@
       </c>
       <c r="C64" s="8" t="inlineStr">
         <is>
-          <t>09-07-2025 13:13:56</t>
+          <t>08-07-2025 08:25:02</t>
         </is>
       </c>
       <c r="D64" s="8" t="inlineStr">
         <is>
-          <t>09-07-2025 13:48:56</t>
+          <t>08-07-2025 08:55:02</t>
         </is>
       </c>
       <c r="E64" s="8" t="n">
@@ -2000,7 +1998,7 @@
     </row>
     <row r="65">
       <c r="A65" s="8" t="n">
-        <v>251685</v>
+        <v>252652</v>
       </c>
       <c r="B65" s="8" t="inlineStr">
         <is>
@@ -2009,12 +2007,12 @@
       </c>
       <c r="C65" s="8" t="inlineStr">
         <is>
-          <t>09-07-2025 14:40:49</t>
+          <t>08-07-2025 12:50:06</t>
         </is>
       </c>
       <c r="D65" s="8" t="inlineStr">
         <is>
-          <t>10-07-2025 07:25:49</t>
+          <t>08-07-2025 13:30:06</t>
         </is>
       </c>
       <c r="E65" s="8" t="n">
@@ -2023,7 +2021,7 @@
     </row>
     <row r="66">
       <c r="A66" s="8" t="n">
-        <v>252638</v>
+        <v>251849</v>
       </c>
       <c r="B66" s="8" t="inlineStr">
         <is>
@@ -2032,21 +2030,23 @@
       </c>
       <c r="C66" s="8" t="inlineStr">
         <is>
-          <t>10-07-2025 09:04:34</t>
+          <t>09-07-2025 08:36:06</t>
         </is>
       </c>
       <c r="D66" s="8" t="inlineStr">
         <is>
-          <t>10-07-2025 09:34:34</t>
-        </is>
-      </c>
-      <c r="E66" s="8" t="n">
-        <v>0</v>
+          <t>09-07-2025 09:11:06</t>
+        </is>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="8" t="n">
-        <v>252547</v>
+        <v>252784</v>
       </c>
       <c r="B67" s="8" t="inlineStr">
         <is>
@@ -2055,12 +2055,12 @@
       </c>
       <c r="C67" s="8" t="inlineStr">
         <is>
-          <t>10-07-2025 10:36:04</t>
+          <t>09-07-2025 09:44:29</t>
         </is>
       </c>
       <c r="D67" s="8" t="inlineStr">
         <is>
-          <t>10-07-2025 11:21:04</t>
+          <t>09-07-2025 10:14:29</t>
         </is>
       </c>
       <c r="E67" s="8" t="n">
@@ -2069,7 +2069,7 @@
     </row>
     <row r="68">
       <c r="A68" s="9" t="n">
-        <v>243569</v>
+        <v>252345</v>
       </c>
       <c r="B68" s="9" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
       </c>
       <c r="D68" s="9" t="inlineStr">
         <is>
-          <t>08-07-2025 07:40:00</t>
+          <t>08-07-2025 07:35:00</t>
         </is>
       </c>
       <c r="E68" s="9" t="n">
@@ -2092,7 +2092,7 @@
     </row>
     <row r="69">
       <c r="A69" s="9" t="n">
-        <v>244023</v>
+        <v>243335</v>
       </c>
       <c r="B69" s="9" t="inlineStr">
         <is>
@@ -2101,12 +2101,12 @@
       </c>
       <c r="C69" s="9" t="inlineStr">
         <is>
-          <t>08-07-2025 08:01:40</t>
+          <t>08-07-2025 08:18:19</t>
         </is>
       </c>
       <c r="D69" s="9" t="inlineStr">
         <is>
-          <t>08-07-2025 08:46:40</t>
+          <t>08-07-2025 08:53:19</t>
         </is>
       </c>
       <c r="E69" s="9" t="n">
@@ -2115,7 +2115,7 @@
     </row>
     <row r="70">
       <c r="A70" s="9" t="n">
-        <v>251919</v>
+        <v>252298</v>
       </c>
       <c r="B70" s="9" t="inlineStr">
         <is>
@@ -2124,12 +2124,12 @@
       </c>
       <c r="C70" s="9" t="inlineStr">
         <is>
-          <t>08-07-2025 08:54:59</t>
+          <t>08-07-2025 13:28:21</t>
         </is>
       </c>
       <c r="D70" s="9" t="inlineStr">
         <is>
-          <t>08-07-2025 09:39:59</t>
+          <t>08-07-2025 14:08:21</t>
         </is>
       </c>
       <c r="E70" s="9" t="n">
@@ -2138,7 +2138,7 @@
     </row>
     <row r="71">
       <c r="A71" s="9" t="n">
-        <v>252146</v>
+        <v>252284</v>
       </c>
       <c r="B71" s="9" t="inlineStr">
         <is>
@@ -2147,21 +2147,23 @@
       </c>
       <c r="C71" s="9" t="inlineStr">
         <is>
-          <t>08-07-2025 12:00:02</t>
+          <t>09-07-2025 07:19:07</t>
         </is>
       </c>
       <c r="D71" s="9" t="inlineStr">
         <is>
-          <t>08-07-2025 12:40:02</t>
-        </is>
-      </c>
-      <c r="E71" s="9" t="n">
-        <v>0</v>
+          <t>09-07-2025 07:59:07</t>
+        </is>
+      </c>
+      <c r="E71" s="9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="9" t="n">
-        <v>252285</v>
+        <v>252814</v>
       </c>
       <c r="B72" s="9" t="inlineStr">
         <is>
@@ -2170,23 +2172,21 @@
       </c>
       <c r="C72" s="9" t="inlineStr">
         <is>
-          <t>08-07-2025 13:46:40</t>
+          <t>09-07-2025 08:50:23</t>
         </is>
       </c>
       <c r="D72" s="9" t="inlineStr">
         <is>
-          <t>08-07-2025 14:21:40</t>
-        </is>
-      </c>
-      <c r="E72" s="9" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>09-07-2025 09:35:23</t>
+        </is>
+      </c>
+      <c r="E72" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="9" t="n">
-        <v>243335</v>
+        <v>252978</v>
       </c>
       <c r="B73" s="9" t="inlineStr">
         <is>
@@ -2195,12 +2195,12 @@
       </c>
       <c r="C73" s="9" t="inlineStr">
         <is>
-          <t>09-07-2025 07:07:48</t>
+          <t>09-07-2025 10:25:28</t>
         </is>
       </c>
       <c r="D73" s="9" t="inlineStr">
         <is>
-          <t>09-07-2025 07:52:48</t>
+          <t>09-07-2025 10:55:28</t>
         </is>
       </c>
       <c r="E73" s="9" t="n">
@@ -2209,7 +2209,7 @@
     </row>
     <row r="74">
       <c r="A74" s="9" t="n">
-        <v>252665</v>
+        <v>243524</v>
       </c>
       <c r="B74" s="9" t="inlineStr">
         <is>
@@ -2218,12 +2218,12 @@
       </c>
       <c r="C74" s="9" t="inlineStr">
         <is>
-          <t>09-07-2025 12:27:50</t>
+          <t>09-07-2025 11:18:46</t>
         </is>
       </c>
       <c r="D74" s="9" t="inlineStr">
         <is>
-          <t>09-07-2025 13:07:50</t>
+          <t>09-07-2025 11:53:46</t>
         </is>
       </c>
       <c r="E74" s="9" t="n">
@@ -2232,7 +2232,7 @@
     </row>
     <row r="75">
       <c r="A75" s="9" t="n">
-        <v>252784</v>
+        <v>252456</v>
       </c>
       <c r="B75" s="9" t="inlineStr">
         <is>
@@ -2241,12 +2241,12 @@
       </c>
       <c r="C75" s="9" t="inlineStr">
         <is>
-          <t>09-07-2025 13:56:43</t>
+          <t>09-07-2025 13:00:23</t>
         </is>
       </c>
       <c r="D75" s="9" t="inlineStr">
         <is>
-          <t>09-07-2025 14:41:43</t>
+          <t>09-07-2025 13:40:23</t>
         </is>
       </c>
       <c r="E75" s="9" t="n">

--- a/PS-VRP/Dati_output/output_ridotto.xlsx
+++ b/PS-VRP/Dati_output/output_ridotto.xlsx
@@ -44,26 +44,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFF2CC"/>
-        <bgColor rgb="00FFF2CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00F4CCCC"/>
         <bgColor rgb="00F4CCCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CCE5FF"/>
-        <bgColor rgb="00CCE5FF"/>
+        <fgColor rgb="00EAD1DC"/>
+        <bgColor rgb="00EAD1DC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D9D2E9"/>
-        <bgColor rgb="00D9D2E9"/>
+        <fgColor rgb="00FFF2CC"/>
+        <bgColor rgb="00FFF2CC"/>
       </patternFill>
     </fill>
     <fill>
@@ -80,8 +74,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EAD1DC"/>
-        <bgColor rgb="00EAD1DC"/>
+        <fgColor rgb="00CCE5FF"/>
+        <bgColor rgb="00CCE5FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D9D2E9"/>
+        <bgColor rgb="00D9D2E9"/>
       </patternFill>
     </fill>
   </fills>
@@ -541,7 +541,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>252146</v>
+        <v>252071</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
@@ -555,7 +555,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 07:17:00</t>
+          <t>08-07-2025 07:21:00</t>
         </is>
       </c>
       <c r="E2" s="2" t="n">
@@ -564,7 +564,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>252665</v>
+        <v>252286</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
@@ -573,21 +573,23 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 08:23:38</t>
+          <t>08-07-2025 08:06:44</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 08:55:38</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>0</v>
+          <t>08-07-2025 08:23:44</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>252087</v>
+        <v>243529</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
@@ -596,12 +598,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 09:44:30</t>
+          <t>08-07-2025 09:15:00</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 10:01:30</t>
+          <t>08-07-2025 09:32:00</t>
         </is>
       </c>
       <c r="E4" s="2" t="n">
@@ -610,7 +612,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>252285</v>
+        <v>241783</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
@@ -619,23 +621,21 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 10:37:00</t>
+          <t>08-07-2025 11:41:59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 10:54:00</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>08-07-2025 11:56:59</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>241783</v>
+        <v>243524</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
@@ -644,12 +644,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 11:40:09</t>
+          <t>08-07-2025 12:40:18</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 12:12:09</t>
+          <t>08-07-2025 12:55:18</t>
         </is>
       </c>
       <c r="E6" s="2" t="n">
@@ -658,7 +658,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>252286</v>
+        <v>243525</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
@@ -667,23 +667,21 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 12:55:28</t>
+          <t>08-07-2025 14:01:55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 13:12:28</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>08-07-2025 14:16:55</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>252723</v>
+        <v>252243</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
@@ -692,12 +690,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 14:03:44</t>
+          <t>09-07-2025 08:26:54</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 14:20:44</t>
+          <t>09-07-2025 08:43:54</t>
         </is>
       </c>
       <c r="E8" s="2" t="n">
@@ -706,7 +704,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>243525</v>
+        <v>252636</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
@@ -715,12 +713,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>09-07-2025 08:54:42</t>
+          <t>09-07-2025 10:20:37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>09-07-2025 09:13:42</t>
+          <t>09-07-2025 10:52:37</t>
         </is>
       </c>
       <c r="E9" s="2" t="n">
@@ -729,7 +727,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>252999</v>
+        <v>252345</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
@@ -738,12 +736,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>09-07-2025 11:23:41</t>
+          <t>09-07-2025 11:03:53</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>09-07-2025 11:55:41</t>
+          <t>09-07-2025 11:22:53</t>
         </is>
       </c>
       <c r="E10" s="2" t="n">
@@ -752,7 +750,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>244023</v>
+        <v>252785</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
@@ -761,12 +759,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10-07-2025 09:21:31</t>
+          <t>09-07-2025 12:06:13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10-07-2025 09:44:31</t>
+          <t>09-07-2025 12:27:13</t>
         </is>
       </c>
       <c r="E11" s="2" t="n">
@@ -775,7 +773,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>252549</v>
+        <v>252665</v>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
@@ -784,12 +782,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>10-07-2025 09:52:50</t>
+          <t>09-07-2025 13:22:58</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>10-07-2025 10:13:50</t>
+          <t>09-07-2025 13:45:58</t>
         </is>
       </c>
       <c r="E12" s="2" t="n">
@@ -798,7 +796,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>252783</v>
+        <v>252085</v>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
@@ -807,12 +805,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10-07-2025 11:46:25</t>
+          <t>09-07-2025 14:34:50</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10-07-2025 12:07:25</t>
+          <t>09-07-2025 14:53:50</t>
         </is>
       </c>
       <c r="E13" s="2" t="n">
@@ -821,7 +819,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>252547</v>
+        <v>252783</v>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
@@ -830,12 +828,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>10-07-2025 12:19:22</t>
+          <t>10-07-2025 07:22:23</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>10-07-2025 12:36:22</t>
+          <t>10-07-2025 07:41:23</t>
         </is>
       </c>
       <c r="E14" s="2" t="n">
@@ -843,31 +841,33 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>252638</v>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>BIMEC 3</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>10-07-2025 13:57:32</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>10-07-2025 14:20:32</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>0</v>
+      <c r="A15" s="3" t="n">
+        <v>252285</v>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:46:00</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>252997</v>
+        <v>244023</v>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
@@ -876,12 +876,12 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>08-07-2025 08:32:08</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>08-07-2025 07:46:00</t>
+          <t>08-07-2025 09:01:08</t>
         </is>
       </c>
       <c r="E16" s="3" t="n">
@@ -890,7 +890,7 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>251919</v>
+        <v>243335</v>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
@@ -899,12 +899,12 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>08-07-2025 08:26:01</t>
+          <t>08-07-2025 09:09:27</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>08-07-2025 08:53:01</t>
+          <t>08-07-2025 09:53:27</t>
         </is>
       </c>
       <c r="E17" s="3" t="n">
@@ -913,7 +913,7 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>252350</v>
+        <v>245623</v>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
@@ -922,12 +922,12 @@
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>08-07-2025 11:13:04</t>
+          <t>08-07-2025 14:28:29</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>08-07-2025 11:55:04</t>
+          <t>08-07-2025 14:57:29</t>
         </is>
       </c>
       <c r="E18" s="3" t="n">
@@ -936,7 +936,7 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>252364</v>
+        <v>252997</v>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
@@ -945,12 +945,12 @@
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>08-07-2025 12:46:57</t>
+          <t>09-07-2025 10:37:38</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>08-07-2025 13:15:57</t>
+          <t>09-07-2025 11:06:38</t>
         </is>
       </c>
       <c r="E19" s="3" t="n">
@@ -959,7 +959,7 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>251231</v>
+        <v>252686</v>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
@@ -968,23 +968,21 @@
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>08-07-2025 14:50:30</t>
+          <t>09-07-2025 11:46:39</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>09-07-2025 07:19:30</t>
-        </is>
-      </c>
-      <c r="E20" s="3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>09-07-2025 12:13:39</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>252277</v>
+        <v>252476</v>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
@@ -993,23 +991,21 @@
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>09-07-2025 12:31:48</t>
+          <t>10-07-2025 09:42:48</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>09-07-2025 13:02:48</t>
-        </is>
-      </c>
-      <c r="E21" s="3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>10-07-2025 10:26:48</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>252243</v>
+        <v>252087</v>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
@@ -1018,12 +1014,12 @@
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>10-07-2025 07:27:44</t>
+          <t>10-07-2025 11:39:09</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
         <is>
-          <t>10-07-2025 08:09:44</t>
+          <t>10-07-2025 12:08:09</t>
         </is>
       </c>
       <c r="E22" s="3" t="n">
@@ -1032,7 +1028,7 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>252230</v>
+        <v>252364</v>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
@@ -1041,12 +1037,12 @@
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>10-07-2025 09:46:26</t>
+          <t>10-07-2025 12:43:39</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t>10-07-2025 10:13:26</t>
+          <t>10-07-2025 13:10:39</t>
         </is>
       </c>
       <c r="E23" s="3" t="n">
@@ -1055,7 +1051,7 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>252071</v>
+        <v>252547</v>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
@@ -1064,12 +1060,12 @@
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>10-07-2025 11:16:34</t>
+          <t>10-07-2025 14:45:12</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t>10-07-2025 11:45:34</t>
+          <t>11-07-2025 07:12:12</t>
         </is>
       </c>
       <c r="E24" s="3" t="n">
@@ -1078,7 +1074,7 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>252686</v>
+        <v>252456</v>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
@@ -1087,12 +1083,12 @@
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>10-07-2025 12:31:18</t>
+          <t>11-07-2025 08:33:22</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
         <is>
-          <t>10-07-2025 13:15:18</t>
+          <t>11-07-2025 09:06:22</t>
         </is>
       </c>
       <c r="E25" s="3" t="n">
@@ -1101,7 +1097,7 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>252336</v>
+        <v>251685</v>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
@@ -1110,12 +1106,12 @@
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>11-07-2025 10:44:27</t>
+          <t>11-07-2025 11:30:49</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>11-07-2025 11:28:27</t>
+          <t>11-07-2025 11:57:49</t>
         </is>
       </c>
       <c r="E26" s="3" t="n">
@@ -1123,31 +1119,31 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="n">
-        <v>251495</v>
-      </c>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr">
-        <is>
-          <t>11-07-2025 13:28:43</t>
-        </is>
-      </c>
-      <c r="D27" s="3" t="inlineStr">
-        <is>
-          <t>11-07-2025 14:01:43</t>
-        </is>
-      </c>
-      <c r="E27" s="3" t="n">
+      <c r="A27" s="4" t="n">
+        <v>252546</v>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D27" s="4" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:21:00</t>
+        </is>
+      </c>
+      <c r="E27" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="n">
-        <v>243569</v>
+        <v>252063</v>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
@@ -1156,12 +1152,12 @@
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>08-07-2025 08:15:38</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>08-07-2025 07:21:00</t>
+          <t>08-07-2025 08:30:38</t>
         </is>
       </c>
       <c r="E28" s="4" t="n">
@@ -1170,7 +1166,7 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="n">
-        <v>252244</v>
+        <v>252784</v>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
@@ -1179,12 +1175,12 @@
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>08-07-2025 07:42:40</t>
+          <t>08-07-2025 09:50:34</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>08-07-2025 07:59:40</t>
+          <t>08-07-2025 10:26:34</t>
         </is>
       </c>
       <c r="E29" s="4" t="n">
@@ -1193,7 +1189,7 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="n">
-        <v>252047</v>
+        <v>250284</v>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
@@ -1202,12 +1198,12 @@
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>08-07-2025 09:47:15</t>
+          <t>08-07-2025 10:53:33</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>08-07-2025 10:04:15</t>
+          <t>08-07-2025 11:12:33</t>
         </is>
       </c>
       <c r="E30" s="4" t="n">
@@ -1216,7 +1212,7 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="n">
-        <v>252144</v>
+        <v>252220</v>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
@@ -1225,12 +1221,12 @@
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>08-07-2025 11:15:08</t>
+          <t>08-07-2025 13:38:54</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>08-07-2025 11:30:08</t>
+          <t>08-07-2025 14:01:54</t>
         </is>
       </c>
       <c r="E31" s="4" t="n">
@@ -1239,7 +1235,7 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="n">
-        <v>243529</v>
+        <v>251849</v>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
@@ -1248,21 +1244,23 @@
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>08-07-2025 12:24:16</t>
+          <t>09-07-2025 07:22:25</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>08-07-2025 12:43:16</t>
-        </is>
-      </c>
-      <c r="E32" s="4" t="n">
-        <v>0</v>
+          <t>09-07-2025 07:39:25</t>
+        </is>
+      </c>
+      <c r="E32" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="4" t="n">
-        <v>252085</v>
+        <v>252284</v>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
@@ -1271,320 +1269,322 @@
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>08-07-2025 14:53:15</t>
+          <t>09-07-2025 08:12:48</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>09-07-2025 07:25:15</t>
-        </is>
-      </c>
-      <c r="E33" s="4" t="n">
-        <v>0</v>
+          <t>09-07-2025 08:29:48</t>
+        </is>
+      </c>
+      <c r="E33" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="n">
-        <v>252347</v>
-      </c>
-      <c r="B34" s="5" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C34" s="5" t="inlineStr">
-        <is>
-          <t>08-07-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="D34" s="5" t="inlineStr">
-        <is>
-          <t>08-07-2025 07:32:30</t>
-        </is>
-      </c>
-      <c r="E34" s="5" t="n">
+      <c r="A34" s="4" t="n">
+        <v>252230</v>
+      </c>
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>09-07-2025 09:21:04</t>
+        </is>
+      </c>
+      <c r="D34" s="4" t="inlineStr">
+        <is>
+          <t>09-07-2025 09:53:04</t>
+        </is>
+      </c>
+      <c r="E34" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="n">
-        <v>252220</v>
-      </c>
-      <c r="B35" s="5" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C35" s="5" t="inlineStr">
-        <is>
-          <t>08-07-2025 09:04:47</t>
-        </is>
-      </c>
-      <c r="D35" s="5" t="inlineStr">
-        <is>
-          <t>08-07-2025 09:39:17</t>
-        </is>
-      </c>
-      <c r="E35" s="5" t="n">
+      <c r="A35" s="4" t="n">
+        <v>252244</v>
+      </c>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>09-07-2025 10:56:11</t>
+        </is>
+      </c>
+      <c r="D35" s="4" t="inlineStr">
+        <is>
+          <t>09-07-2025 11:13:11</t>
+        </is>
+      </c>
+      <c r="E35" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="5" t="n">
-        <v>250284</v>
-      </c>
-      <c r="B36" s="5" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C36" s="5" t="inlineStr">
-        <is>
-          <t>08-07-2025 10:59:48</t>
-        </is>
-      </c>
-      <c r="D36" s="5" t="inlineStr">
-        <is>
-          <t>08-07-2025 11:38:18</t>
-        </is>
-      </c>
-      <c r="E36" s="5" t="n">
+      <c r="A36" s="4" t="n">
+        <v>252978</v>
+      </c>
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C36" s="4" t="inlineStr">
+        <is>
+          <t>09-07-2025 13:00:46</t>
+        </is>
+      </c>
+      <c r="D36" s="4" t="inlineStr">
+        <is>
+          <t>09-07-2025 13:17:46</t>
+        </is>
+      </c>
+      <c r="E36" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="n">
-        <v>251674</v>
-      </c>
-      <c r="B37" s="5" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C37" s="5" t="inlineStr">
-        <is>
-          <t>08-07-2025 14:04:39</t>
-        </is>
-      </c>
-      <c r="D37" s="5" t="inlineStr">
-        <is>
-          <t>08-07-2025 14:47:09</t>
-        </is>
-      </c>
-      <c r="E37" s="5" t="n">
+      <c r="A37" s="4" t="n">
+        <v>252152</v>
+      </c>
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>09-07-2025 13:41:04</t>
+        </is>
+      </c>
+      <c r="D37" s="4" t="inlineStr">
+        <is>
+          <t>09-07-2025 13:58:04</t>
+        </is>
+      </c>
+      <c r="E37" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="5" t="n">
-        <v>252713</v>
-      </c>
-      <c r="B38" s="5" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C38" s="5" t="inlineStr">
-        <is>
-          <t>09-07-2025 09:14:16</t>
-        </is>
-      </c>
-      <c r="D38" s="5" t="inlineStr">
-        <is>
-          <t>09-07-2025 10:02:46</t>
-        </is>
-      </c>
-      <c r="E38" s="5" t="n">
+      <c r="A38" s="4" t="n">
+        <v>245089</v>
+      </c>
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t>09-07-2025 14:25:26</t>
+        </is>
+      </c>
+      <c r="D38" s="4" t="inlineStr">
+        <is>
+          <t>09-07-2025 14:46:26</t>
+        </is>
+      </c>
+      <c r="E38" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="n">
+      <c r="A39" s="4" t="n">
+        <v>252638</v>
+      </c>
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>14-07-2025 07:48:38</t>
+        </is>
+      </c>
+      <c r="D39" s="4" t="inlineStr">
+        <is>
+          <t>14-07-2025 08:20:38</t>
+        </is>
+      </c>
+      <c r="E39" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="n">
+        <v>251495</v>
+      </c>
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>14-07-2025 09:22:08</t>
+        </is>
+      </c>
+      <c r="D40" s="4" t="inlineStr">
+        <is>
+          <t>14-07-2025 09:45:08</t>
+        </is>
+      </c>
+      <c r="E40" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="4" t="n">
+        <v>252470</v>
+      </c>
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>14-07-2025 10:57:28</t>
+        </is>
+      </c>
+      <c r="D41" s="4" t="inlineStr">
+        <is>
+          <t>14-07-2025 11:14:28</t>
+        </is>
+      </c>
+      <c r="E41" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="n">
+        <v>252336</v>
+      </c>
+      <c r="B42" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C42" s="4" t="inlineStr">
+        <is>
+          <t>14-07-2025 12:16:58</t>
+        </is>
+      </c>
+      <c r="D42" s="4" t="inlineStr">
+        <is>
+          <t>14-07-2025 12:33:58</t>
+        </is>
+      </c>
+      <c r="E42" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="4" t="n">
         <v>251926</v>
       </c>
-      <c r="B39" s="5" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C39" s="5" t="inlineStr">
-        <is>
-          <t>11-07-2025 09:10:32</t>
-        </is>
-      </c>
-      <c r="D39" s="5" t="inlineStr">
-        <is>
-          <t>11-07-2025 09:43:02</t>
-        </is>
-      </c>
-      <c r="E39" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="5" t="n">
-        <v>251685</v>
-      </c>
-      <c r="B40" s="5" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C40" s="5" t="inlineStr">
-        <is>
-          <t>11-07-2025 11:01:57</t>
-        </is>
-      </c>
-      <c r="D40" s="5" t="inlineStr">
-        <is>
-          <t>11-07-2025 11:36:27</t>
-        </is>
-      </c>
-      <c r="E40" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="5" t="n">
-        <v>252157</v>
-      </c>
-      <c r="B41" s="5" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C41" s="5" t="inlineStr">
-        <is>
-          <t>11-07-2025 13:15:13</t>
-        </is>
-      </c>
-      <c r="D41" s="5" t="inlineStr">
-        <is>
-          <t>11-07-2025 13:51:43</t>
-        </is>
-      </c>
-      <c r="E41" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="5" t="n">
-        <v>252755</v>
-      </c>
-      <c r="B42" s="5" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C42" s="5" t="inlineStr">
-        <is>
-          <t>14-07-2025 12:28:32</t>
-        </is>
-      </c>
-      <c r="D42" s="5" t="inlineStr">
-        <is>
-          <t>14-07-2025 13:09:02</t>
-        </is>
-      </c>
-      <c r="E42" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="5" t="n">
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C43" s="4" t="inlineStr">
+        <is>
+          <t>14-07-2025 14:34:15</t>
+        </is>
+      </c>
+      <c r="D43" s="4" t="inlineStr">
+        <is>
+          <t>14-07-2025 14:51:15</t>
+        </is>
+      </c>
+      <c r="E43" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="n">
+        <v>252790</v>
+      </c>
+      <c r="B44" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C44" s="4" t="inlineStr">
+        <is>
+          <t>15-07-2025 08:10:10</t>
+        </is>
+      </c>
+      <c r="D44" s="4" t="inlineStr">
+        <is>
+          <t>15-07-2025 08:27:10</t>
+        </is>
+      </c>
+      <c r="E44" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="4" t="n">
+        <v>252467</v>
+      </c>
+      <c r="B45" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C45" s="4" t="inlineStr">
+        <is>
+          <t>15-07-2025 08:39:16</t>
+        </is>
+      </c>
+      <c r="D45" s="4" t="inlineStr">
+        <is>
+          <t>15-07-2025 08:54:16</t>
+        </is>
+      </c>
+      <c r="E45" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="4" t="n">
         <v>252899</v>
       </c>
-      <c r="B43" s="5" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C43" s="5" t="inlineStr">
-        <is>
-          <t>14-07-2025 14:58:37</t>
-        </is>
-      </c>
-      <c r="D43" s="5" t="inlineStr">
-        <is>
-          <t>15-07-2025 07:31:07</t>
-        </is>
-      </c>
-      <c r="E43" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="5" t="n">
-        <v>252470</v>
-      </c>
-      <c r="B44" s="5" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C44" s="5" t="inlineStr">
-        <is>
-          <t>15-07-2025 10:31:41</t>
-        </is>
-      </c>
-      <c r="D44" s="5" t="inlineStr">
-        <is>
-          <t>15-07-2025 11:04:11</t>
-        </is>
-      </c>
-      <c r="E44" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="5" t="n">
-        <v>252790</v>
-      </c>
-      <c r="B45" s="5" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C45" s="5" t="inlineStr">
-        <is>
-          <t>15-07-2025 12:06:41</t>
-        </is>
-      </c>
-      <c r="D45" s="5" t="inlineStr">
-        <is>
-          <t>15-07-2025 12:39:11</t>
-        </is>
-      </c>
-      <c r="E45" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="5" t="n">
-        <v>252467</v>
-      </c>
-      <c r="B46" s="5" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C46" s="5" t="inlineStr">
-        <is>
-          <t>15-07-2025 12:51:17</t>
-        </is>
-      </c>
-      <c r="D46" s="5" t="inlineStr">
-        <is>
-          <t>15-07-2025 13:21:47</t>
-        </is>
-      </c>
-      <c r="E46" s="5" t="n">
+      <c r="B46" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C46" s="4" t="inlineStr">
+        <is>
+          <t>15-07-2025 10:15:26</t>
+        </is>
+      </c>
+      <c r="D46" s="4" t="inlineStr">
+        <is>
+          <t>15-07-2025 10:34:26</t>
+        </is>
+      </c>
+      <c r="E46" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="5" t="n">
-        <v>252334</v>
+        <v>252999</v>
       </c>
       <c r="B47" s="5" t="inlineStr">
         <is>
@@ -1593,12 +1593,12 @@
       </c>
       <c r="C47" s="5" t="inlineStr">
         <is>
-          <t>15-07-2025 14:42:57</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="D47" s="5" t="inlineStr">
         <is>
-          <t>16-07-2025 07:13:27</t>
+          <t>08-07-2025 07:32:30</t>
         </is>
       </c>
       <c r="E47" s="5" t="n">
@@ -1606,54 +1606,54 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="6" t="n">
-        <v>252636</v>
-      </c>
-      <c r="B48" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C48" s="6" t="inlineStr">
-        <is>
-          <t>08-07-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="D48" s="6" t="inlineStr">
-        <is>
-          <t>08-07-2025 07:30:00</t>
-        </is>
-      </c>
-      <c r="E48" s="6" t="n">
+      <c r="A48" s="5" t="n">
+        <v>251674</v>
+      </c>
+      <c r="B48" s="5" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C48" s="5" t="inlineStr">
+        <is>
+          <t>08-07-2025 12:58:20</t>
+        </is>
+      </c>
+      <c r="D48" s="5" t="inlineStr">
+        <is>
+          <t>08-07-2025 13:52:50</t>
+        </is>
+      </c>
+      <c r="E48" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="6" t="n">
-        <v>252546</v>
-      </c>
-      <c r="B49" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C49" s="6" t="inlineStr">
-        <is>
-          <t>08-07-2025 07:41:16</t>
-        </is>
-      </c>
-      <c r="D49" s="6" t="inlineStr">
-        <is>
-          <t>08-07-2025 08:26:16</t>
-        </is>
-      </c>
-      <c r="E49" s="6" t="n">
+      <c r="A49" s="5" t="n">
+        <v>251632</v>
+      </c>
+      <c r="B49" s="5" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C49" s="5" t="inlineStr">
+        <is>
+          <t>09-07-2025 08:19:58</t>
+        </is>
+      </c>
+      <c r="D49" s="5" t="inlineStr">
+        <is>
+          <t>09-07-2025 08:50:28</t>
+        </is>
+      </c>
+      <c r="E49" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="6" t="n">
-        <v>252201</v>
+        <v>252207</v>
       </c>
       <c r="B50" s="6" t="inlineStr">
         <is>
@@ -1662,12 +1662,12 @@
       </c>
       <c r="C50" s="6" t="inlineStr">
         <is>
-          <t>08-07-2025 09:20:54</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="D50" s="6" t="inlineStr">
         <is>
-          <t>08-07-2025 09:55:54</t>
+          <t>08-07-2025 07:40:00</t>
         </is>
       </c>
       <c r="E50" s="6" t="n">
@@ -1676,7 +1676,7 @@
     </row>
     <row r="51">
       <c r="A51" s="6" t="n">
-        <v>252207</v>
+        <v>251790</v>
       </c>
       <c r="B51" s="6" t="inlineStr">
         <is>
@@ -1685,12 +1685,12 @@
       </c>
       <c r="C51" s="6" t="inlineStr">
         <is>
-          <t>08-07-2025 10:30:01</t>
+          <t>08-07-2025 08:31:33</t>
         </is>
       </c>
       <c r="D51" s="6" t="inlineStr">
         <is>
-          <t>08-07-2025 11:05:01</t>
+          <t>08-07-2025 09:06:33</t>
         </is>
       </c>
       <c r="E51" s="6" t="n">
@@ -1708,12 +1708,12 @@
       </c>
       <c r="C52" s="6" t="inlineStr">
         <is>
-          <t>08-07-2025 11:56:34</t>
+          <t>08-07-2025 13:01:36</t>
         </is>
       </c>
       <c r="D52" s="6" t="inlineStr">
         <is>
-          <t>08-07-2025 12:26:34</t>
+          <t>08-07-2025 13:31:36</t>
         </is>
       </c>
       <c r="E52" s="6" t="n">
@@ -1722,7 +1722,7 @@
     </row>
     <row r="53">
       <c r="A53" s="6" t="n">
-        <v>252476</v>
+        <v>252047</v>
       </c>
       <c r="B53" s="6" t="inlineStr">
         <is>
@@ -1731,12 +1731,12 @@
       </c>
       <c r="C53" s="6" t="inlineStr">
         <is>
-          <t>08-07-2025 14:29:51</t>
+          <t>09-07-2025 07:34:54</t>
         </is>
       </c>
       <c r="D53" s="6" t="inlineStr">
         <is>
-          <t>09-07-2025 07:09:51</t>
+          <t>09-07-2025 08:04:54</t>
         </is>
       </c>
       <c r="E53" s="6" t="n">
@@ -1745,7 +1745,7 @@
     </row>
     <row r="54">
       <c r="A54" s="6" t="n">
-        <v>252785</v>
+        <v>252814</v>
       </c>
       <c r="B54" s="6" t="inlineStr">
         <is>
@@ -1754,12 +1754,12 @@
       </c>
       <c r="C54" s="6" t="inlineStr">
         <is>
-          <t>09-07-2025 08:22:12</t>
+          <t>09-07-2025 09:15:47</t>
         </is>
       </c>
       <c r="D54" s="6" t="inlineStr">
         <is>
-          <t>09-07-2025 09:02:12</t>
+          <t>09-07-2025 09:45:47</t>
         </is>
       </c>
       <c r="E54" s="6" t="n">
@@ -1768,7 +1768,7 @@
     </row>
     <row r="55">
       <c r="A55" s="6" t="n">
-        <v>251632</v>
+        <v>252713</v>
       </c>
       <c r="B55" s="6" t="inlineStr">
         <is>
@@ -1777,12 +1777,12 @@
       </c>
       <c r="C55" s="6" t="inlineStr">
         <is>
-          <t>09-07-2025 09:57:57</t>
+          <t>09-07-2025 10:35:52</t>
         </is>
       </c>
       <c r="D55" s="6" t="inlineStr">
         <is>
-          <t>09-07-2025 11:02:57</t>
+          <t>09-07-2025 11:15:52</t>
         </is>
       </c>
       <c r="E55" s="6" t="n">
@@ -1790,100 +1790,100 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="7" t="n">
-        <v>252063</v>
-      </c>
-      <c r="B56" s="7" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C56" s="7" t="inlineStr">
-        <is>
-          <t>08-07-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="D56" s="7" t="inlineStr">
-        <is>
-          <t>08-07-2025 07:19:00</t>
-        </is>
-      </c>
-      <c r="E56" s="7" t="n">
+      <c r="A56" s="6" t="n">
+        <v>252549</v>
+      </c>
+      <c r="B56" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C56" s="6" t="inlineStr">
+        <is>
+          <t>11-07-2025 10:23:38</t>
+        </is>
+      </c>
+      <c r="D56" s="6" t="inlineStr">
+        <is>
+          <t>11-07-2025 10:58:38</t>
+        </is>
+      </c>
+      <c r="E56" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="7" t="n">
-        <v>244828</v>
-      </c>
-      <c r="B57" s="7" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C57" s="7" t="inlineStr">
-        <is>
-          <t>08-07-2025 08:38:56</t>
-        </is>
-      </c>
-      <c r="D57" s="7" t="inlineStr">
-        <is>
-          <t>08-07-2025 09:10:56</t>
-        </is>
-      </c>
-      <c r="E57" s="7" t="n">
+      <c r="A57" s="6" t="n">
+        <v>252755</v>
+      </c>
+      <c r="B57" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C57" s="6" t="inlineStr">
+        <is>
+          <t>11-07-2025 12:31:13</t>
+        </is>
+      </c>
+      <c r="D57" s="6" t="inlineStr">
+        <is>
+          <t>11-07-2025 13:01:13</t>
+        </is>
+      </c>
+      <c r="E57" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="7" t="n">
-        <v>252237</v>
-      </c>
-      <c r="B58" s="7" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C58" s="7" t="inlineStr">
-        <is>
-          <t>08-07-2025 09:54:18</t>
-        </is>
-      </c>
-      <c r="D58" s="7" t="inlineStr">
-        <is>
-          <t>08-07-2025 10:09:18</t>
-        </is>
-      </c>
-      <c r="E58" s="7" t="n">
+      <c r="A58" s="6" t="n">
+        <v>252157</v>
+      </c>
+      <c r="B58" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C58" s="6" t="inlineStr">
+        <is>
+          <t>11-07-2025 14:50:48</t>
+        </is>
+      </c>
+      <c r="D58" s="6" t="inlineStr">
+        <is>
+          <t>14-07-2025 07:40:48</t>
+        </is>
+      </c>
+      <c r="E58" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="7" t="n">
-        <v>245623</v>
-      </c>
-      <c r="B59" s="7" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C59" s="7" t="inlineStr">
-        <is>
-          <t>08-07-2025 11:34:15</t>
-        </is>
-      </c>
-      <c r="D59" s="7" t="inlineStr">
-        <is>
-          <t>08-07-2025 12:08:15</t>
-        </is>
-      </c>
-      <c r="E59" s="7" t="n">
+      <c r="A59" s="6" t="n">
+        <v>252334</v>
+      </c>
+      <c r="B59" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C59" s="6" t="inlineStr">
+        <is>
+          <t>14-07-2025 14:17:37</t>
+        </is>
+      </c>
+      <c r="D59" s="6" t="inlineStr">
+        <is>
+          <t>15-07-2025 07:02:37</t>
+        </is>
+      </c>
+      <c r="E59" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="7" t="n">
-        <v>252152</v>
+        <v>252371</v>
       </c>
       <c r="B60" s="7" t="inlineStr">
         <is>
@@ -1892,12 +1892,12 @@
       </c>
       <c r="C60" s="7" t="inlineStr">
         <is>
-          <t>09-07-2025 07:48:24</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="D60" s="7" t="inlineStr">
         <is>
-          <t>09-07-2025 08:22:24</t>
+          <t>08-07-2025 07:17:00</t>
         </is>
       </c>
       <c r="E60" s="7" t="n">
@@ -1915,12 +1915,12 @@
       </c>
       <c r="C61" s="7" t="inlineStr">
         <is>
-          <t>09-07-2025 08:49:46</t>
+          <t>08-07-2025 08:07:02</t>
         </is>
       </c>
       <c r="D61" s="7" t="inlineStr">
         <is>
-          <t>09-07-2025 09:06:46</t>
+          <t>08-07-2025 08:24:02</t>
         </is>
       </c>
       <c r="E61" s="7" t="n">
@@ -1929,7 +1929,7 @@
     </row>
     <row r="62">
       <c r="A62" s="7" t="n">
-        <v>245089</v>
+        <v>252237</v>
       </c>
       <c r="B62" s="7" t="inlineStr">
         <is>
@@ -1938,12 +1938,12 @@
       </c>
       <c r="C62" s="7" t="inlineStr">
         <is>
-          <t>09-07-2025 09:31:51</t>
+          <t>08-07-2025 08:49:07</t>
         </is>
       </c>
       <c r="D62" s="7" t="inlineStr">
         <is>
-          <t>09-07-2025 09:48:51</t>
+          <t>08-07-2025 09:21:07</t>
         </is>
       </c>
       <c r="E62" s="7" t="n">
@@ -1951,31 +1951,31 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="8" t="n">
-        <v>252371</v>
-      </c>
-      <c r="B63" s="8" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C63" s="8" t="inlineStr">
-        <is>
-          <t>08-07-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="D63" s="8" t="inlineStr">
-        <is>
-          <t>08-07-2025 07:35:00</t>
-        </is>
-      </c>
-      <c r="E63" s="8" t="n">
+      <c r="A63" s="7" t="n">
+        <v>251919</v>
+      </c>
+      <c r="B63" s="7" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C63" s="7" t="inlineStr">
+        <is>
+          <t>08-07-2025 10:46:04</t>
+        </is>
+      </c>
+      <c r="D63" s="7" t="inlineStr">
+        <is>
+          <t>08-07-2025 11:18:04</t>
+        </is>
+      </c>
+      <c r="E63" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="8" t="n">
-        <v>251790</v>
+        <v>252347</v>
       </c>
       <c r="B64" s="8" t="inlineStr">
         <is>
@@ -1984,12 +1984,12 @@
       </c>
       <c r="C64" s="8" t="inlineStr">
         <is>
-          <t>08-07-2025 08:25:02</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="D64" s="8" t="inlineStr">
         <is>
-          <t>08-07-2025 08:55:02</t>
+          <t>08-07-2025 07:35:00</t>
         </is>
       </c>
       <c r="E64" s="8" t="n">
@@ -1998,7 +1998,7 @@
     </row>
     <row r="65">
       <c r="A65" s="8" t="n">
-        <v>252652</v>
+        <v>243569</v>
       </c>
       <c r="B65" s="8" t="inlineStr">
         <is>
@@ -2007,12 +2007,12 @@
       </c>
       <c r="C65" s="8" t="inlineStr">
         <is>
-          <t>08-07-2025 12:50:06</t>
+          <t>08-07-2025 09:07:17</t>
         </is>
       </c>
       <c r="D65" s="8" t="inlineStr">
         <is>
-          <t>08-07-2025 13:30:06</t>
+          <t>08-07-2025 09:42:17</t>
         </is>
       </c>
       <c r="E65" s="8" t="n">
@@ -2021,7 +2021,7 @@
     </row>
     <row r="66">
       <c r="A66" s="8" t="n">
-        <v>251849</v>
+        <v>252201</v>
       </c>
       <c r="B66" s="8" t="inlineStr">
         <is>
@@ -2030,23 +2030,21 @@
       </c>
       <c r="C66" s="8" t="inlineStr">
         <is>
-          <t>09-07-2025 08:36:06</t>
+          <t>08-07-2025 10:03:57</t>
         </is>
       </c>
       <c r="D66" s="8" t="inlineStr">
         <is>
-          <t>09-07-2025 09:11:06</t>
-        </is>
-      </c>
-      <c r="E66" s="8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>08-07-2025 10:38:57</t>
+        </is>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="8" t="n">
-        <v>252784</v>
+        <v>252723</v>
       </c>
       <c r="B67" s="8" t="inlineStr">
         <is>
@@ -2055,12 +2053,12 @@
       </c>
       <c r="C67" s="8" t="inlineStr">
         <is>
-          <t>09-07-2025 09:44:29</t>
+          <t>08-07-2025 11:13:04</t>
         </is>
       </c>
       <c r="D67" s="8" t="inlineStr">
         <is>
-          <t>09-07-2025 10:14:29</t>
+          <t>08-07-2025 11:48:04</t>
         </is>
       </c>
       <c r="E67" s="8" t="n">
@@ -2069,7 +2067,7 @@
     </row>
     <row r="68">
       <c r="A68" s="9" t="n">
-        <v>252345</v>
+        <v>252144</v>
       </c>
       <c r="B68" s="9" t="inlineStr">
         <is>
@@ -2083,7 +2081,7 @@
       </c>
       <c r="D68" s="9" t="inlineStr">
         <is>
-          <t>08-07-2025 07:35:00</t>
+          <t>08-07-2025 07:40:00</t>
         </is>
       </c>
       <c r="E68" s="9" t="n">
@@ -2092,7 +2090,7 @@
     </row>
     <row r="69">
       <c r="A69" s="9" t="n">
-        <v>243335</v>
+        <v>252146</v>
       </c>
       <c r="B69" s="9" t="inlineStr">
         <is>
@@ -2101,12 +2099,12 @@
       </c>
       <c r="C69" s="9" t="inlineStr">
         <is>
-          <t>08-07-2025 08:18:19</t>
+          <t>08-07-2025 08:34:08</t>
         </is>
       </c>
       <c r="D69" s="9" t="inlineStr">
         <is>
-          <t>08-07-2025 08:53:19</t>
+          <t>08-07-2025 08:59:08</t>
         </is>
       </c>
       <c r="E69" s="9" t="n">
@@ -2124,12 +2122,12 @@
       </c>
       <c r="C70" s="9" t="inlineStr">
         <is>
-          <t>08-07-2025 13:28:21</t>
+          <t>08-07-2025 10:05:46</t>
         </is>
       </c>
       <c r="D70" s="9" t="inlineStr">
         <is>
-          <t>08-07-2025 14:08:21</t>
+          <t>08-07-2025 10:45:46</t>
         </is>
       </c>
       <c r="E70" s="9" t="n">
@@ -2138,7 +2136,7 @@
     </row>
     <row r="71">
       <c r="A71" s="9" t="n">
-        <v>252284</v>
+        <v>244828</v>
       </c>
       <c r="B71" s="9" t="inlineStr">
         <is>
@@ -2147,23 +2145,21 @@
       </c>
       <c r="C71" s="9" t="inlineStr">
         <is>
-          <t>09-07-2025 07:19:07</t>
+          <t>08-07-2025 11:56:32</t>
         </is>
       </c>
       <c r="D71" s="9" t="inlineStr">
         <is>
-          <t>09-07-2025 07:59:07</t>
-        </is>
-      </c>
-      <c r="E71" s="9" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>08-07-2025 12:36:32</t>
+        </is>
+      </c>
+      <c r="E71" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="9" t="n">
-        <v>252814</v>
+        <v>251231</v>
       </c>
       <c r="B72" s="9" t="inlineStr">
         <is>
@@ -2172,21 +2168,23 @@
       </c>
       <c r="C72" s="9" t="inlineStr">
         <is>
-          <t>09-07-2025 08:50:23</t>
+          <t>08-07-2025 13:19:53</t>
         </is>
       </c>
       <c r="D72" s="9" t="inlineStr">
         <is>
-          <t>09-07-2025 09:35:23</t>
-        </is>
-      </c>
-      <c r="E72" s="9" t="n">
-        <v>0</v>
+          <t>08-07-2025 13:59:53</t>
+        </is>
+      </c>
+      <c r="E72" s="9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="9" t="n">
-        <v>252978</v>
+        <v>252277</v>
       </c>
       <c r="B73" s="9" t="inlineStr">
         <is>
@@ -2195,21 +2193,23 @@
       </c>
       <c r="C73" s="9" t="inlineStr">
         <is>
-          <t>09-07-2025 10:25:28</t>
+          <t>09-07-2025 11:12:12</t>
         </is>
       </c>
       <c r="D73" s="9" t="inlineStr">
         <is>
-          <t>09-07-2025 10:55:28</t>
-        </is>
-      </c>
-      <c r="E73" s="9" t="n">
-        <v>0</v>
+          <t>09-07-2025 11:52:12</t>
+        </is>
+      </c>
+      <c r="E73" s="9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="9" t="n">
-        <v>243524</v>
+        <v>252350</v>
       </c>
       <c r="B74" s="9" t="inlineStr">
         <is>
@@ -2218,12 +2218,12 @@
       </c>
       <c r="C74" s="9" t="inlineStr">
         <is>
-          <t>09-07-2025 11:18:46</t>
+          <t>09-07-2025 14:17:07</t>
         </is>
       </c>
       <c r="D74" s="9" t="inlineStr">
         <is>
-          <t>09-07-2025 11:53:46</t>
+          <t>09-07-2025 14:47:07</t>
         </is>
       </c>
       <c r="E74" s="9" t="n">
@@ -2232,7 +2232,7 @@
     </row>
     <row r="75">
       <c r="A75" s="9" t="n">
-        <v>252456</v>
+        <v>252652</v>
       </c>
       <c r="B75" s="9" t="inlineStr">
         <is>
@@ -2241,12 +2241,12 @@
       </c>
       <c r="C75" s="9" t="inlineStr">
         <is>
-          <t>09-07-2025 13:00:23</t>
+          <t>10-07-2025 07:39:00</t>
         </is>
       </c>
       <c r="D75" s="9" t="inlineStr">
         <is>
-          <t>09-07-2025 13:40:23</t>
+          <t>10-07-2025 08:09:00</t>
         </is>
       </c>
       <c r="E75" s="9" t="n">

--- a/PS-VRP/Dati_output/output_ridotto.xlsx
+++ b/PS-VRP/Dati_output/output_ridotto.xlsx
@@ -38,8 +38,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E2EFDA"/>
-        <bgColor rgb="00E2EFDA"/>
+        <fgColor rgb="00EAD1DC"/>
+        <bgColor rgb="00EAD1DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FCE5CD"/>
+        <bgColor rgb="00FCE5CD"/>
       </patternFill>
     </fill>
     <fill>
@@ -50,8 +56,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EAD1DC"/>
-        <bgColor rgb="00EAD1DC"/>
+        <fgColor rgb="00D5E8D4"/>
+        <bgColor rgb="00D5E8D4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CCE5FF"/>
+        <bgColor rgb="00CCE5FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -62,26 +74,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D5E8D4"/>
-        <bgColor rgb="00D5E8D4"/>
+        <fgColor rgb="00D9D2E9"/>
+        <bgColor rgb="00D9D2E9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FCE5CD"/>
-        <bgColor rgb="00FCE5CD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CCE5FF"/>
-        <bgColor rgb="00CCE5FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D9D2E9"/>
-        <bgColor rgb="00D9D2E9"/>
+        <fgColor rgb="00E2EFDA"/>
+        <bgColor rgb="00E2EFDA"/>
       </patternFill>
     </fill>
   </fills>
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -541,7 +541,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>252071</v>
+        <v>253425</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
@@ -550,12 +550,12 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>08-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 07:21:00</t>
+          <t>08-09-2025 07:17:00</t>
         </is>
       </c>
       <c r="E2" s="2" t="n">
@@ -564,7 +564,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>252286</v>
+        <v>252906</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
@@ -573,23 +573,21 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 08:06:44</t>
+          <t>08-09-2025 09:43:21</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 08:23:44</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>08-09-2025 10:00:21</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>243529</v>
+        <v>250891</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
@@ -598,12 +596,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 09:15:00</t>
+          <t>08-09-2025 10:35:04</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 09:32:00</t>
+          <t>08-09-2025 11:07:04</t>
         </is>
       </c>
       <c r="E4" s="2" t="n">
@@ -612,7 +610,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>241783</v>
+        <v>253100</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
@@ -621,12 +619,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 11:41:59</t>
+          <t>08-09-2025 12:24:34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 11:56:59</t>
+          <t>08-09-2025 12:41:34</t>
         </is>
       </c>
       <c r="E5" s="2" t="n">
@@ -635,7 +633,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>243524</v>
+        <v>252995</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
@@ -644,12 +642,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 12:40:18</t>
+          <t>08-09-2025 13:28:55</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 12:55:18</t>
+          <t>08-09-2025 14:00:55</t>
         </is>
       </c>
       <c r="E6" s="2" t="n">
@@ -658,7 +656,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>243525</v>
+        <v>252833</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
@@ -667,12 +665,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 14:01:55</t>
+          <t>09-09-2025 07:09:14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>08-07-2025 14:16:55</t>
+          <t>09-09-2025 07:43:14</t>
         </is>
       </c>
       <c r="E7" s="2" t="n">
@@ -681,7 +679,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>252243</v>
+        <v>252939</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
@@ -690,12 +688,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>09-07-2025 08:26:54</t>
+          <t>09-09-2025 08:58:01</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>09-07-2025 08:43:54</t>
+          <t>09-09-2025 09:17:01</t>
         </is>
       </c>
       <c r="E8" s="2" t="n">
@@ -704,7 +702,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>252636</v>
+        <v>235572</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
@@ -713,12 +711,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>09-07-2025 10:20:37</t>
+          <t>09-09-2025 10:46:49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>09-07-2025 10:52:37</t>
+          <t>09-09-2025 11:05:49</t>
         </is>
       </c>
       <c r="E9" s="2" t="n">
@@ -727,7 +725,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>252345</v>
+        <v>252815</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
@@ -736,12 +734,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>09-07-2025 11:03:53</t>
+          <t>09-09-2025 12:28:48</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>09-07-2025 11:22:53</t>
+          <t>09-09-2025 13:04:48</t>
         </is>
       </c>
       <c r="E10" s="2" t="n">
@@ -750,7 +748,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>252785</v>
+        <v>253372</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
@@ -759,12 +757,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>09-07-2025 12:06:13</t>
+          <t>10-09-2025 09:07:44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>09-07-2025 12:27:13</t>
+          <t>10-09-2025 09:49:44</t>
         </is>
       </c>
       <c r="E11" s="2" t="n">
@@ -773,7 +771,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>252665</v>
+        <v>253361</v>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
@@ -782,12 +780,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>09-07-2025 13:22:58</t>
+          <t>10-09-2025 11:33:31</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>09-07-2025 13:45:58</t>
+          <t>10-09-2025 11:48:31</t>
         </is>
       </c>
       <c r="E12" s="2" t="n">
@@ -796,7 +794,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>252085</v>
+        <v>253375</v>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
@@ -805,12 +803,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>09-07-2025 14:34:50</t>
+          <t>10-09-2025 13:05:13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>09-07-2025 14:53:50</t>
+          <t>10-09-2025 13:20:13</t>
         </is>
       </c>
       <c r="E13" s="2" t="n">
@@ -819,7 +817,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>252783</v>
+        <v>253247</v>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
@@ -828,12 +826,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>10-07-2025 07:22:23</t>
+          <t>10-09-2025 14:12:06</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>10-07-2025 07:41:23</t>
+          <t>10-09-2025 14:31:06</t>
         </is>
       </c>
       <c r="E14" s="2" t="n">
@@ -841,33 +839,31 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="n">
-        <v>252285</v>
-      </c>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>08-07-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>08-07-2025 07:46:00</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="A15" s="2" t="n">
+        <v>253332</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>BIMEC 3</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>11-09-2025 08:20:41</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>11-09-2025 08:39:41</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>244023</v>
+        <v>252827</v>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
@@ -876,12 +872,12 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>08-07-2025 08:32:08</t>
+          <t>08-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>08-07-2025 09:01:08</t>
+          <t>08-09-2025 07:27:00</t>
         </is>
       </c>
       <c r="E16" s="3" t="n">
@@ -890,7 +886,7 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>243335</v>
+        <v>253710</v>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
@@ -899,12 +895,12 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>08-07-2025 09:09:27</t>
+          <t>08-09-2025 14:17:00</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>08-07-2025 09:53:27</t>
+          <t>08-09-2025 14:59:00</t>
         </is>
       </c>
       <c r="E17" s="3" t="n">
@@ -913,7 +909,7 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>245623</v>
+        <v>253260</v>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
@@ -922,12 +918,12 @@
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>08-07-2025 14:28:29</t>
+          <t>09-09-2025 07:00:37</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>08-07-2025 14:57:29</t>
+          <t>09-09-2025 07:27:37</t>
         </is>
       </c>
       <c r="E18" s="3" t="n">
@@ -936,7 +932,7 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>252997</v>
+        <v>253721</v>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
@@ -945,12 +941,12 @@
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>09-07-2025 10:37:38</t>
+          <t>09-09-2025 09:17:01</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>09-07-2025 11:06:38</t>
+          <t>09-09-2025 09:44:01</t>
         </is>
       </c>
       <c r="E19" s="3" t="n">
@@ -959,7 +955,7 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>252686</v>
+        <v>253095</v>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
@@ -968,12 +964,12 @@
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>09-07-2025 11:46:39</t>
+          <t>09-09-2025 10:23:25</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>09-07-2025 12:13:39</t>
+          <t>09-09-2025 10:50:25</t>
         </is>
       </c>
       <c r="E20" s="3" t="n">
@@ -981,146 +977,150 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="n">
-        <v>252476</v>
-      </c>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>10-07-2025 09:42:48</t>
-        </is>
-      </c>
-      <c r="D21" s="3" t="inlineStr">
-        <is>
-          <t>10-07-2025 10:26:48</t>
-        </is>
-      </c>
-      <c r="E21" s="3" t="n">
+      <c r="A21" s="4" t="n">
+        <v>253267</v>
+      </c>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>05-09-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D21" s="4" t="inlineStr">
+        <is>
+          <t>05-09-2025 07:17:00</t>
+        </is>
+      </c>
+      <c r="E21" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="n">
-        <v>252087</v>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>10-07-2025 11:39:09</t>
-        </is>
-      </c>
-      <c r="D22" s="3" t="inlineStr">
-        <is>
-          <t>10-07-2025 12:08:09</t>
-        </is>
-      </c>
-      <c r="E22" s="3" t="n">
+      <c r="A22" s="4" t="n">
+        <v>253268</v>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>05-09-2025 10:01:22</t>
+        </is>
+      </c>
+      <c r="D22" s="4" t="inlineStr">
+        <is>
+          <t>05-09-2025 10:16:22</t>
+        </is>
+      </c>
+      <c r="E22" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="n">
-        <v>252364</v>
-      </c>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>10-07-2025 12:43:39</t>
-        </is>
-      </c>
-      <c r="D23" s="3" t="inlineStr">
-        <is>
-          <t>10-07-2025 13:10:39</t>
-        </is>
-      </c>
-      <c r="E23" s="3" t="n">
-        <v>0</v>
+      <c r="A23" s="4" t="n">
+        <v>253016</v>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>05-09-2025 11:34:55</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="inlineStr">
+        <is>
+          <t>05-09-2025 12:08:55</t>
+        </is>
+      </c>
+      <c r="E23" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="n">
-        <v>252547</v>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>10-07-2025 14:45:12</t>
-        </is>
-      </c>
-      <c r="D24" s="3" t="inlineStr">
-        <is>
-          <t>11-07-2025 07:12:12</t>
-        </is>
-      </c>
-      <c r="E24" s="3" t="n">
+      <c r="A24" s="4" t="n">
+        <v>253313</v>
+      </c>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>05-09-2025 13:22:18</t>
+        </is>
+      </c>
+      <c r="D24" s="4" t="inlineStr">
+        <is>
+          <t>05-09-2025 13:56:18</t>
+        </is>
+      </c>
+      <c r="E24" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="n">
-        <v>252456</v>
-      </c>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr">
-        <is>
-          <t>11-07-2025 08:33:22</t>
-        </is>
-      </c>
-      <c r="D25" s="3" t="inlineStr">
-        <is>
-          <t>11-07-2025 09:06:22</t>
-        </is>
-      </c>
-      <c r="E25" s="3" t="n">
+      <c r="A25" s="4" t="n">
+        <v>253284</v>
+      </c>
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:36:19</t>
+        </is>
+      </c>
+      <c r="D25" s="4" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:51:19</t>
+        </is>
+      </c>
+      <c r="E25" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="n">
-        <v>251685</v>
-      </c>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C26" s="3" t="inlineStr">
-        <is>
-          <t>11-07-2025 11:30:49</t>
-        </is>
-      </c>
-      <c r="D26" s="3" t="inlineStr">
-        <is>
-          <t>11-07-2025 11:57:49</t>
-        </is>
-      </c>
-      <c r="E26" s="3" t="n">
-        <v>0</v>
+      <c r="A26" s="4" t="n">
+        <v>252664</v>
+      </c>
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t>08-09-2025 08:48:18</t>
+        </is>
+      </c>
+      <c r="D26" s="4" t="inlineStr">
+        <is>
+          <t>08-09-2025 09:22:18</t>
+        </is>
+      </c>
+      <c r="E26" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="n">
-        <v>252546</v>
+        <v>253686</v>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
@@ -1129,12 +1129,12 @@
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>09-09-2025 07:28:17</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>08-07-2025 07:21:00</t>
+          <t>09-09-2025 07:49:17</t>
         </is>
       </c>
       <c r="E27" s="4" t="n">
@@ -1143,7 +1143,7 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="n">
-        <v>252063</v>
+        <v>253374</v>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
@@ -1152,12 +1152,12 @@
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>08-07-2025 08:15:38</t>
+          <t>09-09-2025 08:33:31</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>08-07-2025 08:30:38</t>
+          <t>09-09-2025 08:50:31</t>
         </is>
       </c>
       <c r="E28" s="4" t="n">
@@ -1166,7 +1166,7 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="n">
-        <v>252784</v>
+        <v>253687</v>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
@@ -1175,12 +1175,12 @@
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>08-07-2025 09:50:34</t>
+          <t>09-09-2025 09:50:07</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>08-07-2025 10:26:34</t>
+          <t>09-09-2025 10:07:07</t>
         </is>
       </c>
       <c r="E29" s="4" t="n">
@@ -1189,7 +1189,7 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="n">
-        <v>250284</v>
+        <v>253659</v>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
@@ -1198,12 +1198,12 @@
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>08-07-2025 10:53:33</t>
+          <t>09-09-2025 10:51:21</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>08-07-2025 11:12:33</t>
+          <t>09-09-2025 11:06:21</t>
         </is>
       </c>
       <c r="E30" s="4" t="n">
@@ -1212,7 +1212,7 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="n">
-        <v>252220</v>
+        <v>253401</v>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
@@ -1221,12 +1221,12 @@
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>08-07-2025 13:38:54</t>
+          <t>10-09-2025 08:30:06</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>08-07-2025 14:01:54</t>
+          <t>10-09-2025 08:49:06</t>
         </is>
       </c>
       <c r="E31" s="4" t="n">
@@ -1235,7 +1235,7 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="n">
-        <v>251849</v>
+        <v>253370</v>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
@@ -1244,23 +1244,21 @@
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>09-07-2025 07:22:25</t>
+          <t>10-09-2025 09:11:55</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>09-07-2025 07:39:25</t>
-        </is>
-      </c>
-      <c r="E32" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>10-09-2025 09:28:55</t>
+        </is>
+      </c>
+      <c r="E32" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="4" t="n">
-        <v>252284</v>
+        <v>253368</v>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
@@ -1269,23 +1267,21 @@
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>09-07-2025 08:12:48</t>
+          <t>10-09-2025 12:56:28</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>09-07-2025 08:29:48</t>
-        </is>
-      </c>
-      <c r="E33" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>10-09-2025 13:11:28</t>
+        </is>
+      </c>
+      <c r="E33" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="n">
-        <v>252230</v>
+        <v>253371</v>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
@@ -1294,12 +1290,12 @@
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>09-07-2025 09:21:04</t>
+          <t>10-09-2025 14:55:14</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t>09-07-2025 09:53:04</t>
+          <t>11-09-2025 07:10:14</t>
         </is>
       </c>
       <c r="E34" s="4" t="n">
@@ -1308,7 +1304,7 @@
     </row>
     <row r="35">
       <c r="A35" s="4" t="n">
-        <v>252244</v>
+        <v>253376</v>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
@@ -1317,12 +1313,12 @@
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>09-07-2025 10:56:11</t>
+          <t>11-09-2025 08:58:00</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>09-07-2025 11:13:11</t>
+          <t>11-09-2025 09:13:00</t>
         </is>
       </c>
       <c r="E35" s="4" t="n">
@@ -1331,7 +1327,7 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="n">
-        <v>252978</v>
+        <v>253668</v>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
@@ -1340,12 +1336,12 @@
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>09-07-2025 13:00:46</t>
+          <t>11-09-2025 12:12:37</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t>09-07-2025 13:17:46</t>
+          <t>11-09-2025 12:29:37</t>
         </is>
       </c>
       <c r="E36" s="4" t="n">
@@ -1354,7 +1350,7 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="n">
-        <v>252152</v>
+        <v>252741</v>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
@@ -1363,12 +1359,12 @@
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>09-07-2025 13:41:04</t>
+          <t>12-09-2025 07:39:29</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>09-07-2025 13:58:04</t>
+          <t>12-09-2025 08:00:29</t>
         </is>
       </c>
       <c r="E37" s="4" t="n">
@@ -1377,7 +1373,7 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="n">
-        <v>245089</v>
+        <v>253261</v>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
@@ -1386,12 +1382,12 @@
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>09-07-2025 14:25:26</t>
+          <t>12-09-2025 09:01:58</t>
         </is>
       </c>
       <c r="D38" s="4" t="inlineStr">
         <is>
-          <t>09-07-2025 14:46:26</t>
+          <t>12-09-2025 09:18:58</t>
         </is>
       </c>
       <c r="E38" s="4" t="n">
@@ -1400,7 +1396,7 @@
     </row>
     <row r="39">
       <c r="A39" s="4" t="n">
-        <v>252638</v>
+        <v>253436</v>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
@@ -1409,12 +1405,12 @@
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>14-07-2025 07:48:38</t>
+          <t>12-09-2025 09:37:49</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>14-07-2025 08:20:38</t>
+          <t>12-09-2025 09:52:49</t>
         </is>
       </c>
       <c r="E39" s="4" t="n">
@@ -1423,7 +1419,7 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="n">
-        <v>251495</v>
+        <v>252529</v>
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
@@ -1432,12 +1428,12 @@
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>14-07-2025 09:22:08</t>
+          <t>12-09-2025 10:11:40</t>
         </is>
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
-          <t>14-07-2025 09:45:08</t>
+          <t>12-09-2025 10:47:40</t>
         </is>
       </c>
       <c r="E40" s="4" t="n">
@@ -1446,7 +1442,7 @@
     </row>
     <row r="41">
       <c r="A41" s="4" t="n">
-        <v>252470</v>
+        <v>252274</v>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
@@ -1455,12 +1451,12 @@
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>14-07-2025 10:57:28</t>
+          <t>12-09-2025 11:55:45</t>
         </is>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>14-07-2025 11:14:28</t>
+          <t>12-09-2025 12:14:45</t>
         </is>
       </c>
       <c r="E41" s="4" t="n">
@@ -1469,7 +1465,7 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="n">
-        <v>252336</v>
+        <v>253244</v>
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
@@ -1478,12 +1474,12 @@
       </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t>14-07-2025 12:16:58</t>
+          <t>15-09-2025 07:08:10</t>
         </is>
       </c>
       <c r="D42" s="4" t="inlineStr">
         <is>
-          <t>14-07-2025 12:33:58</t>
+          <t>15-09-2025 07:40:10</t>
         </is>
       </c>
       <c r="E42" s="4" t="n">
@@ -1492,7 +1488,7 @@
     </row>
     <row r="43">
       <c r="A43" s="4" t="n">
-        <v>251926</v>
+        <v>253455</v>
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
@@ -1501,12 +1497,12 @@
       </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>14-07-2025 14:34:15</t>
+          <t>15-09-2025 10:26:40</t>
         </is>
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t>14-07-2025 14:51:15</t>
+          <t>15-09-2025 10:47:40</t>
         </is>
       </c>
       <c r="E43" s="4" t="n">
@@ -1515,7 +1511,7 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="n">
-        <v>252790</v>
+        <v>253525</v>
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
@@ -1524,12 +1520,12 @@
       </c>
       <c r="C44" s="4" t="inlineStr">
         <is>
-          <t>15-07-2025 08:10:10</t>
+          <t>15-09-2025 11:43:14</t>
         </is>
       </c>
       <c r="D44" s="4" t="inlineStr">
         <is>
-          <t>15-07-2025 08:27:10</t>
+          <t>15-09-2025 12:02:14</t>
         </is>
       </c>
       <c r="E44" s="4" t="n">
@@ -1538,7 +1534,7 @@
     </row>
     <row r="45">
       <c r="A45" s="4" t="n">
-        <v>252467</v>
+        <v>253367</v>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
@@ -1547,12 +1543,12 @@
       </c>
       <c r="C45" s="4" t="inlineStr">
         <is>
-          <t>15-07-2025 08:39:16</t>
+          <t>15-09-2025 13:34:22</t>
         </is>
       </c>
       <c r="D45" s="4" t="inlineStr">
         <is>
-          <t>15-07-2025 08:54:16</t>
+          <t>15-09-2025 13:49:22</t>
         </is>
       </c>
       <c r="E45" s="4" t="n">
@@ -1561,7 +1557,7 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="n">
-        <v>252899</v>
+        <v>253377</v>
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
@@ -1570,12 +1566,12 @@
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
-          <t>15-07-2025 10:15:26</t>
+          <t>16-09-2025 08:05:04</t>
         </is>
       </c>
       <c r="D46" s="4" t="inlineStr">
         <is>
-          <t>15-07-2025 10:34:26</t>
+          <t>16-09-2025 08:20:04</t>
         </is>
       </c>
       <c r="E46" s="4" t="n">
@@ -1583,215 +1579,217 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="n">
-        <v>252999</v>
-      </c>
-      <c r="B47" s="5" t="inlineStr">
+      <c r="A47" s="4" t="n">
+        <v>253549</v>
+      </c>
+      <c r="B47" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C47" s="4" t="inlineStr">
+        <is>
+          <t>16-09-2025 10:27:47</t>
+        </is>
+      </c>
+      <c r="D47" s="4" t="inlineStr">
+        <is>
+          <t>16-09-2025 10:50:47</t>
+        </is>
+      </c>
+      <c r="E47" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="n">
+        <v>253295</v>
+      </c>
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C48" s="4" t="inlineStr">
+        <is>
+          <t>16-09-2025 13:34:27</t>
+        </is>
+      </c>
+      <c r="D48" s="4" t="inlineStr">
+        <is>
+          <t>16-09-2025 13:51:27</t>
+        </is>
+      </c>
+      <c r="E48" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="4" t="n">
+        <v>252216</v>
+      </c>
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t>17-09-2025 09:41:32</t>
+        </is>
+      </c>
+      <c r="D49" s="4" t="inlineStr">
+        <is>
+          <t>17-09-2025 10:06:32</t>
+        </is>
+      </c>
+      <c r="E49" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="n">
+        <v>244743</v>
+      </c>
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C50" s="4" t="inlineStr">
+        <is>
+          <t>17-09-2025 12:28:20</t>
+        </is>
+      </c>
+      <c r="D50" s="4" t="inlineStr">
+        <is>
+          <t>17-09-2025 12:57:20</t>
+        </is>
+      </c>
+      <c r="E50" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="4" t="n">
+        <v>253472</v>
+      </c>
+      <c r="B51" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C51" s="4" t="inlineStr">
+        <is>
+          <t>17-09-2025 13:26:41</t>
+        </is>
+      </c>
+      <c r="D51" s="4" t="inlineStr">
+        <is>
+          <t>17-09-2025 13:45:41</t>
+        </is>
+      </c>
+      <c r="E51" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="n">
+        <v>253528</v>
+      </c>
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C52" s="4" t="inlineStr">
+        <is>
+          <t>18-09-2025 10:37:29</t>
+        </is>
+      </c>
+      <c r="D52" s="4" t="inlineStr">
+        <is>
+          <t>18-09-2025 10:56:29</t>
+        </is>
+      </c>
+      <c r="E52" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="4" t="n">
+        <v>253522</v>
+      </c>
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C53" s="4" t="inlineStr">
+        <is>
+          <t>18-09-2025 12:55:39</t>
+        </is>
+      </c>
+      <c r="D53" s="4" t="inlineStr">
+        <is>
+          <t>18-09-2025 13:10:39</t>
+        </is>
+      </c>
+      <c r="E53" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="n">
+        <v>252397</v>
+      </c>
+      <c r="B54" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C54" s="4" t="inlineStr">
+        <is>
+          <t>19-09-2025 08:29:17</t>
+        </is>
+      </c>
+      <c r="D54" s="4" t="inlineStr">
+        <is>
+          <t>19-09-2025 09:01:17</t>
+        </is>
+      </c>
+      <c r="E54" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5" t="n">
+        <v>252883</v>
+      </c>
+      <c r="B55" s="5" t="inlineStr">
         <is>
           <t>CASON</t>
         </is>
       </c>
-      <c r="C47" s="5" t="inlineStr">
-        <is>
-          <t>08-07-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="D47" s="5" t="inlineStr">
-        <is>
-          <t>08-07-2025 07:32:30</t>
-        </is>
-      </c>
-      <c r="E47" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="5" t="n">
-        <v>251674</v>
-      </c>
-      <c r="B48" s="5" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C48" s="5" t="inlineStr">
-        <is>
-          <t>08-07-2025 12:58:20</t>
-        </is>
-      </c>
-      <c r="D48" s="5" t="inlineStr">
-        <is>
-          <t>08-07-2025 13:52:50</t>
-        </is>
-      </c>
-      <c r="E48" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="5" t="n">
-        <v>251632</v>
-      </c>
-      <c r="B49" s="5" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C49" s="5" t="inlineStr">
-        <is>
-          <t>09-07-2025 08:19:58</t>
-        </is>
-      </c>
-      <c r="D49" s="5" t="inlineStr">
-        <is>
-          <t>09-07-2025 08:50:28</t>
-        </is>
-      </c>
-      <c r="E49" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="6" t="n">
-        <v>252207</v>
-      </c>
-      <c r="B50" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C50" s="6" t="inlineStr">
-        <is>
-          <t>08-07-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="D50" s="6" t="inlineStr">
-        <is>
-          <t>08-07-2025 07:40:00</t>
-        </is>
-      </c>
-      <c r="E50" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="6" t="n">
-        <v>251790</v>
-      </c>
-      <c r="B51" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C51" s="6" t="inlineStr">
-        <is>
-          <t>08-07-2025 08:31:33</t>
-        </is>
-      </c>
-      <c r="D51" s="6" t="inlineStr">
-        <is>
-          <t>08-07-2025 09:06:33</t>
-        </is>
-      </c>
-      <c r="E51" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="6" t="n">
-        <v>251798</v>
-      </c>
-      <c r="B52" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C52" s="6" t="inlineStr">
-        <is>
-          <t>08-07-2025 13:01:36</t>
-        </is>
-      </c>
-      <c r="D52" s="6" t="inlineStr">
-        <is>
-          <t>08-07-2025 13:31:36</t>
-        </is>
-      </c>
-      <c r="E52" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="6" t="n">
-        <v>252047</v>
-      </c>
-      <c r="B53" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C53" s="6" t="inlineStr">
-        <is>
-          <t>09-07-2025 07:34:54</t>
-        </is>
-      </c>
-      <c r="D53" s="6" t="inlineStr">
-        <is>
-          <t>09-07-2025 08:04:54</t>
-        </is>
-      </c>
-      <c r="E53" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="6" t="n">
-        <v>252814</v>
-      </c>
-      <c r="B54" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C54" s="6" t="inlineStr">
-        <is>
-          <t>09-07-2025 09:15:47</t>
-        </is>
-      </c>
-      <c r="D54" s="6" t="inlineStr">
-        <is>
-          <t>09-07-2025 09:45:47</t>
-        </is>
-      </c>
-      <c r="E54" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="6" t="n">
-        <v>252713</v>
-      </c>
-      <c r="B55" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C55" s="6" t="inlineStr">
-        <is>
-          <t>09-07-2025 10:35:52</t>
-        </is>
-      </c>
-      <c r="D55" s="6" t="inlineStr">
-        <is>
-          <t>09-07-2025 11:15:52</t>
-        </is>
-      </c>
-      <c r="E55" s="6" t="n">
+      <c r="C55" s="5" t="inlineStr">
+        <is>
+          <t>09-09-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D55" s="5" t="inlineStr">
+        <is>
+          <t>09-09-2025 07:52:30</t>
+        </is>
+      </c>
+      <c r="E55" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="6" t="n">
-        <v>252549</v>
+        <v>252002</v>
       </c>
       <c r="B56" s="6" t="inlineStr">
         <is>
@@ -1800,21 +1798,23 @@
       </c>
       <c r="C56" s="6" t="inlineStr">
         <is>
-          <t>11-07-2025 10:23:38</t>
+          <t>04-09-2025 12:00:00</t>
         </is>
       </c>
       <c r="D56" s="6" t="inlineStr">
         <is>
-          <t>11-07-2025 10:58:38</t>
-        </is>
-      </c>
-      <c r="E56" s="6" t="n">
-        <v>0</v>
+          <t>04-09-2025 12:55:00</t>
+        </is>
+      </c>
+      <c r="E56" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="6" t="n">
-        <v>252755</v>
+        <v>253140</v>
       </c>
       <c r="B57" s="6" t="inlineStr">
         <is>
@@ -1823,12 +1823,12 @@
       </c>
       <c r="C57" s="6" t="inlineStr">
         <is>
-          <t>11-07-2025 12:31:13</t>
+          <t>04-09-2025 13:50:40</t>
         </is>
       </c>
       <c r="D57" s="6" t="inlineStr">
         <is>
-          <t>11-07-2025 13:01:13</t>
+          <t>04-09-2025 14:30:40</t>
         </is>
       </c>
       <c r="E57" s="6" t="n">
@@ -1837,7 +1837,7 @@
     </row>
     <row r="58">
       <c r="A58" s="6" t="n">
-        <v>252157</v>
+        <v>253314</v>
       </c>
       <c r="B58" s="6" t="inlineStr">
         <is>
@@ -1846,21 +1846,23 @@
       </c>
       <c r="C58" s="6" t="inlineStr">
         <is>
-          <t>11-07-2025 14:50:48</t>
+          <t>05-09-2025 07:26:30</t>
         </is>
       </c>
       <c r="D58" s="6" t="inlineStr">
         <is>
-          <t>14-07-2025 07:40:48</t>
-        </is>
-      </c>
-      <c r="E58" s="6" t="n">
-        <v>0</v>
+          <t>05-09-2025 07:56:30</t>
+        </is>
+      </c>
+      <c r="E58" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="6" t="n">
-        <v>252334</v>
+        <v>252679</v>
       </c>
       <c r="B59" s="6" t="inlineStr">
         <is>
@@ -1869,387 +1871,790 @@
       </c>
       <c r="C59" s="6" t="inlineStr">
         <is>
-          <t>14-07-2025 14:17:37</t>
+          <t>05-09-2025 08:39:55</t>
         </is>
       </c>
       <c r="D59" s="6" t="inlineStr">
         <is>
-          <t>15-07-2025 07:02:37</t>
-        </is>
-      </c>
-      <c r="E59" s="6" t="n">
-        <v>0</v>
+          <t>05-09-2025 09:09:55</t>
+        </is>
+      </c>
+      <c r="E59" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="7" t="n">
-        <v>252371</v>
-      </c>
-      <c r="B60" s="7" t="inlineStr">
+      <c r="A60" s="6" t="n">
+        <v>252682</v>
+      </c>
+      <c r="B60" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C60" s="6" t="inlineStr">
+        <is>
+          <t>05-09-2025 10:09:55</t>
+        </is>
+      </c>
+      <c r="D60" s="6" t="inlineStr">
+        <is>
+          <t>05-09-2025 10:39:55</t>
+        </is>
+      </c>
+      <c r="E60" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="6" t="n">
+        <v>253210</v>
+      </c>
+      <c r="B61" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C61" s="6" t="inlineStr">
+        <is>
+          <t>05-09-2025 12:03:19</t>
+        </is>
+      </c>
+      <c r="D61" s="6" t="inlineStr">
+        <is>
+          <t>05-09-2025 13:23:19</t>
+        </is>
+      </c>
+      <c r="E61" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="6" t="n">
+        <v>253208</v>
+      </c>
+      <c r="B62" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C62" s="6" t="inlineStr">
+        <is>
+          <t>05-09-2025 14:57:29</t>
+        </is>
+      </c>
+      <c r="D62" s="6" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:22:29</t>
+        </is>
+      </c>
+      <c r="E62" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="6" t="n">
+        <v>252685</v>
+      </c>
+      <c r="B63" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C63" s="6" t="inlineStr">
+        <is>
+          <t>08-09-2025 09:06:44</t>
+        </is>
+      </c>
+      <c r="D63" s="6" t="inlineStr">
+        <is>
+          <t>08-09-2025 10:26:44</t>
+        </is>
+      </c>
+      <c r="E63" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="6" t="n">
+        <v>253036</v>
+      </c>
+      <c r="B64" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C64" s="6" t="inlineStr">
+        <is>
+          <t>08-09-2025 11:41:18</t>
+        </is>
+      </c>
+      <c r="D64" s="6" t="inlineStr">
+        <is>
+          <t>08-09-2025 12:11:18</t>
+        </is>
+      </c>
+      <c r="E64" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="6" t="n">
+        <v>253524</v>
+      </c>
+      <c r="B65" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C65" s="6" t="inlineStr">
+        <is>
+          <t>08-09-2025 13:30:02</t>
+        </is>
+      </c>
+      <c r="D65" s="6" t="inlineStr">
+        <is>
+          <t>08-09-2025 14:15:02</t>
+        </is>
+      </c>
+      <c r="E65" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="6" t="n">
+        <v>253223</v>
+      </c>
+      <c r="B66" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C66" s="6" t="inlineStr">
+        <is>
+          <t>09-09-2025 07:13:48</t>
+        </is>
+      </c>
+      <c r="D66" s="6" t="inlineStr">
+        <is>
+          <t>09-09-2025 08:28:48</t>
+        </is>
+      </c>
+      <c r="E66" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="6" t="n">
+        <v>252601</v>
+      </c>
+      <c r="B67" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C67" s="6" t="inlineStr">
+        <is>
+          <t>09-09-2025 08:45:12</t>
+        </is>
+      </c>
+      <c r="D67" s="6" t="inlineStr">
+        <is>
+          <t>09-09-2025 09:15:12</t>
+        </is>
+      </c>
+      <c r="E67" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="6" t="n">
+        <v>252582</v>
+      </c>
+      <c r="B68" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C68" s="6" t="inlineStr">
+        <is>
+          <t>09-09-2025 10:06:24</t>
+        </is>
+      </c>
+      <c r="D68" s="6" t="inlineStr">
+        <is>
+          <t>09-09-2025 11:36:24</t>
+        </is>
+      </c>
+      <c r="E68" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="6" t="n">
+        <v>253359</v>
+      </c>
+      <c r="B69" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C69" s="6" t="inlineStr">
+        <is>
+          <t>09-09-2025 12:22:29</t>
+        </is>
+      </c>
+      <c r="D69" s="6" t="inlineStr">
+        <is>
+          <t>09-09-2025 13:07:29</t>
+        </is>
+      </c>
+      <c r="E69" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="6" t="n">
+        <v>253245</v>
+      </c>
+      <c r="B70" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C70" s="6" t="inlineStr">
+        <is>
+          <t>10-09-2025 07:21:30</t>
+        </is>
+      </c>
+      <c r="D70" s="6" t="inlineStr">
+        <is>
+          <t>10-09-2025 07:51:30</t>
+        </is>
+      </c>
+      <c r="E70" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="6" t="n">
+        <v>253317</v>
+      </c>
+      <c r="B71" s="6" t="inlineStr">
         <is>
           <t>R12</t>
         </is>
       </c>
-      <c r="C60" s="7" t="inlineStr">
-        <is>
-          <t>08-07-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="D60" s="7" t="inlineStr">
-        <is>
-          <t>08-07-2025 07:17:00</t>
-        </is>
-      </c>
-      <c r="E60" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="7" t="n">
-        <v>252402</v>
-      </c>
-      <c r="B61" s="7" t="inlineStr">
+      <c r="C71" s="6" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D71" s="6" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:19:00</t>
+        </is>
+      </c>
+      <c r="E71" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="6" t="n">
+        <v>253318</v>
+      </c>
+      <c r="B72" s="6" t="inlineStr">
         <is>
           <t>R12</t>
         </is>
       </c>
-      <c r="C61" s="7" t="inlineStr">
-        <is>
-          <t>08-07-2025 08:07:02</t>
-        </is>
-      </c>
-      <c r="D61" s="7" t="inlineStr">
-        <is>
-          <t>08-07-2025 08:24:02</t>
-        </is>
-      </c>
-      <c r="E61" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="7" t="n">
-        <v>252237</v>
-      </c>
-      <c r="B62" s="7" t="inlineStr">
+      <c r="C72" s="6" t="inlineStr">
+        <is>
+          <t>08-09-2025 09:01:46</t>
+        </is>
+      </c>
+      <c r="D72" s="6" t="inlineStr">
+        <is>
+          <t>08-09-2025 09:16:46</t>
+        </is>
+      </c>
+      <c r="E72" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="6" t="n">
+        <v>253249</v>
+      </c>
+      <c r="B73" s="6" t="inlineStr">
         <is>
           <t>R12</t>
         </is>
       </c>
-      <c r="C62" s="7" t="inlineStr">
-        <is>
-          <t>08-07-2025 08:49:07</t>
-        </is>
-      </c>
-      <c r="D62" s="7" t="inlineStr">
-        <is>
-          <t>08-07-2025 09:21:07</t>
-        </is>
-      </c>
-      <c r="E62" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="7" t="n">
-        <v>251919</v>
-      </c>
-      <c r="B63" s="7" t="inlineStr">
+      <c r="C73" s="6" t="inlineStr">
+        <is>
+          <t>08-09-2025 10:08:19</t>
+        </is>
+      </c>
+      <c r="D73" s="6" t="inlineStr">
+        <is>
+          <t>08-09-2025 10:23:19</t>
+        </is>
+      </c>
+      <c r="E73" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="6" t="n">
+        <v>253706</v>
+      </c>
+      <c r="B74" s="6" t="inlineStr">
         <is>
           <t>R12</t>
         </is>
       </c>
-      <c r="C63" s="7" t="inlineStr">
-        <is>
-          <t>08-07-2025 10:46:04</t>
-        </is>
-      </c>
-      <c r="D63" s="7" t="inlineStr">
-        <is>
-          <t>08-07-2025 11:18:04</t>
-        </is>
-      </c>
-      <c r="E63" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="8" t="n">
-        <v>252347</v>
-      </c>
-      <c r="B64" s="8" t="inlineStr">
+      <c r="C74" s="6" t="inlineStr">
+        <is>
+          <t>08-09-2025 11:21:05</t>
+        </is>
+      </c>
+      <c r="D74" s="6" t="inlineStr">
+        <is>
+          <t>08-09-2025 11:46:05</t>
+        </is>
+      </c>
+      <c r="E74" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="6" t="n">
+        <v>252569</v>
+      </c>
+      <c r="B75" s="6" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C75" s="6" t="inlineStr">
+        <is>
+          <t>09-09-2025 08:57:05</t>
+        </is>
+      </c>
+      <c r="D75" s="6" t="inlineStr">
+        <is>
+          <t>09-09-2025 09:22:05</t>
+        </is>
+      </c>
+      <c r="E75" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="6" t="n">
+        <v>253409</v>
+      </c>
+      <c r="B76" s="6" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C76" s="6" t="inlineStr">
+        <is>
+          <t>09-09-2025 09:31:40</t>
+        </is>
+      </c>
+      <c r="D76" s="6" t="inlineStr">
+        <is>
+          <t>09-09-2025 09:50:40</t>
+        </is>
+      </c>
+      <c r="E76" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="6" t="n">
+        <v>253194</v>
+      </c>
+      <c r="B77" s="6" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C77" s="6" t="inlineStr">
+        <is>
+          <t>09-09-2025 10:17:51</t>
+        </is>
+      </c>
+      <c r="D77" s="6" t="inlineStr">
+        <is>
+          <t>09-09-2025 10:32:51</t>
+        </is>
+      </c>
+      <c r="E77" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="6" t="n">
+        <v>253602</v>
+      </c>
+      <c r="B78" s="6" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C78" s="6" t="inlineStr">
+        <is>
+          <t>09-09-2025 13:51:56</t>
+        </is>
+      </c>
+      <c r="D78" s="6" t="inlineStr">
+        <is>
+          <t>09-09-2025 14:10:56</t>
+        </is>
+      </c>
+      <c r="E78" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="7" t="n">
+        <v>253246</v>
+      </c>
+      <c r="B79" s="7" t="inlineStr">
         <is>
           <t>R5</t>
         </is>
       </c>
-      <c r="C64" s="8" t="inlineStr">
-        <is>
-          <t>08-07-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="D64" s="8" t="inlineStr">
-        <is>
-          <t>08-07-2025 07:35:00</t>
-        </is>
-      </c>
-      <c r="E64" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="8" t="n">
+      <c r="C79" s="7" t="inlineStr">
+        <is>
+          <t>09-09-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D79" s="7" t="inlineStr">
+        <is>
+          <t>09-09-2025 07:35:00</t>
+        </is>
+      </c>
+      <c r="E79" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="8" t="n">
+        <v>253362</v>
+      </c>
+      <c r="B80" s="8" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C80" s="8" t="inlineStr">
+        <is>
+          <t>05-09-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D80" s="8" t="inlineStr">
+        <is>
+          <t>05-09-2025 07:35:00</t>
+        </is>
+      </c>
+      <c r="E80" s="8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="8" t="n">
+        <v>252702</v>
+      </c>
+      <c r="B81" s="8" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C81" s="8" t="inlineStr">
+        <is>
+          <t>05-09-2025 08:33:23</t>
+        </is>
+      </c>
+      <c r="D81" s="8" t="inlineStr">
+        <is>
+          <t>05-09-2025 08:58:23</t>
+        </is>
+      </c>
+      <c r="E81" s="8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="8" t="n">
+        <v>253591</v>
+      </c>
+      <c r="B82" s="8" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C82" s="8" t="inlineStr">
+        <is>
+          <t>05-09-2025 09:56:46</t>
+        </is>
+      </c>
+      <c r="D82" s="8" t="inlineStr">
+        <is>
+          <t>05-09-2025 10:36:46</t>
+        </is>
+      </c>
+      <c r="E82" s="8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="8" t="n">
+        <v>250284</v>
+      </c>
+      <c r="B83" s="8" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C83" s="8" t="inlineStr">
+        <is>
+          <t>05-09-2025 10:54:11</t>
+        </is>
+      </c>
+      <c r="D83" s="8" t="inlineStr">
+        <is>
+          <t>05-09-2025 11:49:11</t>
+        </is>
+      </c>
+      <c r="E83" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="8" t="n">
+        <v>253072</v>
+      </c>
+      <c r="B84" s="8" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C84" s="8" t="inlineStr">
+        <is>
+          <t>05-09-2025 14:15:32</t>
+        </is>
+      </c>
+      <c r="D84" s="8" t="inlineStr">
+        <is>
+          <t>05-09-2025 14:50:32</t>
+        </is>
+      </c>
+      <c r="E84" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="8" t="n">
+        <v>253278</v>
+      </c>
+      <c r="B85" s="8" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C85" s="8" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:19:40</t>
+        </is>
+      </c>
+      <c r="D85" s="8" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:44:40</t>
+        </is>
+      </c>
+      <c r="E85" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="8" t="n">
+        <v>253259</v>
+      </c>
+      <c r="B86" s="8" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C86" s="8" t="inlineStr">
+        <is>
+          <t>08-09-2025 08:13:05</t>
+        </is>
+      </c>
+      <c r="D86" s="8" t="inlineStr">
+        <is>
+          <t>08-09-2025 08:58:05</t>
+        </is>
+      </c>
+      <c r="E86" s="8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="8" t="n">
+        <v>244023</v>
+      </c>
+      <c r="B87" s="8" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C87" s="8" t="inlineStr">
+        <is>
+          <t>08-09-2025 10:07:19</t>
+        </is>
+      </c>
+      <c r="D87" s="8" t="inlineStr">
+        <is>
+          <t>08-09-2025 10:52:19</t>
+        </is>
+      </c>
+      <c r="E87" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="8" t="n">
+        <v>252843</v>
+      </c>
+      <c r="B88" s="8" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C88" s="8" t="inlineStr">
+        <is>
+          <t>08-09-2025 11:00:38</t>
+        </is>
+      </c>
+      <c r="D88" s="8" t="inlineStr">
+        <is>
+          <t>08-09-2025 11:45:38</t>
+        </is>
+      </c>
+      <c r="E88" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="8" t="n">
         <v>243569</v>
       </c>
-      <c r="B65" s="8" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C65" s="8" t="inlineStr">
-        <is>
-          <t>08-07-2025 09:07:17</t>
-        </is>
-      </c>
-      <c r="D65" s="8" t="inlineStr">
-        <is>
-          <t>08-07-2025 09:42:17</t>
-        </is>
-      </c>
-      <c r="E65" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="8" t="n">
-        <v>252201</v>
-      </c>
-      <c r="B66" s="8" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C66" s="8" t="inlineStr">
-        <is>
-          <t>08-07-2025 10:03:57</t>
-        </is>
-      </c>
-      <c r="D66" s="8" t="inlineStr">
-        <is>
-          <t>08-07-2025 10:38:57</t>
-        </is>
-      </c>
-      <c r="E66" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="8" t="n">
-        <v>252723</v>
-      </c>
-      <c r="B67" s="8" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C67" s="8" t="inlineStr">
-        <is>
-          <t>08-07-2025 11:13:04</t>
-        </is>
-      </c>
-      <c r="D67" s="8" t="inlineStr">
-        <is>
-          <t>08-07-2025 11:48:04</t>
-        </is>
-      </c>
-      <c r="E67" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="9" t="n">
-        <v>252144</v>
-      </c>
-      <c r="B68" s="9" t="inlineStr">
+      <c r="B89" s="8" t="inlineStr">
         <is>
           <t>R9</t>
         </is>
       </c>
-      <c r="C68" s="9" t="inlineStr">
-        <is>
-          <t>08-07-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="D68" s="9" t="inlineStr">
-        <is>
-          <t>08-07-2025 07:40:00</t>
-        </is>
-      </c>
-      <c r="E68" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="9" t="n">
-        <v>252146</v>
-      </c>
-      <c r="B69" s="9" t="inlineStr">
+      <c r="C89" s="8" t="inlineStr">
+        <is>
+          <t>08-09-2025 12:04:50</t>
+        </is>
+      </c>
+      <c r="D89" s="8" t="inlineStr">
+        <is>
+          <t>08-09-2025 12:59:50</t>
+        </is>
+      </c>
+      <c r="E89" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="8" t="n">
+        <v>253271</v>
+      </c>
+      <c r="B90" s="8" t="inlineStr">
         <is>
           <t>R9</t>
         </is>
       </c>
-      <c r="C69" s="9" t="inlineStr">
-        <is>
-          <t>08-07-2025 08:34:08</t>
-        </is>
-      </c>
-      <c r="D69" s="9" t="inlineStr">
-        <is>
-          <t>08-07-2025 08:59:08</t>
-        </is>
-      </c>
-      <c r="E69" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="9" t="n">
-        <v>252298</v>
-      </c>
-      <c r="B70" s="9" t="inlineStr">
+      <c r="C90" s="8" t="inlineStr">
+        <is>
+          <t>08-09-2025 13:21:30</t>
+        </is>
+      </c>
+      <c r="D90" s="8" t="inlineStr">
+        <is>
+          <t>08-09-2025 14:06:30</t>
+        </is>
+      </c>
+      <c r="E90" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="8" t="n">
+        <v>253527</v>
+      </c>
+      <c r="B91" s="8" t="inlineStr">
         <is>
           <t>R9</t>
         </is>
       </c>
-      <c r="C70" s="9" t="inlineStr">
-        <is>
-          <t>08-07-2025 10:05:46</t>
-        </is>
-      </c>
-      <c r="D70" s="9" t="inlineStr">
-        <is>
-          <t>08-07-2025 10:45:46</t>
-        </is>
-      </c>
-      <c r="E70" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="9" t="n">
-        <v>244828</v>
-      </c>
-      <c r="B71" s="9" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C71" s="9" t="inlineStr">
-        <is>
-          <t>08-07-2025 11:56:32</t>
-        </is>
-      </c>
-      <c r="D71" s="9" t="inlineStr">
-        <is>
-          <t>08-07-2025 12:36:32</t>
-        </is>
-      </c>
-      <c r="E71" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="9" t="n">
-        <v>251231</v>
-      </c>
-      <c r="B72" s="9" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C72" s="9" t="inlineStr">
-        <is>
-          <t>08-07-2025 13:19:53</t>
-        </is>
-      </c>
-      <c r="D72" s="9" t="inlineStr">
-        <is>
-          <t>08-07-2025 13:59:53</t>
-        </is>
-      </c>
-      <c r="E72" s="9" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="9" t="n">
-        <v>252277</v>
-      </c>
-      <c r="B73" s="9" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C73" s="9" t="inlineStr">
-        <is>
-          <t>09-07-2025 11:12:12</t>
-        </is>
-      </c>
-      <c r="D73" s="9" t="inlineStr">
-        <is>
-          <t>09-07-2025 11:52:12</t>
-        </is>
-      </c>
-      <c r="E73" s="9" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="9" t="n">
-        <v>252350</v>
-      </c>
-      <c r="B74" s="9" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C74" s="9" t="inlineStr">
-        <is>
-          <t>09-07-2025 14:17:07</t>
-        </is>
-      </c>
-      <c r="D74" s="9" t="inlineStr">
-        <is>
-          <t>09-07-2025 14:47:07</t>
-        </is>
-      </c>
-      <c r="E74" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="9" t="n">
-        <v>252652</v>
-      </c>
-      <c r="B75" s="9" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C75" s="9" t="inlineStr">
-        <is>
-          <t>10-07-2025 07:39:00</t>
-        </is>
-      </c>
-      <c r="D75" s="9" t="inlineStr">
-        <is>
-          <t>10-07-2025 08:09:00</t>
-        </is>
-      </c>
-      <c r="E75" s="9" t="n">
+      <c r="C91" s="8" t="inlineStr">
+        <is>
+          <t>08-09-2025 14:49:08</t>
+        </is>
+      </c>
+      <c r="D91" s="8" t="inlineStr">
+        <is>
+          <t>09-09-2025 07:29:08</t>
+        </is>
+      </c>
+      <c r="E91" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="9" t="n">
+        <v>252980</v>
+      </c>
+      <c r="B92" s="9" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="C92" s="9" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D92" s="9" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="E92" s="9" t="n">
         <v>0</v>
       </c>
     </row>

--- a/PS-VRP/Dati_output/output_ridotto.xlsx
+++ b/PS-VRP/Dati_output/output_ridotto.xlsx
@@ -38,8 +38,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EAD1DC"/>
-        <bgColor rgb="00EAD1DC"/>
+        <fgColor rgb="00F4CCCC"/>
+        <bgColor rgb="00F4CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFF2CC"/>
+        <bgColor rgb="00FFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E2EFDA"/>
+        <bgColor rgb="00E2EFDA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CCE5FF"/>
+        <bgColor rgb="00CCE5FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D9D2E9"/>
+        <bgColor rgb="00D9D2E9"/>
       </patternFill>
     </fill>
     <fill>
@@ -50,38 +74,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F4CCCC"/>
-        <bgColor rgb="00F4CCCC"/>
+        <fgColor rgb="00EAD1DC"/>
+        <bgColor rgb="00EAD1DC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00D5E8D4"/>
         <bgColor rgb="00D5E8D4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CCE5FF"/>
-        <bgColor rgb="00CCE5FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFF2CC"/>
-        <bgColor rgb="00FFF2CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D9D2E9"/>
-        <bgColor rgb="00D9D2E9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E2EFDA"/>
-        <bgColor rgb="00E2EFDA"/>
       </patternFill>
     </fill>
   </fills>
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E92"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -541,7 +541,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>253425</v>
+        <v>253409</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>252906</v>
+        <v>253284</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
@@ -573,12 +573,12 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>08-09-2025 09:43:21</t>
+          <t>08-09-2025 07:44:11</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>08-09-2025 10:00:21</t>
+          <t>08-09-2025 08:01:11</t>
         </is>
       </c>
       <c r="E3" s="2" t="n">
@@ -587,7 +587,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>250891</v>
+        <v>243569</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
@@ -596,12 +596,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>08-09-2025 10:35:04</t>
+          <t>08-09-2025 08:58:10</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>08-09-2025 11:07:04</t>
+          <t>08-09-2025 09:15:10</t>
         </is>
       </c>
       <c r="E4" s="2" t="n">
@@ -610,7 +610,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>253100</v>
+        <v>253591</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
@@ -619,21 +619,23 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>08-09-2025 12:24:34</t>
+          <t>08-09-2025 09:36:51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>08-09-2025 12:41:34</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>0</v>
+          <t>08-09-2025 09:55:51</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>252995</v>
+        <v>250891</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
@@ -642,12 +644,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>08-09-2025 13:28:55</t>
+          <t>08-09-2025 10:13:16</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:55</t>
+          <t>08-09-2025 10:47:16</t>
         </is>
       </c>
       <c r="E6" s="2" t="n">
@@ -656,7 +658,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>252833</v>
+        <v>253710</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
@@ -665,12 +667,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>09-09-2025 07:09:14</t>
+          <t>08-09-2025 12:04:45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>09-09-2025 07:43:14</t>
+          <t>08-09-2025 12:23:45</t>
         </is>
       </c>
       <c r="E7" s="2" t="n">
@@ -679,7 +681,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>252939</v>
+        <v>250284</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
@@ -688,12 +690,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>09-09-2025 08:58:01</t>
+          <t>08-09-2025 12:25:22</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>09-09-2025 09:17:01</t>
+          <t>08-09-2025 12:50:22</t>
         </is>
       </c>
       <c r="E8" s="2" t="n">
@@ -702,7 +704,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>235572</v>
+        <v>252939</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
@@ -711,12 +713,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>09-09-2025 10:46:49</t>
+          <t>09-09-2025 07:16:43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>09-09-2025 11:05:49</t>
+          <t>09-09-2025 07:41:43</t>
         </is>
       </c>
       <c r="E9" s="2" t="n">
@@ -734,12 +736,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>09-09-2025 12:28:48</t>
+          <t>09-09-2025 09:11:31</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>09-09-2025 13:04:48</t>
+          <t>09-09-2025 09:51:31</t>
         </is>
       </c>
       <c r="E10" s="2" t="n">
@@ -748,7 +750,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>253372</v>
+        <v>253100</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
@@ -757,12 +759,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10-09-2025 09:07:44</t>
+          <t>09-09-2025 13:54:28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10-09-2025 09:49:44</t>
+          <t>09-09-2025 14:32:28</t>
         </is>
       </c>
       <c r="E11" s="2" t="n">
@@ -771,7 +773,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>253361</v>
+        <v>253246</v>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
@@ -780,12 +782,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>10-09-2025 11:33:31</t>
+          <t>10-09-2025 07:19:49</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>10-09-2025 11:48:31</t>
+          <t>10-09-2025 07:34:49</t>
         </is>
       </c>
       <c r="E12" s="2" t="n">
@@ -794,7 +796,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>253375</v>
+        <v>253374</v>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
@@ -803,12 +805,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10-09-2025 13:05:13</t>
+          <t>10-09-2025 10:49:04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10-09-2025 13:20:13</t>
+          <t>10-09-2025 11:10:04</t>
         </is>
       </c>
       <c r="E13" s="2" t="n">
@@ -816,54 +818,54 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>253247</v>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>BIMEC 3</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>10-09-2025 14:12:06</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>10-09-2025 14:31:06</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="n">
+      <c r="A14" s="3" t="n">
+        <v>252569</v>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:29:00</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>253332</v>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>BIMEC 3</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>11-09-2025 08:20:41</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>11-09-2025 08:39:41</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="n">
+      <c r="A15" s="3" t="n">
+        <v>253072</v>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:38:35</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>08-09-2025 08:24:35</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>252827</v>
+        <v>252833</v>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
@@ -872,12 +874,12 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>08-09-2025 07:00:00</t>
+          <t>08-09-2025 08:53:43</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>08-09-2025 07:27:00</t>
+          <t>08-09-2025 09:24:43</t>
         </is>
       </c>
       <c r="E16" s="3" t="n">
@@ -886,7 +888,7 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>253710</v>
+        <v>253194</v>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
@@ -895,12 +897,12 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>08-09-2025 14:17:00</t>
+          <t>08-09-2025 10:39:30</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>08-09-2025 14:59:00</t>
+          <t>08-09-2025 11:23:30</t>
         </is>
       </c>
       <c r="E17" s="3" t="n">
@@ -909,7 +911,7 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>253260</v>
+        <v>235572</v>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
@@ -918,12 +920,12 @@
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>09-09-2025 07:00:37</t>
+          <t>08-09-2025 14:42:35</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>09-09-2025 07:27:37</t>
+          <t>09-09-2025 07:26:35</t>
         </is>
       </c>
       <c r="E18" s="3" t="n">
@@ -932,7 +934,7 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>253721</v>
+        <v>253278</v>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
@@ -941,12 +943,12 @@
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>09-09-2025 09:17:01</t>
+          <t>09-09-2025 08:49:34</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>09-09-2025 09:44:01</t>
+          <t>09-09-2025 09:16:34</t>
         </is>
       </c>
       <c r="E19" s="3" t="n">
@@ -954,31 +956,31 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="n">
+      <c r="A20" s="4" t="n">
         <v>253095</v>
       </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>09-09-2025 10:23:25</t>
-        </is>
-      </c>
-      <c r="D20" s="3" t="inlineStr">
-        <is>
-          <t>09-09-2025 10:50:25</t>
-        </is>
-      </c>
-      <c r="E20" s="3" t="n">
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>05-09-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="inlineStr">
+        <is>
+          <t>05-09-2025 07:17:00</t>
+        </is>
+      </c>
+      <c r="E20" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="n">
-        <v>253267</v>
+        <v>252216</v>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
@@ -987,12 +989,12 @@
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>05-09-2025 07:00:00</t>
+          <t>05-09-2025 08:33:19</t>
         </is>
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>05-09-2025 07:17:00</t>
+          <t>05-09-2025 09:04:19</t>
         </is>
       </c>
       <c r="E21" s="4" t="n">
@@ -1001,7 +1003,7 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="n">
-        <v>253268</v>
+        <v>253267</v>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
@@ -1010,12 +1012,12 @@
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>05-09-2025 10:01:22</t>
+          <t>05-09-2025 11:26:07</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>05-09-2025 10:16:22</t>
+          <t>05-09-2025 11:53:07</t>
         </is>
       </c>
       <c r="E22" s="4" t="n">
@@ -1024,7 +1026,7 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="n">
-        <v>253016</v>
+        <v>253268</v>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
@@ -1033,23 +1035,21 @@
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>05-09-2025 11:34:55</t>
+          <t>05-09-2025 14:37:29</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>05-09-2025 12:08:55</t>
-        </is>
-      </c>
-      <c r="E23" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>05-09-2025 14:52:29</t>
+        </is>
+      </c>
+      <c r="E23" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="n">
-        <v>253313</v>
+        <v>244023</v>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
@@ -1058,12 +1058,12 @@
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>05-09-2025 13:22:18</t>
+          <t>08-09-2025 08:11:03</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>05-09-2025 13:56:18</t>
+          <t>08-09-2025 08:30:03</t>
         </is>
       </c>
       <c r="E24" s="4" t="n">
@@ -1072,7 +1072,7 @@
     </row>
     <row r="25">
       <c r="A25" s="4" t="n">
-        <v>253284</v>
+        <v>253140</v>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
@@ -1081,12 +1081,12 @@
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>08-09-2025 07:36:19</t>
+          <t>08-09-2025 08:38:21</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>08-09-2025 07:51:19</t>
+          <t>08-09-2025 09:14:21</t>
         </is>
       </c>
       <c r="E25" s="4" t="n">
@@ -1095,7 +1095,7 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="n">
-        <v>252664</v>
+        <v>253259</v>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
@@ -1104,12 +1104,12 @@
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>08-09-2025 08:48:18</t>
+          <t>08-09-2025 10:10:11</t>
         </is>
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
-          <t>08-09-2025 09:22:18</t>
+          <t>08-09-2025 10:42:11</t>
         </is>
       </c>
       <c r="E26" s="4" t="inlineStr">
@@ -1120,7 +1120,7 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="n">
-        <v>253686</v>
+        <v>252664</v>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
@@ -1129,21 +1129,23 @@
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>09-09-2025 07:28:17</t>
+          <t>08-09-2025 11:51:25</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>09-09-2025 07:49:17</t>
-        </is>
-      </c>
-      <c r="E27" s="4" t="n">
-        <v>0</v>
+          <t>08-09-2025 12:08:25</t>
+        </is>
+      </c>
+      <c r="E27" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="n">
-        <v>253374</v>
+        <v>253271</v>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
@@ -1152,12 +1154,12 @@
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>09-09-2025 08:33:31</t>
+          <t>09-09-2025 10:14:24</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>09-09-2025 08:50:31</t>
+          <t>09-09-2025 10:37:24</t>
         </is>
       </c>
       <c r="E28" s="4" t="n">
@@ -1175,12 +1177,12 @@
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>09-09-2025 09:50:07</t>
+          <t>09-09-2025 11:20:02</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>09-09-2025 10:07:07</t>
+          <t>09-09-2025 11:37:02</t>
         </is>
       </c>
       <c r="E29" s="4" t="n">
@@ -1198,12 +1200,12 @@
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>09-09-2025 10:51:21</t>
+          <t>09-09-2025 12:21:16</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>09-09-2025 11:06:21</t>
+          <t>09-09-2025 12:36:16</t>
         </is>
       </c>
       <c r="E30" s="4" t="n">
@@ -1212,7 +1214,7 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="n">
-        <v>253401</v>
+        <v>253686</v>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
@@ -1221,12 +1223,12 @@
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>10-09-2025 08:30:06</t>
+          <t>10-09-2025 10:00:01</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>10-09-2025 08:49:06</t>
+          <t>10-09-2025 10:15:01</t>
         </is>
       </c>
       <c r="E31" s="4" t="n">
@@ -1235,7 +1237,7 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="n">
-        <v>253370</v>
+        <v>253401</v>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
@@ -1244,12 +1246,12 @@
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>10-09-2025 09:11:55</t>
+          <t>10-09-2025 10:59:15</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>10-09-2025 09:28:55</t>
+          <t>10-09-2025 11:18:15</t>
         </is>
       </c>
       <c r="E32" s="4" t="n">
@@ -1258,7 +1260,7 @@
     </row>
     <row r="33">
       <c r="A33" s="4" t="n">
-        <v>253368</v>
+        <v>253370</v>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
@@ -1267,12 +1269,12 @@
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>10-09-2025 12:56:28</t>
+          <t>10-09-2025 11:41:04</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>10-09-2025 13:11:28</t>
+          <t>10-09-2025 11:58:04</t>
         </is>
       </c>
       <c r="E33" s="4" t="n">
@@ -1281,7 +1283,7 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="n">
-        <v>253371</v>
+        <v>253368</v>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
@@ -1290,12 +1292,12 @@
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>10-09-2025 14:55:14</t>
+          <t>11-09-2025 07:25:36</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t>11-09-2025 07:10:14</t>
+          <t>11-09-2025 07:40:36</t>
         </is>
       </c>
       <c r="E34" s="4" t="n">
@@ -1304,7 +1306,7 @@
     </row>
     <row r="35">
       <c r="A35" s="4" t="n">
-        <v>253376</v>
+        <v>253371</v>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
@@ -1313,12 +1315,12 @@
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>11-09-2025 08:58:00</t>
+          <t>11-09-2025 09:24:23</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>11-09-2025 09:13:00</t>
+          <t>11-09-2025 09:39:23</t>
         </is>
       </c>
       <c r="E35" s="4" t="n">
@@ -1327,7 +1329,7 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="n">
-        <v>253668</v>
+        <v>253376</v>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
@@ -1336,12 +1338,12 @@
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>11-09-2025 12:12:37</t>
+          <t>11-09-2025 11:27:09</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t>11-09-2025 12:29:37</t>
+          <t>11-09-2025 11:42:09</t>
         </is>
       </c>
       <c r="E36" s="4" t="n">
@@ -1359,12 +1361,12 @@
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>12-09-2025 07:39:29</t>
+          <t>11-09-2025 14:41:45</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>12-09-2025 08:00:29</t>
+          <t>12-09-2025 07:02:45</t>
         </is>
       </c>
       <c r="E37" s="4" t="n">
@@ -1373,7 +1375,7 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="n">
-        <v>253261</v>
+        <v>252397</v>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
@@ -1382,12 +1384,12 @@
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>12-09-2025 09:01:58</t>
+          <t>12-09-2025 08:04:15</t>
         </is>
       </c>
       <c r="D38" s="4" t="inlineStr">
         <is>
-          <t>12-09-2025 09:18:58</t>
+          <t>12-09-2025 08:36:15</t>
         </is>
       </c>
       <c r="E38" s="4" t="n">
@@ -1396,7 +1398,7 @@
     </row>
     <row r="39">
       <c r="A39" s="4" t="n">
-        <v>253436</v>
+        <v>253295</v>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
@@ -1405,21 +1407,23 @@
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>12-09-2025 09:37:49</t>
+          <t>12-09-2025 10:32:10</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>12-09-2025 09:52:49</t>
-        </is>
-      </c>
-      <c r="E39" s="4" t="n">
-        <v>0</v>
+          <t>12-09-2025 11:04:10</t>
+        </is>
+      </c>
+      <c r="E39" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="n">
-        <v>252529</v>
+        <v>253549</v>
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
@@ -1428,12 +1432,12 @@
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>12-09-2025 10:11:40</t>
+          <t>12-09-2025 14:54:15</t>
         </is>
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
-          <t>12-09-2025 10:47:40</t>
+          <t>15-09-2025 07:11:15</t>
         </is>
       </c>
       <c r="E40" s="4" t="n">
@@ -1442,7 +1446,7 @@
     </row>
     <row r="41">
       <c r="A41" s="4" t="n">
-        <v>252274</v>
+        <v>253525</v>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
@@ -1451,12 +1455,12 @@
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>12-09-2025 11:55:45</t>
+          <t>15-09-2025 09:54:55</t>
         </is>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>12-09-2025 12:14:45</t>
+          <t>15-09-2025 10:17:55</t>
         </is>
       </c>
       <c r="E41" s="4" t="n">
@@ -1465,7 +1469,7 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="n">
-        <v>253244</v>
+        <v>253377</v>
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
@@ -1474,12 +1478,12 @@
       </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t>15-09-2025 07:08:10</t>
+          <t>15-09-2025 11:50:03</t>
         </is>
       </c>
       <c r="D42" s="4" t="inlineStr">
         <is>
-          <t>15-09-2025 07:40:10</t>
+          <t>15-09-2025 12:05:03</t>
         </is>
       </c>
       <c r="E42" s="4" t="n">
@@ -1488,7 +1492,7 @@
     </row>
     <row r="43">
       <c r="A43" s="4" t="n">
-        <v>253455</v>
+        <v>253472</v>
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
@@ -1497,12 +1501,12 @@
       </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>15-09-2025 10:26:40</t>
+          <t>15-09-2025 14:12:46</t>
         </is>
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t>15-09-2025 10:47:40</t>
+          <t>15-09-2025 14:33:46</t>
         </is>
       </c>
       <c r="E43" s="4" t="n">
@@ -1511,7 +1515,7 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="n">
-        <v>253525</v>
+        <v>252274</v>
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
@@ -1520,12 +1524,12 @@
       </c>
       <c r="C44" s="4" t="inlineStr">
         <is>
-          <t>15-09-2025 11:43:14</t>
+          <t>16-09-2025 11:25:34</t>
         </is>
       </c>
       <c r="D44" s="4" t="inlineStr">
         <is>
-          <t>15-09-2025 12:02:14</t>
+          <t>16-09-2025 12:03:34</t>
         </is>
       </c>
       <c r="E44" s="4" t="n">
@@ -1534,7 +1538,7 @@
     </row>
     <row r="45">
       <c r="A45" s="4" t="n">
-        <v>253367</v>
+        <v>253602</v>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
@@ -1543,12 +1547,12 @@
       </c>
       <c r="C45" s="4" t="inlineStr">
         <is>
-          <t>15-09-2025 13:34:22</t>
+          <t>16-09-2025 14:56:59</t>
         </is>
       </c>
       <c r="D45" s="4" t="inlineStr">
         <is>
-          <t>15-09-2025 13:49:22</t>
+          <t>17-09-2025 07:19:59</t>
         </is>
       </c>
       <c r="E45" s="4" t="n">
@@ -1556,240 +1560,246 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="4" t="n">
-        <v>253377</v>
-      </c>
-      <c r="B46" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C46" s="4" t="inlineStr">
-        <is>
-          <t>16-09-2025 08:05:04</t>
-        </is>
-      </c>
-      <c r="D46" s="4" t="inlineStr">
-        <is>
-          <t>16-09-2025 08:20:04</t>
-        </is>
-      </c>
-      <c r="E46" s="4" t="n">
+      <c r="A46" s="5" t="n">
+        <v>253527</v>
+      </c>
+      <c r="B46" s="5" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C46" s="5" t="inlineStr">
+        <is>
+          <t>09-09-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D46" s="5" t="inlineStr">
+        <is>
+          <t>09-09-2025 07:34:30</t>
+        </is>
+      </c>
+      <c r="E46" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="4" t="n">
-        <v>253549</v>
-      </c>
-      <c r="B47" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C47" s="4" t="inlineStr">
-        <is>
-          <t>16-09-2025 10:27:47</t>
-        </is>
-      </c>
-      <c r="D47" s="4" t="inlineStr">
-        <is>
-          <t>16-09-2025 10:50:47</t>
-        </is>
-      </c>
-      <c r="E47" s="4" t="n">
-        <v>0</v>
+      <c r="A47" s="6" t="n">
+        <v>252002</v>
+      </c>
+      <c r="B47" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C47" s="6" t="inlineStr">
+        <is>
+          <t>04-09-2025 12:00:00</t>
+        </is>
+      </c>
+      <c r="D47" s="6" t="inlineStr">
+        <is>
+          <t>04-09-2025 12:55:00</t>
+        </is>
+      </c>
+      <c r="E47" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="4" t="n">
-        <v>253295</v>
-      </c>
-      <c r="B48" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C48" s="4" t="inlineStr">
-        <is>
-          <t>16-09-2025 13:34:27</t>
-        </is>
-      </c>
-      <c r="D48" s="4" t="inlineStr">
-        <is>
-          <t>16-09-2025 13:51:27</t>
-        </is>
-      </c>
-      <c r="E48" s="4" t="inlineStr">
+      <c r="A48" s="6" t="n">
+        <v>252883</v>
+      </c>
+      <c r="B48" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C48" s="6" t="inlineStr">
+        <is>
+          <t>04-09-2025 13:50:40</t>
+        </is>
+      </c>
+      <c r="D48" s="6" t="inlineStr">
+        <is>
+          <t>04-09-2025 14:55:40</t>
+        </is>
+      </c>
+      <c r="E48" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="n">
+        <v>252682</v>
+      </c>
+      <c r="B49" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C49" s="6" t="inlineStr">
+        <is>
+          <t>05-09-2025 11:02:59</t>
+        </is>
+      </c>
+      <c r="D49" s="6" t="inlineStr">
+        <is>
+          <t>05-09-2025 12:17:59</t>
+        </is>
+      </c>
+      <c r="E49" s="6" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="4" t="n">
-        <v>252216</v>
-      </c>
-      <c r="B49" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C49" s="4" t="inlineStr">
-        <is>
-          <t>17-09-2025 09:41:32</t>
-        </is>
-      </c>
-      <c r="D49" s="4" t="inlineStr">
-        <is>
-          <t>17-09-2025 10:06:32</t>
-        </is>
-      </c>
-      <c r="E49" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
     <row r="50">
-      <c r="A50" s="4" t="n">
-        <v>244743</v>
-      </c>
-      <c r="B50" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C50" s="4" t="inlineStr">
-        <is>
-          <t>17-09-2025 12:28:20</t>
-        </is>
-      </c>
-      <c r="D50" s="4" t="inlineStr">
-        <is>
-          <t>17-09-2025 12:57:20</t>
-        </is>
-      </c>
-      <c r="E50" s="4" t="n">
-        <v>0</v>
+      <c r="A50" s="6" t="n">
+        <v>252582</v>
+      </c>
+      <c r="B50" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C50" s="6" t="inlineStr">
+        <is>
+          <t>05-09-2025 13:41:23</t>
+        </is>
+      </c>
+      <c r="D50" s="6" t="inlineStr">
+        <is>
+          <t>05-09-2025 14:11:23</t>
+        </is>
+      </c>
+      <c r="E50" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="4" t="n">
-        <v>253472</v>
-      </c>
-      <c r="B51" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C51" s="4" t="inlineStr">
-        <is>
-          <t>17-09-2025 13:26:41</t>
-        </is>
-      </c>
-      <c r="D51" s="4" t="inlineStr">
-        <is>
-          <t>17-09-2025 13:45:41</t>
-        </is>
-      </c>
-      <c r="E51" s="4" t="n">
-        <v>0</v>
+      <c r="A51" s="6" t="n">
+        <v>252685</v>
+      </c>
+      <c r="B51" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C51" s="6" t="inlineStr">
+        <is>
+          <t>05-09-2025 14:57:28</t>
+        </is>
+      </c>
+      <c r="D51" s="6" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:27:28</t>
+        </is>
+      </c>
+      <c r="E51" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="4" t="n">
-        <v>253528</v>
-      </c>
-      <c r="B52" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C52" s="4" t="inlineStr">
-        <is>
-          <t>18-09-2025 10:37:29</t>
-        </is>
-      </c>
-      <c r="D52" s="4" t="inlineStr">
-        <is>
-          <t>18-09-2025 10:56:29</t>
-        </is>
-      </c>
-      <c r="E52" s="4" t="n">
+      <c r="A52" s="6" t="n">
+        <v>252843</v>
+      </c>
+      <c r="B52" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C52" s="6" t="inlineStr">
+        <is>
+          <t>08-09-2025 08:42:02</t>
+        </is>
+      </c>
+      <c r="D52" s="6" t="inlineStr">
+        <is>
+          <t>08-09-2025 09:32:02</t>
+        </is>
+      </c>
+      <c r="E52" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="4" t="n">
-        <v>253522</v>
-      </c>
-      <c r="B53" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C53" s="4" t="inlineStr">
-        <is>
-          <t>18-09-2025 12:55:39</t>
-        </is>
-      </c>
-      <c r="D53" s="4" t="inlineStr">
-        <is>
-          <t>18-09-2025 13:10:39</t>
-        </is>
-      </c>
-      <c r="E53" s="4" t="n">
+      <c r="A53" s="6" t="n">
+        <v>253208</v>
+      </c>
+      <c r="B53" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C53" s="6" t="inlineStr">
+        <is>
+          <t>08-09-2025 09:51:14</t>
+        </is>
+      </c>
+      <c r="D53" s="6" t="inlineStr">
+        <is>
+          <t>08-09-2025 10:46:14</t>
+        </is>
+      </c>
+      <c r="E53" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="4" t="n">
-        <v>252397</v>
-      </c>
-      <c r="B54" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C54" s="4" t="inlineStr">
-        <is>
-          <t>19-09-2025 08:29:17</t>
-        </is>
-      </c>
-      <c r="D54" s="4" t="inlineStr">
-        <is>
-          <t>19-09-2025 09:01:17</t>
-        </is>
-      </c>
-      <c r="E54" s="4" t="n">
+      <c r="A54" s="6" t="n">
+        <v>253210</v>
+      </c>
+      <c r="B54" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C54" s="6" t="inlineStr">
+        <is>
+          <t>08-09-2025 12:30:30</t>
+        </is>
+      </c>
+      <c r="D54" s="6" t="inlineStr">
+        <is>
+          <t>08-09-2025 12:55:30</t>
+        </is>
+      </c>
+      <c r="E54" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="5" t="n">
-        <v>252883</v>
-      </c>
-      <c r="B55" s="5" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C55" s="5" t="inlineStr">
-        <is>
-          <t>09-09-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="D55" s="5" t="inlineStr">
-        <is>
-          <t>09-09-2025 07:52:30</t>
-        </is>
-      </c>
-      <c r="E55" s="5" t="n">
+      <c r="A55" s="6" t="n">
+        <v>253223</v>
+      </c>
+      <c r="B55" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C55" s="6" t="inlineStr">
+        <is>
+          <t>08-09-2025 14:29:39</t>
+        </is>
+      </c>
+      <c r="D55" s="6" t="inlineStr">
+        <is>
+          <t>09-09-2025 07:54:39</t>
+        </is>
+      </c>
+      <c r="E55" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="6" t="n">
-        <v>252002</v>
+        <v>252601</v>
       </c>
       <c r="B56" s="6" t="inlineStr">
         <is>
@@ -1798,23 +1808,21 @@
       </c>
       <c r="C56" s="6" t="inlineStr">
         <is>
-          <t>04-09-2025 12:00:00</t>
+          <t>09-09-2025 08:11:03</t>
         </is>
       </c>
       <c r="D56" s="6" t="inlineStr">
         <is>
-          <t>04-09-2025 12:55:00</t>
-        </is>
-      </c>
-      <c r="E56" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>09-09-2025 08:41:03</t>
+        </is>
+      </c>
+      <c r="E56" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="6" t="n">
-        <v>253140</v>
+        <v>253314</v>
       </c>
       <c r="B57" s="6" t="inlineStr">
         <is>
@@ -1823,838 +1831,876 @@
       </c>
       <c r="C57" s="6" t="inlineStr">
         <is>
-          <t>04-09-2025 13:50:40</t>
+          <t>09-09-2025 09:32:16</t>
         </is>
       </c>
       <c r="D57" s="6" t="inlineStr">
         <is>
-          <t>04-09-2025 14:30:40</t>
-        </is>
-      </c>
-      <c r="E57" s="6" t="n">
-        <v>0</v>
+          <t>09-09-2025 10:57:16</t>
+        </is>
+      </c>
+      <c r="E57" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="6" t="n">
-        <v>253314</v>
-      </c>
-      <c r="B58" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C58" s="6" t="inlineStr">
-        <is>
-          <t>05-09-2025 07:26:30</t>
-        </is>
-      </c>
-      <c r="D58" s="6" t="inlineStr">
-        <is>
-          <t>05-09-2025 07:56:30</t>
-        </is>
-      </c>
-      <c r="E58" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="A58" s="7" t="n">
+        <v>252906</v>
+      </c>
+      <c r="B58" s="7" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C58" s="7" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D58" s="7" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:17:00</t>
+        </is>
+      </c>
+      <c r="E58" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="6" t="n">
-        <v>252679</v>
-      </c>
-      <c r="B59" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C59" s="6" t="inlineStr">
-        <is>
-          <t>05-09-2025 08:39:55</t>
-        </is>
-      </c>
-      <c r="D59" s="6" t="inlineStr">
-        <is>
-          <t>05-09-2025 09:09:55</t>
-        </is>
-      </c>
-      <c r="E59" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="A59" s="7" t="n">
+        <v>252995</v>
+      </c>
+      <c r="B59" s="7" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C59" s="7" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:51:43</t>
+        </is>
+      </c>
+      <c r="D59" s="7" t="inlineStr">
+        <is>
+          <t>08-09-2025 08:08:43</t>
+        </is>
+      </c>
+      <c r="E59" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="6" t="n">
-        <v>252682</v>
-      </c>
-      <c r="B60" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C60" s="6" t="inlineStr">
-        <is>
-          <t>05-09-2025 10:09:55</t>
-        </is>
-      </c>
-      <c r="D60" s="6" t="inlineStr">
-        <is>
-          <t>05-09-2025 10:39:55</t>
-        </is>
-      </c>
-      <c r="E60" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="A60" s="7" t="n">
+        <v>253318</v>
+      </c>
+      <c r="B60" s="7" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C60" s="7" t="inlineStr">
+        <is>
+          <t>08-09-2025 09:17:02</t>
+        </is>
+      </c>
+      <c r="D60" s="7" t="inlineStr">
+        <is>
+          <t>08-09-2025 09:36:02</t>
+        </is>
+      </c>
+      <c r="E60" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="6" t="n">
-        <v>253210</v>
-      </c>
-      <c r="B61" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C61" s="6" t="inlineStr">
-        <is>
-          <t>05-09-2025 12:03:19</t>
-        </is>
-      </c>
-      <c r="D61" s="6" t="inlineStr">
-        <is>
-          <t>05-09-2025 13:23:19</t>
-        </is>
-      </c>
-      <c r="E61" s="6" t="n">
+      <c r="A61" s="7" t="n">
+        <v>253317</v>
+      </c>
+      <c r="B61" s="7" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C61" s="7" t="inlineStr">
+        <is>
+          <t>08-09-2025 10:27:35</t>
+        </is>
+      </c>
+      <c r="D61" s="7" t="inlineStr">
+        <is>
+          <t>08-09-2025 10:42:35</t>
+        </is>
+      </c>
+      <c r="E61" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="6" t="n">
-        <v>253208</v>
-      </c>
-      <c r="B62" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C62" s="6" t="inlineStr">
-        <is>
-          <t>05-09-2025 14:57:29</t>
-        </is>
-      </c>
-      <c r="D62" s="6" t="inlineStr">
-        <is>
-          <t>08-09-2025 07:22:29</t>
-        </is>
-      </c>
-      <c r="E62" s="6" t="n">
+      <c r="A62" s="7" t="n">
+        <v>253249</v>
+      </c>
+      <c r="B62" s="7" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C62" s="7" t="inlineStr">
+        <is>
+          <t>08-09-2025 12:25:22</t>
+        </is>
+      </c>
+      <c r="D62" s="7" t="inlineStr">
+        <is>
+          <t>08-09-2025 12:40:22</t>
+        </is>
+      </c>
+      <c r="E62" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="6" t="n">
-        <v>252685</v>
-      </c>
-      <c r="B63" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C63" s="6" t="inlineStr">
-        <is>
-          <t>08-09-2025 09:06:44</t>
-        </is>
-      </c>
-      <c r="D63" s="6" t="inlineStr">
-        <is>
-          <t>08-09-2025 10:26:44</t>
-        </is>
-      </c>
-      <c r="E63" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="A63" s="8" t="n">
+        <v>253313</v>
+      </c>
+      <c r="B63" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>09-09-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D63" s="8" t="inlineStr">
+        <is>
+          <t>09-09-2025 07:30:00</t>
+        </is>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="6" t="n">
+      <c r="A64" s="8" t="n">
+        <v>244743</v>
+      </c>
+      <c r="B64" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>09-09-2025 09:10:00</t>
+        </is>
+      </c>
+      <c r="D64" s="8" t="inlineStr">
+        <is>
+          <t>09-09-2025 09:45:00</t>
+        </is>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="8" t="n">
+        <v>253361</v>
+      </c>
+      <c r="B65" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>09-09-2025 10:14:21</t>
+        </is>
+      </c>
+      <c r="D65" s="8" t="inlineStr">
+        <is>
+          <t>09-09-2025 10:44:21</t>
+        </is>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="8" t="n">
+        <v>253375</v>
+      </c>
+      <c r="B66" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>09-09-2025 12:01:03</t>
+        </is>
+      </c>
+      <c r="D66" s="8" t="inlineStr">
+        <is>
+          <t>09-09-2025 12:26:03</t>
+        </is>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="8" t="n">
+        <v>253372</v>
+      </c>
+      <c r="B67" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="inlineStr">
+        <is>
+          <t>09-09-2025 13:17:56</t>
+        </is>
+      </c>
+      <c r="D67" s="8" t="inlineStr">
+        <is>
+          <t>09-09-2025 13:42:56</t>
+        </is>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="8" t="n">
+        <v>253332</v>
+      </c>
+      <c r="B68" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C68" s="8" t="inlineStr">
+        <is>
+          <t>10-09-2025 07:26:43</t>
+        </is>
+      </c>
+      <c r="D68" s="8" t="inlineStr">
+        <is>
+          <t>10-09-2025 07:56:43</t>
+        </is>
+      </c>
+      <c r="E68" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="8" t="n">
+        <v>253247</v>
+      </c>
+      <c r="B69" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C69" s="8" t="inlineStr">
+        <is>
+          <t>10-09-2025 11:01:32</t>
+        </is>
+      </c>
+      <c r="D69" s="8" t="inlineStr">
+        <is>
+          <t>10-09-2025 11:36:32</t>
+        </is>
+      </c>
+      <c r="E69" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="8" t="n">
+        <v>253522</v>
+      </c>
+      <c r="B70" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C70" s="8" t="inlineStr">
+        <is>
+          <t>10-09-2025 13:26:07</t>
+        </is>
+      </c>
+      <c r="D70" s="8" t="inlineStr">
+        <is>
+          <t>10-09-2025 13:56:07</t>
+        </is>
+      </c>
+      <c r="E70" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="8" t="n">
+        <v>253245</v>
+      </c>
+      <c r="B71" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C71" s="8" t="inlineStr">
+        <is>
+          <t>11-09-2025 09:14:44</t>
+        </is>
+      </c>
+      <c r="D71" s="8" t="inlineStr">
+        <is>
+          <t>11-09-2025 09:44:44</t>
+        </is>
+      </c>
+      <c r="E71" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="8" t="n">
+        <v>253436</v>
+      </c>
+      <c r="B72" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C72" s="8" t="inlineStr">
+        <is>
+          <t>11-09-2025 12:15:34</t>
+        </is>
+      </c>
+      <c r="D72" s="8" t="inlineStr">
+        <is>
+          <t>11-09-2025 12:50:34</t>
+        </is>
+      </c>
+      <c r="E72" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="8" t="n">
+        <v>253261</v>
+      </c>
+      <c r="B73" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C73" s="8" t="inlineStr">
+        <is>
+          <t>11-09-2025 13:09:25</t>
+        </is>
+      </c>
+      <c r="D73" s="8" t="inlineStr">
+        <is>
+          <t>11-09-2025 13:34:25</t>
+        </is>
+      </c>
+      <c r="E73" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="8" t="n">
         <v>253036</v>
       </c>
-      <c r="B64" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C64" s="6" t="inlineStr">
-        <is>
-          <t>08-09-2025 11:41:18</t>
-        </is>
-      </c>
-      <c r="D64" s="6" t="inlineStr">
-        <is>
-          <t>08-09-2025 12:11:18</t>
-        </is>
-      </c>
-      <c r="E64" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="6" t="n">
-        <v>253524</v>
-      </c>
-      <c r="B65" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C65" s="6" t="inlineStr">
-        <is>
-          <t>08-09-2025 13:30:02</t>
-        </is>
-      </c>
-      <c r="D65" s="6" t="inlineStr">
-        <is>
-          <t>08-09-2025 14:15:02</t>
-        </is>
-      </c>
-      <c r="E65" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="6" t="n">
-        <v>253223</v>
-      </c>
-      <c r="B66" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C66" s="6" t="inlineStr">
-        <is>
-          <t>09-09-2025 07:13:48</t>
-        </is>
-      </c>
-      <c r="D66" s="6" t="inlineStr">
-        <is>
-          <t>09-09-2025 08:28:48</t>
-        </is>
-      </c>
-      <c r="E66" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="6" t="n">
-        <v>252601</v>
-      </c>
-      <c r="B67" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C67" s="6" t="inlineStr">
-        <is>
-          <t>09-09-2025 08:45:12</t>
-        </is>
-      </c>
-      <c r="D67" s="6" t="inlineStr">
-        <is>
-          <t>09-09-2025 09:15:12</t>
-        </is>
-      </c>
-      <c r="E67" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="6" t="n">
-        <v>252582</v>
-      </c>
-      <c r="B68" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C68" s="6" t="inlineStr">
-        <is>
-          <t>09-09-2025 10:06:24</t>
-        </is>
-      </c>
-      <c r="D68" s="6" t="inlineStr">
-        <is>
-          <t>09-09-2025 11:36:24</t>
-        </is>
-      </c>
-      <c r="E68" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="6" t="n">
-        <v>253359</v>
-      </c>
-      <c r="B69" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C69" s="6" t="inlineStr">
-        <is>
-          <t>09-09-2025 12:22:29</t>
-        </is>
-      </c>
-      <c r="D69" s="6" t="inlineStr">
-        <is>
-          <t>09-09-2025 13:07:29</t>
-        </is>
-      </c>
-      <c r="E69" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="6" t="n">
-        <v>253245</v>
-      </c>
-      <c r="B70" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C70" s="6" t="inlineStr">
-        <is>
-          <t>10-09-2025 07:21:30</t>
-        </is>
-      </c>
-      <c r="D70" s="6" t="inlineStr">
-        <is>
-          <t>10-09-2025 07:51:30</t>
-        </is>
-      </c>
-      <c r="E70" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="6" t="n">
-        <v>253317</v>
-      </c>
-      <c r="B71" s="6" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C71" s="6" t="inlineStr">
-        <is>
-          <t>08-09-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="D71" s="6" t="inlineStr">
-        <is>
-          <t>08-09-2025 07:19:00</t>
-        </is>
-      </c>
-      <c r="E71" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="6" t="n">
-        <v>253318</v>
-      </c>
-      <c r="B72" s="6" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C72" s="6" t="inlineStr">
-        <is>
-          <t>08-09-2025 09:01:46</t>
-        </is>
-      </c>
-      <c r="D72" s="6" t="inlineStr">
-        <is>
-          <t>08-09-2025 09:16:46</t>
-        </is>
-      </c>
-      <c r="E72" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="6" t="n">
-        <v>253249</v>
-      </c>
-      <c r="B73" s="6" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C73" s="6" t="inlineStr">
-        <is>
-          <t>08-09-2025 10:08:19</t>
-        </is>
-      </c>
-      <c r="D73" s="6" t="inlineStr">
-        <is>
-          <t>08-09-2025 10:23:19</t>
-        </is>
-      </c>
-      <c r="E73" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="6" t="n">
-        <v>253706</v>
-      </c>
-      <c r="B74" s="6" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C74" s="6" t="inlineStr">
-        <is>
-          <t>08-09-2025 11:21:05</t>
-        </is>
-      </c>
-      <c r="D74" s="6" t="inlineStr">
-        <is>
-          <t>08-09-2025 11:46:05</t>
-        </is>
-      </c>
-      <c r="E74" s="6" t="n">
+      <c r="B74" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C74" s="8" t="inlineStr">
+        <is>
+          <t>11-09-2025 13:53:16</t>
+        </is>
+      </c>
+      <c r="D74" s="8" t="inlineStr">
+        <is>
+          <t>11-09-2025 14:38:16</t>
+        </is>
+      </c>
+      <c r="E74" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="6" t="n">
-        <v>252569</v>
-      </c>
-      <c r="B75" s="6" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C75" s="6" t="inlineStr">
-        <is>
-          <t>09-09-2025 08:57:05</t>
-        </is>
-      </c>
-      <c r="D75" s="6" t="inlineStr">
-        <is>
-          <t>09-09-2025 09:22:05</t>
-        </is>
-      </c>
-      <c r="E75" s="6" t="n">
+      <c r="A75" s="8" t="n">
+        <v>252529</v>
+      </c>
+      <c r="B75" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C75" s="8" t="inlineStr">
+        <is>
+          <t>12-09-2025 07:57:00</t>
+        </is>
+      </c>
+      <c r="D75" s="8" t="inlineStr">
+        <is>
+          <t>12-09-2025 08:32:00</t>
+        </is>
+      </c>
+      <c r="E75" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="6" t="n">
-        <v>253409</v>
-      </c>
-      <c r="B76" s="6" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C76" s="6" t="inlineStr">
-        <is>
-          <t>09-09-2025 09:31:40</t>
-        </is>
-      </c>
-      <c r="D76" s="6" t="inlineStr">
-        <is>
-          <t>09-09-2025 09:50:40</t>
-        </is>
-      </c>
-      <c r="E76" s="6" t="n">
+      <c r="A76" s="8" t="n">
+        <v>253668</v>
+      </c>
+      <c r="B76" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C76" s="8" t="inlineStr">
+        <is>
+          <t>12-09-2025 09:40:05</t>
+        </is>
+      </c>
+      <c r="D76" s="8" t="inlineStr">
+        <is>
+          <t>12-09-2025 10:15:05</t>
+        </is>
+      </c>
+      <c r="E76" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="6" t="n">
-        <v>253194</v>
-      </c>
-      <c r="B77" s="6" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C77" s="6" t="inlineStr">
-        <is>
-          <t>09-09-2025 10:17:51</t>
-        </is>
-      </c>
-      <c r="D77" s="6" t="inlineStr">
-        <is>
-          <t>09-09-2025 10:32:51</t>
-        </is>
-      </c>
-      <c r="E77" s="6" t="n">
+      <c r="A77" s="8" t="n">
+        <v>253455</v>
+      </c>
+      <c r="B77" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C77" s="8" t="inlineStr">
+        <is>
+          <t>12-09-2025 13:24:57</t>
+        </is>
+      </c>
+      <c r="D77" s="8" t="inlineStr">
+        <is>
+          <t>12-09-2025 13:59:57</t>
+        </is>
+      </c>
+      <c r="E77" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="6" t="n">
-        <v>253602</v>
-      </c>
-      <c r="B78" s="6" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C78" s="6" t="inlineStr">
-        <is>
-          <t>09-09-2025 13:51:56</t>
-        </is>
-      </c>
-      <c r="D78" s="6" t="inlineStr">
-        <is>
-          <t>09-09-2025 14:10:56</t>
-        </is>
-      </c>
-      <c r="E78" s="6" t="n">
+      <c r="A78" s="8" t="n">
+        <v>253392</v>
+      </c>
+      <c r="B78" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C78" s="8" t="inlineStr">
+        <is>
+          <t>12-09-2025 14:55:31</t>
+        </is>
+      </c>
+      <c r="D78" s="8" t="inlineStr">
+        <is>
+          <t>15-09-2025 07:25:31</t>
+        </is>
+      </c>
+      <c r="E78" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="7" t="n">
-        <v>253246</v>
-      </c>
-      <c r="B79" s="7" t="inlineStr">
+      <c r="A79" s="8" t="n">
+        <v>253244</v>
+      </c>
+      <c r="B79" s="8" t="inlineStr">
         <is>
           <t>R5</t>
         </is>
       </c>
-      <c r="C79" s="7" t="inlineStr">
-        <is>
-          <t>09-09-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="D79" s="7" t="inlineStr">
-        <is>
-          <t>09-09-2025 07:35:00</t>
-        </is>
-      </c>
-      <c r="E79" s="7" t="n">
+      <c r="C79" s="8" t="inlineStr">
+        <is>
+          <t>15-09-2025 09:34:54</t>
+        </is>
+      </c>
+      <c r="D79" s="8" t="inlineStr">
+        <is>
+          <t>15-09-2025 10:04:54</t>
+        </is>
+      </c>
+      <c r="E79" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="8" t="n">
-        <v>253362</v>
+        <v>253528</v>
       </c>
       <c r="B80" s="8" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C80" s="8" t="inlineStr">
         <is>
-          <t>05-09-2025 07:00:00</t>
+          <t>15-09-2025 12:51:24</t>
         </is>
       </c>
       <c r="D80" s="8" t="inlineStr">
         <is>
-          <t>05-09-2025 07:35:00</t>
-        </is>
-      </c>
-      <c r="E80" s="8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>15-09-2025 13:21:24</t>
+        </is>
+      </c>
+      <c r="E80" s="8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="8" t="n">
-        <v>252702</v>
+        <v>253367</v>
       </c>
       <c r="B81" s="8" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C81" s="8" t="inlineStr">
         <is>
-          <t>05-09-2025 08:33:23</t>
+          <t>16-09-2025 07:20:34</t>
         </is>
       </c>
       <c r="D81" s="8" t="inlineStr">
         <is>
-          <t>05-09-2025 08:58:23</t>
-        </is>
-      </c>
-      <c r="E81" s="8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>16-09-2025 07:50:34</t>
+        </is>
+      </c>
+      <c r="E81" s="8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="8" t="n">
-        <v>253591</v>
+        <v>253393</v>
       </c>
       <c r="B82" s="8" t="inlineStr">
         <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C82" s="8" t="inlineStr">
+        <is>
+          <t>16-09-2025 10:06:16</t>
+        </is>
+      </c>
+      <c r="D82" s="8" t="inlineStr">
+        <is>
+          <t>16-09-2025 10:36:16</t>
+        </is>
+      </c>
+      <c r="E82" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="5" t="n">
+        <v>253016</v>
+      </c>
+      <c r="B83" s="5" t="inlineStr">
+        <is>
           <t>R9</t>
         </is>
       </c>
-      <c r="C82" s="8" t="inlineStr">
-        <is>
-          <t>05-09-2025 09:56:46</t>
-        </is>
-      </c>
-      <c r="D82" s="8" t="inlineStr">
-        <is>
-          <t>05-09-2025 10:36:46</t>
-        </is>
-      </c>
-      <c r="E82" s="8" t="inlineStr">
+      <c r="C83" s="5" t="inlineStr">
+        <is>
+          <t>05-09-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D83" s="5" t="inlineStr">
+        <is>
+          <t>05-09-2025 07:30:00</t>
+        </is>
+      </c>
+      <c r="E83" s="5" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="8" t="n">
-        <v>250284</v>
-      </c>
-      <c r="B83" s="8" t="inlineStr">
+    <row r="84">
+      <c r="A84" s="5" t="n">
+        <v>253425</v>
+      </c>
+      <c r="B84" s="5" t="inlineStr">
         <is>
           <t>R9</t>
         </is>
       </c>
-      <c r="C83" s="8" t="inlineStr">
-        <is>
-          <t>05-09-2025 10:54:11</t>
-        </is>
-      </c>
-      <c r="D83" s="8" t="inlineStr">
-        <is>
-          <t>05-09-2025 11:49:11</t>
-        </is>
-      </c>
-      <c r="E83" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="8" t="n">
-        <v>253072</v>
-      </c>
-      <c r="B84" s="8" t="inlineStr">
+      <c r="C84" s="5" t="inlineStr">
+        <is>
+          <t>05-09-2025 08:43:23</t>
+        </is>
+      </c>
+      <c r="D84" s="5" t="inlineStr">
+        <is>
+          <t>05-09-2025 09:28:23</t>
+        </is>
+      </c>
+      <c r="E84" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="5" t="n">
+        <v>252702</v>
+      </c>
+      <c r="B85" s="5" t="inlineStr">
         <is>
           <t>R9</t>
         </is>
       </c>
-      <c r="C84" s="8" t="inlineStr">
-        <is>
-          <t>05-09-2025 14:15:32</t>
-        </is>
-      </c>
-      <c r="D84" s="8" t="inlineStr">
-        <is>
-          <t>05-09-2025 14:50:32</t>
-        </is>
-      </c>
-      <c r="E84" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="8" t="n">
-        <v>253278</v>
-      </c>
-      <c r="B85" s="8" t="inlineStr">
+      <c r="C85" s="5" t="inlineStr">
+        <is>
+          <t>05-09-2025 11:54:44</t>
+        </is>
+      </c>
+      <c r="D85" s="5" t="inlineStr">
+        <is>
+          <t>05-09-2025 12:34:44</t>
+        </is>
+      </c>
+      <c r="E85" s="5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="5" t="n">
+        <v>252827</v>
+      </c>
+      <c r="B86" s="5" t="inlineStr">
         <is>
           <t>R9</t>
         </is>
       </c>
-      <c r="C85" s="8" t="inlineStr">
-        <is>
-          <t>08-09-2025 07:19:40</t>
-        </is>
-      </c>
-      <c r="D85" s="8" t="inlineStr">
-        <is>
-          <t>08-09-2025 07:44:40</t>
-        </is>
-      </c>
-      <c r="E85" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="8" t="n">
-        <v>253259</v>
-      </c>
-      <c r="B86" s="8" t="inlineStr">
+      <c r="C86" s="5" t="inlineStr">
+        <is>
+          <t>05-09-2025 13:33:07</t>
+        </is>
+      </c>
+      <c r="D86" s="5" t="inlineStr">
+        <is>
+          <t>05-09-2025 14:08:07</t>
+        </is>
+      </c>
+      <c r="E86" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="5" t="n">
+        <v>252679</v>
+      </c>
+      <c r="B87" s="5" t="inlineStr">
         <is>
           <t>R9</t>
         </is>
       </c>
-      <c r="C86" s="8" t="inlineStr">
-        <is>
-          <t>08-09-2025 08:13:05</t>
-        </is>
-      </c>
-      <c r="D86" s="8" t="inlineStr">
-        <is>
-          <t>08-09-2025 08:58:05</t>
-        </is>
-      </c>
-      <c r="E86" s="8" t="inlineStr">
+      <c r="C87" s="5" t="inlineStr">
+        <is>
+          <t>08-09-2025 12:58:07</t>
+        </is>
+      </c>
+      <c r="D87" s="5" t="inlineStr">
+        <is>
+          <t>08-09-2025 13:38:07</t>
+        </is>
+      </c>
+      <c r="E87" s="5" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="8" t="n">
-        <v>244023</v>
-      </c>
-      <c r="B87" s="8" t="inlineStr">
+    <row r="88">
+      <c r="A88" s="5" t="n">
+        <v>253706</v>
+      </c>
+      <c r="B88" s="5" t="inlineStr">
         <is>
           <t>R9</t>
         </is>
       </c>
-      <c r="C87" s="8" t="inlineStr">
-        <is>
-          <t>08-09-2025 10:07:19</t>
-        </is>
-      </c>
-      <c r="D87" s="8" t="inlineStr">
-        <is>
-          <t>08-09-2025 10:52:19</t>
-        </is>
-      </c>
-      <c r="E87" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="8" t="n">
-        <v>252843</v>
-      </c>
-      <c r="B88" s="8" t="inlineStr">
+      <c r="C88" s="5" t="inlineStr">
+        <is>
+          <t>08-09-2025 14:38:07</t>
+        </is>
+      </c>
+      <c r="D88" s="5" t="inlineStr">
+        <is>
+          <t>09-09-2025 07:18:07</t>
+        </is>
+      </c>
+      <c r="E88" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="5" t="n">
+        <v>253362</v>
+      </c>
+      <c r="B89" s="5" t="inlineStr">
         <is>
           <t>R9</t>
         </is>
       </c>
-      <c r="C88" s="8" t="inlineStr">
-        <is>
-          <t>08-09-2025 11:00:38</t>
-        </is>
-      </c>
-      <c r="D88" s="8" t="inlineStr">
-        <is>
-          <t>08-09-2025 11:45:38</t>
-        </is>
-      </c>
-      <c r="E88" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="8" t="n">
-        <v>243569</v>
-      </c>
-      <c r="B89" s="8" t="inlineStr">
+      <c r="C89" s="5" t="inlineStr">
+        <is>
+          <t>09-09-2025 12:29:07</t>
+        </is>
+      </c>
+      <c r="D89" s="5" t="inlineStr">
+        <is>
+          <t>09-09-2025 13:24:07</t>
+        </is>
+      </c>
+      <c r="E89" s="5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="5" t="n">
+        <v>253524</v>
+      </c>
+      <c r="B90" s="5" t="inlineStr">
         <is>
           <t>R9</t>
         </is>
       </c>
-      <c r="C89" s="8" t="inlineStr">
-        <is>
-          <t>08-09-2025 12:04:50</t>
-        </is>
-      </c>
-      <c r="D89" s="8" t="inlineStr">
-        <is>
-          <t>08-09-2025 12:59:50</t>
-        </is>
-      </c>
-      <c r="E89" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="8" t="n">
-        <v>253271</v>
-      </c>
-      <c r="B90" s="8" t="inlineStr">
+      <c r="C90" s="5" t="inlineStr">
+        <is>
+          <t>09-09-2025 14:22:30</t>
+        </is>
+      </c>
+      <c r="D90" s="5" t="inlineStr">
+        <is>
+          <t>10-09-2025 07:02:30</t>
+        </is>
+      </c>
+      <c r="E90" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="5" t="n">
+        <v>253260</v>
+      </c>
+      <c r="B91" s="5" t="inlineStr">
         <is>
           <t>R9</t>
         </is>
       </c>
-      <c r="C90" s="8" t="inlineStr">
-        <is>
-          <t>08-09-2025 13:21:30</t>
-        </is>
-      </c>
-      <c r="D90" s="8" t="inlineStr">
-        <is>
-          <t>08-09-2025 14:06:30</t>
-        </is>
-      </c>
-      <c r="E90" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="8" t="n">
-        <v>253527</v>
-      </c>
-      <c r="B91" s="8" t="inlineStr">
+      <c r="C91" s="5" t="inlineStr">
+        <is>
+          <t>10-09-2025 08:01:15</t>
+        </is>
+      </c>
+      <c r="D91" s="5" t="inlineStr">
+        <is>
+          <t>10-09-2025 08:31:15</t>
+        </is>
+      </c>
+      <c r="E91" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="5" t="n">
+        <v>253359</v>
+      </c>
+      <c r="B92" s="5" t="inlineStr">
         <is>
           <t>R9</t>
         </is>
       </c>
-      <c r="C91" s="8" t="inlineStr">
-        <is>
-          <t>08-09-2025 14:49:08</t>
-        </is>
-      </c>
-      <c r="D91" s="8" t="inlineStr">
-        <is>
-          <t>09-09-2025 07:29:08</t>
-        </is>
-      </c>
-      <c r="E91" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="9" t="n">
+      <c r="C92" s="5" t="inlineStr">
+        <is>
+          <t>10-09-2025 10:20:40</t>
+        </is>
+      </c>
+      <c r="D92" s="5" t="inlineStr">
+        <is>
+          <t>10-09-2025 10:50:40</t>
+        </is>
+      </c>
+      <c r="E92" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="5" t="n">
+        <v>253721</v>
+      </c>
+      <c r="B93" s="5" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C93" s="5" t="inlineStr">
+        <is>
+          <t>10-09-2025 13:04:41</t>
+        </is>
+      </c>
+      <c r="D93" s="5" t="inlineStr">
+        <is>
+          <t>10-09-2025 13:39:41</t>
+        </is>
+      </c>
+      <c r="E93" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="9" t="n">
         <v>252980</v>
       </c>
-      <c r="B92" s="9" t="inlineStr">
+      <c r="B94" s="9" t="inlineStr">
         <is>
           <t>T3</t>
         </is>
       </c>
-      <c r="C92" s="9" t="inlineStr">
+      <c r="C94" s="9" t="inlineStr">
         <is>
           <t>08-09-2025 07:00:00</t>
         </is>
       </c>
-      <c r="D92" s="9" t="inlineStr">
+      <c r="D94" s="9" t="inlineStr">
         <is>
           <t>08-09-2025 07:00:00</t>
         </is>
       </c>
-      <c r="E92" s="9" t="n">
+      <c r="E94" s="9" t="n">
         <v>0</v>
       </c>
     </row>

--- a/PS-VRP/Dati_output/output_ridotto.xlsx
+++ b/PS-VRP/Dati_output/output_ridotto.xlsx
@@ -38,26 +38,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FFF2CC"/>
+        <bgColor rgb="00FFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00F4CCCC"/>
         <bgColor rgb="00F4CCCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFF2CC"/>
-        <bgColor rgb="00FFF2CC"/>
+        <fgColor rgb="00D5E8D4"/>
+        <bgColor rgb="00D5E8D4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CCE5FF"/>
+        <bgColor rgb="00CCE5FF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00E2EFDA"/>
         <bgColor rgb="00E2EFDA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CCE5FF"/>
-        <bgColor rgb="00CCE5FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -76,12 +82,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00EAD1DC"/>
         <bgColor rgb="00EAD1DC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D5E8D4"/>
-        <bgColor rgb="00D5E8D4"/>
       </patternFill>
     </fill>
   </fills>
@@ -541,7 +541,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>253409</v>
+        <v>253425</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>253284</v>
+        <v>252833</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
@@ -573,12 +573,12 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>08-09-2025 07:44:11</t>
+          <t>08-09-2025 09:43:21</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>08-09-2025 08:01:11</t>
+          <t>08-09-2025 10:17:21</t>
         </is>
       </c>
       <c r="E3" s="2" t="n">
@@ -587,7 +587,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>243569</v>
+        <v>250891</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
@@ -596,12 +596,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>08-09-2025 08:58:10</t>
+          <t>08-09-2025 11:32:08</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>08-09-2025 09:15:10</t>
+          <t>08-09-2025 11:51:08</t>
         </is>
       </c>
       <c r="E4" s="2" t="n">
@@ -610,7 +610,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>253591</v>
+        <v>253527</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
@@ -619,23 +619,21 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>08-09-2025 09:36:51</t>
+          <t>08-09-2025 13:08:37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>08-09-2025 09:55:51</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>08-09-2025 13:27:37</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>250891</v>
+        <v>253706</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
@@ -644,12 +642,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>08-09-2025 10:13:16</t>
+          <t>08-09-2025 14:35:06</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>08-09-2025 10:47:16</t>
+          <t>09-09-2025 07:15:06</t>
         </is>
       </c>
       <c r="E6" s="2" t="n">
@@ -658,7 +656,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>253710</v>
+        <v>252815</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
@@ -667,12 +665,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>08-09-2025 12:04:45</t>
+          <t>09-09-2025 12:26:06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>08-09-2025 12:23:45</t>
+          <t>09-09-2025 12:55:06</t>
         </is>
       </c>
       <c r="E7" s="2" t="n">
@@ -681,7 +679,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>250284</v>
+        <v>253194</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
@@ -690,12 +688,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>08-09-2025 12:25:22</t>
+          <t>10-09-2025 08:58:03</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>08-09-2025 12:50:22</t>
+          <t>10-09-2025 09:23:03</t>
         </is>
       </c>
       <c r="E8" s="2" t="n">
@@ -704,7 +702,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>252939</v>
+        <v>253260</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
@@ -713,12 +711,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>09-09-2025 07:16:43</t>
+          <t>10-09-2025 12:42:08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>09-09-2025 07:41:43</t>
+          <t>10-09-2025 13:14:08</t>
         </is>
       </c>
       <c r="E9" s="2" t="n">
@@ -727,7 +725,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>252815</v>
+        <v>253721</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
@@ -736,12 +734,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>09-09-2025 09:11:31</t>
+          <t>11-09-2025 07:03:32</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>09-09-2025 09:51:31</t>
+          <t>11-09-2025 07:20:32</t>
         </is>
       </c>
       <c r="E10" s="2" t="n">
@@ -749,215 +747,219 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>253100</v>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>BIMEC 3</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>09-09-2025 13:54:28</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>09-09-2025 14:32:28</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="n">
+      <c r="A11" s="3" t="n">
+        <v>252827</v>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:27:00</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>253246</v>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>BIMEC 3</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>10-09-2025 07:19:49</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>10-09-2025 07:34:49</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>0</v>
+      <c r="A12" s="4" t="n">
+        <v>253016</v>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>05-09-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D12" s="4" t="inlineStr">
+        <is>
+          <t>05-09-2025 07:32:00</t>
+        </is>
+      </c>
+      <c r="E12" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>253374</v>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t>BIMEC 3</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>10-09-2025 10:49:04</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>10-09-2025 11:10:04</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="n">
+      <c r="A13" s="4" t="n">
+        <v>253409</v>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>05-09-2025 08:45:23</t>
+        </is>
+      </c>
+      <c r="D13" s="4" t="inlineStr">
+        <is>
+          <t>05-09-2025 09:17:23</t>
+        </is>
+      </c>
+      <c r="E13" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="n">
-        <v>252569</v>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>08-09-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>08-09-2025 07:29:00</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="n">
+      <c r="A14" s="4" t="n">
+        <v>250284</v>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>05-09-2025 09:44:34</t>
+        </is>
+      </c>
+      <c r="D14" s="4" t="inlineStr">
+        <is>
+          <t>05-09-2025 10:24:34</t>
+        </is>
+      </c>
+      <c r="E14" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="n">
-        <v>253072</v>
-      </c>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>08-09-2025 07:38:35</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>08-09-2025 08:24:35</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="n">
-        <v>0</v>
+      <c r="A15" s="4" t="n">
+        <v>252664</v>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>05-09-2025 12:50:55</t>
+        </is>
+      </c>
+      <c r="D15" s="4" t="inlineStr">
+        <is>
+          <t>05-09-2025 13:17:55</t>
+        </is>
+      </c>
+      <c r="E15" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="n">
-        <v>252833</v>
-      </c>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>08-09-2025 08:53:43</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t>08-09-2025 09:24:43</t>
-        </is>
-      </c>
-      <c r="E16" s="3" t="n">
+      <c r="A16" s="4" t="n">
+        <v>253710</v>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>08-09-2025 11:23:53</t>
+        </is>
+      </c>
+      <c r="D16" s="4" t="inlineStr">
+        <is>
+          <t>08-09-2025 11:40:53</t>
+        </is>
+      </c>
+      <c r="E16" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="n">
-        <v>253194</v>
-      </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>08-09-2025 10:39:30</t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>08-09-2025 11:23:30</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="n">
+      <c r="A17" s="4" t="n">
+        <v>252216</v>
+      </c>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>08-09-2025 11:42:30</t>
+        </is>
+      </c>
+      <c r="D17" s="4" t="inlineStr">
+        <is>
+          <t>08-09-2025 12:11:30</t>
+        </is>
+      </c>
+      <c r="E17" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="n">
+      <c r="A18" s="4" t="n">
         <v>235572</v>
       </c>
-      <c r="B18" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>08-09-2025 14:42:35</t>
-        </is>
-      </c>
-      <c r="D18" s="3" t="inlineStr">
-        <is>
-          <t>09-09-2025 07:26:35</t>
-        </is>
-      </c>
-      <c r="E18" s="3" t="n">
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>08-09-2025 14:33:19</t>
+        </is>
+      </c>
+      <c r="D18" s="4" t="inlineStr">
+        <is>
+          <t>08-09-2025 14:58:19</t>
+        </is>
+      </c>
+      <c r="E18" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="n">
-        <v>253278</v>
-      </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>09-09-2025 08:49:34</t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
-          <t>09-09-2025 09:16:34</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="n">
+      <c r="A19" s="4" t="n">
+        <v>244023</v>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>09-09-2025 08:21:18</t>
+        </is>
+      </c>
+      <c r="D19" s="4" t="inlineStr">
+        <is>
+          <t>09-09-2025 08:38:18</t>
+        </is>
+      </c>
+      <c r="E19" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="n">
-        <v>253095</v>
+        <v>253374</v>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
@@ -966,12 +968,12 @@
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>05-09-2025 07:00:00</t>
+          <t>09-09-2025 08:46:36</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>05-09-2025 07:17:00</t>
+          <t>09-09-2025 09:05:36</t>
         </is>
       </c>
       <c r="E20" s="4" t="n">
@@ -980,7 +982,7 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="n">
-        <v>252216</v>
+        <v>253524</v>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
@@ -989,12 +991,12 @@
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>05-09-2025 08:33:19</t>
+          <t>09-09-2025 10:05:13</t>
         </is>
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>05-09-2025 09:04:19</t>
+          <t>09-09-2025 10:22:13</t>
         </is>
       </c>
       <c r="E21" s="4" t="n">
@@ -1003,7 +1005,7 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="n">
-        <v>253267</v>
+        <v>253095</v>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
@@ -1012,12 +1014,12 @@
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>05-09-2025 11:26:07</t>
+          <t>09-09-2025 11:20:58</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>05-09-2025 11:53:07</t>
+          <t>09-09-2025 11:37:58</t>
         </is>
       </c>
       <c r="E22" s="4" t="n">
@@ -1026,7 +1028,7 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="n">
-        <v>253268</v>
+        <v>252939</v>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
@@ -1035,12 +1037,12 @@
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>05-09-2025 14:37:29</t>
+          <t>09-09-2025 12:54:17</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>05-09-2025 14:52:29</t>
+          <t>09-09-2025 13:11:17</t>
         </is>
       </c>
       <c r="E23" s="4" t="n">
@@ -1049,7 +1051,7 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="n">
-        <v>244023</v>
+        <v>252843</v>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
@@ -1058,12 +1060,12 @@
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>08-09-2025 08:11:03</t>
+          <t>09-09-2025 14:41:05</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>08-09-2025 08:30:03</t>
+          <t>10-09-2025 07:23:05</t>
         </is>
       </c>
       <c r="E24" s="4" t="n">
@@ -1072,7 +1074,7 @@
     </row>
     <row r="25">
       <c r="A25" s="4" t="n">
-        <v>253140</v>
+        <v>253687</v>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
@@ -1081,12 +1083,12 @@
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>08-09-2025 08:38:21</t>
+          <t>10-09-2025 07:42:17</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>08-09-2025 09:14:21</t>
+          <t>10-09-2025 08:20:17</t>
         </is>
       </c>
       <c r="E25" s="4" t="n">
@@ -1095,7 +1097,7 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="n">
-        <v>253259</v>
+        <v>253686</v>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
@@ -1104,23 +1106,21 @@
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>08-09-2025 10:10:11</t>
+          <t>10-09-2025 09:04:31</t>
         </is>
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
-          <t>08-09-2025 10:42:11</t>
-        </is>
-      </c>
-      <c r="E26" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>10-09-2025 09:19:31</t>
+        </is>
+      </c>
+      <c r="E26" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="n">
-        <v>252664</v>
+        <v>253659</v>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
@@ -1129,23 +1129,21 @@
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>08-09-2025 11:51:25</t>
+          <t>10-09-2025 10:03:45</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>08-09-2025 12:08:25</t>
-        </is>
-      </c>
-      <c r="E27" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>10-09-2025 10:18:45</t>
+        </is>
+      </c>
+      <c r="E27" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="n">
-        <v>253271</v>
+        <v>253332</v>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
@@ -1154,12 +1152,12 @@
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>09-09-2025 10:14:24</t>
+          <t>11-09-2025 07:42:30</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>09-09-2025 10:37:24</t>
+          <t>11-09-2025 08:03:30</t>
         </is>
       </c>
       <c r="E28" s="4" t="n">
@@ -1168,7 +1166,7 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="n">
-        <v>253687</v>
+        <v>253668</v>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
@@ -1177,12 +1175,12 @@
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>09-09-2025 11:20:02</t>
+          <t>11-09-2025 11:08:20</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>09-09-2025 11:37:02</t>
+          <t>11-09-2025 11:23:20</t>
         </is>
       </c>
       <c r="E29" s="4" t="n">
@@ -1191,7 +1189,7 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="n">
-        <v>253659</v>
+        <v>253455</v>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
@@ -1200,12 +1198,12 @@
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>09-09-2025 12:21:16</t>
+          <t>11-09-2025 14:33:12</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>09-09-2025 12:36:16</t>
+          <t>11-09-2025 14:52:12</t>
         </is>
       </c>
       <c r="E30" s="4" t="n">
@@ -1214,7 +1212,7 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="n">
-        <v>253686</v>
+        <v>253370</v>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
@@ -1223,12 +1221,12 @@
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>10-09-2025 10:00:01</t>
+          <t>12-09-2025 07:47:45</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>10-09-2025 10:15:01</t>
+          <t>12-09-2025 08:06:45</t>
         </is>
       </c>
       <c r="E31" s="4" t="n">
@@ -1237,7 +1235,7 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="n">
-        <v>253401</v>
+        <v>253377</v>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
@@ -1246,12 +1244,12 @@
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>10-09-2025 10:59:15</t>
+          <t>12-09-2025 11:34:18</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>10-09-2025 11:18:15</t>
+          <t>12-09-2025 11:49:18</t>
         </is>
       </c>
       <c r="E32" s="4" t="n">
@@ -1260,7 +1258,7 @@
     </row>
     <row r="33">
       <c r="A33" s="4" t="n">
-        <v>253370</v>
+        <v>253368</v>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
@@ -1269,12 +1267,12 @@
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>10-09-2025 11:41:04</t>
+          <t>12-09-2025 13:57:01</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>10-09-2025 11:58:04</t>
+          <t>12-09-2025 14:12:01</t>
         </is>
       </c>
       <c r="E33" s="4" t="n">
@@ -1283,7 +1281,7 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="n">
-        <v>253368</v>
+        <v>253367</v>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
@@ -1292,12 +1290,12 @@
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>11-09-2025 07:25:36</t>
+          <t>15-09-2025 07:55:47</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t>11-09-2025 07:40:36</t>
+          <t>15-09-2025 08:10:47</t>
         </is>
       </c>
       <c r="E34" s="4" t="n">
@@ -1306,7 +1304,7 @@
     </row>
     <row r="35">
       <c r="A35" s="4" t="n">
-        <v>253371</v>
+        <v>253376</v>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
@@ -1315,12 +1313,12 @@
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>11-09-2025 09:24:23</t>
+          <t>15-09-2025 10:26:29</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>11-09-2025 09:39:23</t>
+          <t>15-09-2025 10:41:29</t>
         </is>
       </c>
       <c r="E35" s="4" t="n">
@@ -1329,7 +1327,7 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="n">
-        <v>253376</v>
+        <v>253525</v>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
@@ -1338,12 +1336,12 @@
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>11-09-2025 11:27:09</t>
+          <t>15-09-2025 13:41:06</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t>11-09-2025 11:42:09</t>
+          <t>15-09-2025 13:56:06</t>
         </is>
       </c>
       <c r="E36" s="4" t="n">
@@ -1352,7 +1350,7 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="n">
-        <v>252741</v>
+        <v>253528</v>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
@@ -1361,12 +1359,12 @@
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>11-09-2025 14:41:45</t>
+          <t>16-09-2025 07:28:14</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>12-09-2025 07:02:45</t>
+          <t>16-09-2025 07:45:14</t>
         </is>
       </c>
       <c r="E37" s="4" t="n">
@@ -1375,7 +1373,7 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="n">
-        <v>252397</v>
+        <v>253522</v>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
@@ -1384,12 +1382,12 @@
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>12-09-2025 08:04:15</t>
+          <t>16-09-2025 09:44:25</t>
         </is>
       </c>
       <c r="D38" s="4" t="inlineStr">
         <is>
-          <t>12-09-2025 08:36:15</t>
+          <t>16-09-2025 09:59:25</t>
         </is>
       </c>
       <c r="E38" s="4" t="n">
@@ -1397,189 +1395,197 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="n">
-        <v>253295</v>
-      </c>
-      <c r="B39" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C39" s="4" t="inlineStr">
-        <is>
-          <t>12-09-2025 10:32:10</t>
-        </is>
-      </c>
-      <c r="D39" s="4" t="inlineStr">
-        <is>
-          <t>12-09-2025 11:04:10</t>
-        </is>
-      </c>
-      <c r="E39" s="4" t="inlineStr">
+      <c r="A39" s="5" t="n">
+        <v>253223</v>
+      </c>
+      <c r="B39" s="5" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C39" s="5" t="inlineStr">
+        <is>
+          <t>09-09-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D39" s="5" t="inlineStr">
+        <is>
+          <t>09-09-2025 07:54:30</t>
+        </is>
+      </c>
+      <c r="E39" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="n">
+        <v>252569</v>
+      </c>
+      <c r="B40" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C40" s="6" t="inlineStr">
+        <is>
+          <t>04-09-2025 12:00:00</t>
+        </is>
+      </c>
+      <c r="D40" s="6" t="inlineStr">
+        <is>
+          <t>04-09-2025 12:50:00</t>
+        </is>
+      </c>
+      <c r="E40" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="n">
+        <v>253140</v>
+      </c>
+      <c r="B41" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C41" s="6" t="inlineStr">
+        <is>
+          <t>04-09-2025 12:59:35</t>
+        </is>
+      </c>
+      <c r="D41" s="6" t="inlineStr">
+        <is>
+          <t>04-09-2025 13:34:35</t>
+        </is>
+      </c>
+      <c r="E41" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="n">
+        <v>252682</v>
+      </c>
+      <c r="B42" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C42" s="6" t="inlineStr">
+        <is>
+          <t>04-09-2025 14:30:25</t>
+        </is>
+      </c>
+      <c r="D42" s="6" t="inlineStr">
+        <is>
+          <t>05-09-2025 07:00:25</t>
+        </is>
+      </c>
+      <c r="E42" s="6" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="4" t="n">
-        <v>253549</v>
-      </c>
-      <c r="B40" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C40" s="4" t="inlineStr">
-        <is>
-          <t>12-09-2025 14:54:15</t>
-        </is>
-      </c>
-      <c r="D40" s="4" t="inlineStr">
-        <is>
-          <t>15-09-2025 07:11:15</t>
-        </is>
-      </c>
-      <c r="E40" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="4" t="n">
-        <v>253525</v>
-      </c>
-      <c r="B41" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C41" s="4" t="inlineStr">
-        <is>
-          <t>15-09-2025 09:54:55</t>
-        </is>
-      </c>
-      <c r="D41" s="4" t="inlineStr">
-        <is>
-          <t>15-09-2025 10:17:55</t>
-        </is>
-      </c>
-      <c r="E41" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="4" t="n">
-        <v>253377</v>
-      </c>
-      <c r="B42" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C42" s="4" t="inlineStr">
-        <is>
-          <t>15-09-2025 11:50:03</t>
-        </is>
-      </c>
-      <c r="D42" s="4" t="inlineStr">
-        <is>
-          <t>15-09-2025 12:05:03</t>
-        </is>
-      </c>
-      <c r="E42" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
     <row r="43">
-      <c r="A43" s="4" t="n">
-        <v>253472</v>
-      </c>
-      <c r="B43" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C43" s="4" t="inlineStr">
-        <is>
-          <t>15-09-2025 14:12:46</t>
-        </is>
-      </c>
-      <c r="D43" s="4" t="inlineStr">
-        <is>
-          <t>15-09-2025 14:33:46</t>
-        </is>
-      </c>
-      <c r="E43" s="4" t="n">
-        <v>0</v>
+      <c r="A43" s="6" t="n">
+        <v>252679</v>
+      </c>
+      <c r="B43" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="inlineStr">
+        <is>
+          <t>05-09-2025 08:23:49</t>
+        </is>
+      </c>
+      <c r="D43" s="6" t="inlineStr">
+        <is>
+          <t>05-09-2025 08:53:49</t>
+        </is>
+      </c>
+      <c r="E43" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="4" t="n">
-        <v>252274</v>
-      </c>
-      <c r="B44" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C44" s="4" t="inlineStr">
-        <is>
-          <t>16-09-2025 11:25:34</t>
-        </is>
-      </c>
-      <c r="D44" s="4" t="inlineStr">
-        <is>
-          <t>16-09-2025 12:03:34</t>
-        </is>
-      </c>
-      <c r="E44" s="4" t="n">
-        <v>0</v>
+      <c r="A44" s="6" t="n">
+        <v>252685</v>
+      </c>
+      <c r="B44" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="inlineStr">
+        <is>
+          <t>05-09-2025 09:53:49</t>
+        </is>
+      </c>
+      <c r="D44" s="6" t="inlineStr">
+        <is>
+          <t>05-09-2025 10:23:49</t>
+        </is>
+      </c>
+      <c r="E44" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="4" t="n">
-        <v>253602</v>
-      </c>
-      <c r="B45" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C45" s="4" t="inlineStr">
-        <is>
-          <t>16-09-2025 14:56:59</t>
-        </is>
-      </c>
-      <c r="D45" s="4" t="inlineStr">
-        <is>
-          <t>17-09-2025 07:19:59</t>
-        </is>
-      </c>
-      <c r="E45" s="4" t="n">
-        <v>0</v>
+      <c r="A45" s="6" t="n">
+        <v>253314</v>
+      </c>
+      <c r="B45" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="inlineStr">
+        <is>
+          <t>05-09-2025 11:38:23</t>
+        </is>
+      </c>
+      <c r="D45" s="6" t="inlineStr">
+        <is>
+          <t>05-09-2025 12:18:23</t>
+        </is>
+      </c>
+      <c r="E45" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="5" t="n">
-        <v>253527</v>
-      </c>
-      <c r="B46" s="5" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C46" s="5" t="inlineStr">
-        <is>
-          <t>09-09-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="D46" s="5" t="inlineStr">
-        <is>
-          <t>09-09-2025 07:34:30</t>
-        </is>
-      </c>
-      <c r="E46" s="5" t="n">
-        <v>0</v>
+      <c r="A46" s="6" t="n">
+        <v>252582</v>
+      </c>
+      <c r="B46" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C46" s="6" t="inlineStr">
+        <is>
+          <t>05-09-2025 13:01:48</t>
+        </is>
+      </c>
+      <c r="D46" s="6" t="inlineStr">
+        <is>
+          <t>05-09-2025 13:31:48</t>
+        </is>
+      </c>
+      <c r="E46" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -1593,12 +1599,12 @@
       </c>
       <c r="C47" s="6" t="inlineStr">
         <is>
-          <t>04-09-2025 12:00:00</t>
+          <t>05-09-2025 14:17:53</t>
         </is>
       </c>
       <c r="D47" s="6" t="inlineStr">
         <is>
-          <t>04-09-2025 12:55:00</t>
+          <t>05-09-2025 14:57:53</t>
         </is>
       </c>
       <c r="E47" s="6" t="inlineStr">
@@ -1609,7 +1615,7 @@
     </row>
     <row r="48">
       <c r="A48" s="6" t="n">
-        <v>252883</v>
+        <v>253036</v>
       </c>
       <c r="B48" s="6" t="inlineStr">
         <is>
@@ -1618,12 +1624,12 @@
       </c>
       <c r="C48" s="6" t="inlineStr">
         <is>
-          <t>04-09-2025 13:50:40</t>
+          <t>08-09-2025 07:53:33</t>
         </is>
       </c>
       <c r="D48" s="6" t="inlineStr">
         <is>
-          <t>04-09-2025 14:55:40</t>
+          <t>08-09-2025 08:33:33</t>
         </is>
       </c>
       <c r="E48" s="6" t="n">
@@ -1632,7 +1638,7 @@
     </row>
     <row r="49">
       <c r="A49" s="6" t="n">
-        <v>252682</v>
+        <v>252601</v>
       </c>
       <c r="B49" s="6" t="inlineStr">
         <is>
@@ -1641,23 +1647,21 @@
       </c>
       <c r="C49" s="6" t="inlineStr">
         <is>
-          <t>05-09-2025 11:02:59</t>
+          <t>08-09-2025 09:52:17</t>
         </is>
       </c>
       <c r="D49" s="6" t="inlineStr">
         <is>
-          <t>05-09-2025 12:17:59</t>
-        </is>
-      </c>
-      <c r="E49" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>08-09-2025 11:22:17</t>
+        </is>
+      </c>
+      <c r="E49" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="6" t="n">
-        <v>252582</v>
+        <v>253210</v>
       </c>
       <c r="B50" s="6" t="inlineStr">
         <is>
@@ -1666,23 +1670,21 @@
       </c>
       <c r="C50" s="6" t="inlineStr">
         <is>
-          <t>05-09-2025 13:41:23</t>
+          <t>08-09-2025 12:13:30</t>
         </is>
       </c>
       <c r="D50" s="6" t="inlineStr">
         <is>
-          <t>05-09-2025 14:11:23</t>
-        </is>
-      </c>
-      <c r="E50" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>08-09-2025 12:43:30</t>
+        </is>
+      </c>
+      <c r="E50" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="6" t="n">
-        <v>252685</v>
+        <v>253208</v>
       </c>
       <c r="B51" s="6" t="inlineStr">
         <is>
@@ -1691,23 +1693,21 @@
       </c>
       <c r="C51" s="6" t="inlineStr">
         <is>
-          <t>05-09-2025 14:57:28</t>
+          <t>08-09-2025 14:17:39</t>
         </is>
       </c>
       <c r="D51" s="6" t="inlineStr">
         <is>
-          <t>08-09-2025 07:27:28</t>
-        </is>
-      </c>
-      <c r="E51" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>08-09-2025 14:42:39</t>
+        </is>
+      </c>
+      <c r="E51" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="6" t="n">
-        <v>252843</v>
+        <v>252883</v>
       </c>
       <c r="B52" s="6" t="inlineStr">
         <is>
@@ -1716,12 +1716,12 @@
       </c>
       <c r="C52" s="6" t="inlineStr">
         <is>
-          <t>08-09-2025 08:42:02</t>
+          <t>09-09-2025 08:26:55</t>
         </is>
       </c>
       <c r="D52" s="6" t="inlineStr">
         <is>
-          <t>08-09-2025 09:32:02</t>
+          <t>09-09-2025 08:56:55</t>
         </is>
       </c>
       <c r="E52" s="6" t="n">
@@ -1729,125 +1729,123 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="6" t="n">
-        <v>253208</v>
-      </c>
-      <c r="B53" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C53" s="6" t="inlineStr">
-        <is>
-          <t>08-09-2025 09:51:14</t>
-        </is>
-      </c>
-      <c r="D53" s="6" t="inlineStr">
-        <is>
-          <t>08-09-2025 10:46:14</t>
-        </is>
-      </c>
-      <c r="E53" s="6" t="n">
+      <c r="A53" s="7" t="n">
+        <v>252906</v>
+      </c>
+      <c r="B53" s="7" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C53" s="7" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D53" s="7" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:17:00</t>
+        </is>
+      </c>
+      <c r="E53" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="6" t="n">
-        <v>253210</v>
-      </c>
-      <c r="B54" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C54" s="6" t="inlineStr">
-        <is>
-          <t>08-09-2025 12:30:30</t>
-        </is>
-      </c>
-      <c r="D54" s="6" t="inlineStr">
-        <is>
-          <t>08-09-2025 12:55:30</t>
-        </is>
-      </c>
-      <c r="E54" s="6" t="n">
+      <c r="A54" s="7" t="n">
+        <v>243569</v>
+      </c>
+      <c r="B54" s="7" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C54" s="7" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:51:43</t>
+        </is>
+      </c>
+      <c r="D54" s="7" t="inlineStr">
+        <is>
+          <t>08-09-2025 08:08:43</t>
+        </is>
+      </c>
+      <c r="E54" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="6" t="n">
-        <v>253223</v>
-      </c>
-      <c r="B55" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C55" s="6" t="inlineStr">
-        <is>
-          <t>08-09-2025 14:29:39</t>
-        </is>
-      </c>
-      <c r="D55" s="6" t="inlineStr">
-        <is>
-          <t>09-09-2025 07:54:39</t>
-        </is>
-      </c>
-      <c r="E55" s="6" t="n">
+      <c r="A55" s="7" t="n">
+        <v>253318</v>
+      </c>
+      <c r="B55" s="7" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C55" s="7" t="inlineStr">
+        <is>
+          <t>08-09-2025 08:30:24</t>
+        </is>
+      </c>
+      <c r="D55" s="7" t="inlineStr">
+        <is>
+          <t>08-09-2025 08:49:24</t>
+        </is>
+      </c>
+      <c r="E55" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="6" t="n">
-        <v>252601</v>
-      </c>
-      <c r="B56" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C56" s="6" t="inlineStr">
-        <is>
-          <t>09-09-2025 08:11:03</t>
-        </is>
-      </c>
-      <c r="D56" s="6" t="inlineStr">
-        <is>
-          <t>09-09-2025 08:41:03</t>
-        </is>
-      </c>
-      <c r="E56" s="6" t="n">
+      <c r="A56" s="7" t="n">
+        <v>253317</v>
+      </c>
+      <c r="B56" s="7" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C56" s="7" t="inlineStr">
+        <is>
+          <t>08-09-2025 09:40:57</t>
+        </is>
+      </c>
+      <c r="D56" s="7" t="inlineStr">
+        <is>
+          <t>08-09-2025 09:55:57</t>
+        </is>
+      </c>
+      <c r="E56" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="6" t="n">
-        <v>253314</v>
-      </c>
-      <c r="B57" s="6" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C57" s="6" t="inlineStr">
-        <is>
-          <t>09-09-2025 09:32:16</t>
-        </is>
-      </c>
-      <c r="D57" s="6" t="inlineStr">
-        <is>
-          <t>09-09-2025 10:57:16</t>
-        </is>
-      </c>
-      <c r="E57" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="A57" s="7" t="n">
+        <v>253249</v>
+      </c>
+      <c r="B57" s="7" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C57" s="7" t="inlineStr">
+        <is>
+          <t>08-09-2025 11:38:43</t>
+        </is>
+      </c>
+      <c r="D57" s="7" t="inlineStr">
+        <is>
+          <t>08-09-2025 11:53:43</t>
+        </is>
+      </c>
+      <c r="E57" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="7" t="n">
-        <v>252906</v>
+        <v>253284</v>
       </c>
       <c r="B58" s="7" t="inlineStr">
         <is>
@@ -1856,12 +1854,12 @@
       </c>
       <c r="C58" s="7" t="inlineStr">
         <is>
-          <t>08-09-2025 07:00:00</t>
+          <t>08-09-2025 12:51:29</t>
         </is>
       </c>
       <c r="D58" s="7" t="inlineStr">
         <is>
-          <t>08-09-2025 07:17:00</t>
+          <t>08-09-2025 13:08:29</t>
         </is>
       </c>
       <c r="E58" s="7" t="n">
@@ -1870,7 +1868,7 @@
     </row>
     <row r="59">
       <c r="A59" s="7" t="n">
-        <v>252995</v>
+        <v>253313</v>
       </c>
       <c r="B59" s="7" t="inlineStr">
         <is>
@@ -1879,12 +1877,12 @@
       </c>
       <c r="C59" s="7" t="inlineStr">
         <is>
-          <t>08-09-2025 07:51:43</t>
+          <t>08-09-2025 14:05:28</t>
         </is>
       </c>
       <c r="D59" s="7" t="inlineStr">
         <is>
-          <t>08-09-2025 08:08:43</t>
+          <t>08-09-2025 14:20:28</t>
         </is>
       </c>
       <c r="E59" s="7" t="n">
@@ -1892,77 +1890,77 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="7" t="n">
-        <v>253318</v>
-      </c>
-      <c r="B60" s="7" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C60" s="7" t="inlineStr">
-        <is>
-          <t>08-09-2025 09:17:02</t>
-        </is>
-      </c>
-      <c r="D60" s="7" t="inlineStr">
-        <is>
-          <t>08-09-2025 09:36:02</t>
-        </is>
-      </c>
-      <c r="E60" s="7" t="n">
+      <c r="A60" s="8" t="n">
+        <v>252529</v>
+      </c>
+      <c r="B60" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="inlineStr">
+        <is>
+          <t>09-09-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D60" s="8" t="inlineStr">
+        <is>
+          <t>09-09-2025 07:35:00</t>
+        </is>
+      </c>
+      <c r="E60" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="7" t="n">
-        <v>253317</v>
-      </c>
-      <c r="B61" s="7" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C61" s="7" t="inlineStr">
-        <is>
-          <t>08-09-2025 10:27:35</t>
-        </is>
-      </c>
-      <c r="D61" s="7" t="inlineStr">
-        <is>
-          <t>08-09-2025 10:42:35</t>
-        </is>
-      </c>
-      <c r="E61" s="7" t="n">
+      <c r="A61" s="8" t="n">
+        <v>253375</v>
+      </c>
+      <c r="B61" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>09-09-2025 08:43:05</t>
+        </is>
+      </c>
+      <c r="D61" s="8" t="inlineStr">
+        <is>
+          <t>09-09-2025 09:18:05</t>
+        </is>
+      </c>
+      <c r="E61" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="7" t="n">
-        <v>253249</v>
-      </c>
-      <c r="B62" s="7" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C62" s="7" t="inlineStr">
-        <is>
-          <t>08-09-2025 12:25:22</t>
-        </is>
-      </c>
-      <c r="D62" s="7" t="inlineStr">
-        <is>
-          <t>08-09-2025 12:40:22</t>
-        </is>
-      </c>
-      <c r="E62" s="7" t="n">
+      <c r="A62" s="8" t="n">
+        <v>253359</v>
+      </c>
+      <c r="B62" s="8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>09-09-2025 10:09:58</t>
+        </is>
+      </c>
+      <c r="D62" s="8" t="inlineStr">
+        <is>
+          <t>09-09-2025 10:39:58</t>
+        </is>
+      </c>
+      <c r="E62" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="8" t="n">
-        <v>253313</v>
+        <v>253278</v>
       </c>
       <c r="B63" s="8" t="inlineStr">
         <is>
@@ -1971,12 +1969,12 @@
       </c>
       <c r="C63" s="8" t="inlineStr">
         <is>
-          <t>09-09-2025 07:00:00</t>
+          <t>09-09-2025 12:53:59</t>
         </is>
       </c>
       <c r="D63" s="8" t="inlineStr">
         <is>
-          <t>09-09-2025 07:30:00</t>
+          <t>09-09-2025 13:33:59</t>
         </is>
       </c>
       <c r="E63" s="8" t="n">
@@ -1985,7 +1983,7 @@
     </row>
     <row r="64">
       <c r="A64" s="8" t="n">
-        <v>244743</v>
+        <v>253602</v>
       </c>
       <c r="B64" s="8" t="inlineStr">
         <is>
@@ -1994,12 +1992,12 @@
       </c>
       <c r="C64" s="8" t="inlineStr">
         <is>
-          <t>09-09-2025 09:10:00</t>
+          <t>09-09-2025 14:02:24</t>
         </is>
       </c>
       <c r="D64" s="8" t="inlineStr">
         <is>
-          <t>09-09-2025 09:45:00</t>
+          <t>09-09-2025 14:37:24</t>
         </is>
       </c>
       <c r="E64" s="8" t="n">
@@ -2008,7 +2006,7 @@
     </row>
     <row r="65">
       <c r="A65" s="8" t="n">
-        <v>253361</v>
+        <v>253401</v>
       </c>
       <c r="B65" s="8" t="inlineStr">
         <is>
@@ -2017,12 +2015,12 @@
       </c>
       <c r="C65" s="8" t="inlineStr">
         <is>
-          <t>09-09-2025 10:14:21</t>
+          <t>10-09-2025 08:34:29</t>
         </is>
       </c>
       <c r="D65" s="8" t="inlineStr">
         <is>
-          <t>09-09-2025 10:44:21</t>
+          <t>10-09-2025 09:14:29</t>
         </is>
       </c>
       <c r="E65" s="8" t="n">
@@ -2031,7 +2029,7 @@
     </row>
     <row r="66">
       <c r="A66" s="8" t="n">
-        <v>253375</v>
+        <v>253247</v>
       </c>
       <c r="B66" s="8" t="inlineStr">
         <is>
@@ -2040,12 +2038,12 @@
       </c>
       <c r="C66" s="8" t="inlineStr">
         <is>
-          <t>09-09-2025 12:01:03</t>
+          <t>10-09-2025 09:37:18</t>
         </is>
       </c>
       <c r="D66" s="8" t="inlineStr">
         <is>
-          <t>09-09-2025 12:26:03</t>
+          <t>10-09-2025 10:07:18</t>
         </is>
       </c>
       <c r="E66" s="8" t="n">
@@ -2054,7 +2052,7 @@
     </row>
     <row r="67">
       <c r="A67" s="8" t="n">
-        <v>253372</v>
+        <v>253245</v>
       </c>
       <c r="B67" s="8" t="inlineStr">
         <is>
@@ -2063,12 +2061,12 @@
       </c>
       <c r="C67" s="8" t="inlineStr">
         <is>
-          <t>09-09-2025 13:17:56</t>
+          <t>10-09-2025 11:56:53</t>
         </is>
       </c>
       <c r="D67" s="8" t="inlineStr">
         <is>
-          <t>09-09-2025 13:42:56</t>
+          <t>10-09-2025 12:36:53</t>
         </is>
       </c>
       <c r="E67" s="8" t="n">
@@ -2077,7 +2075,7 @@
     </row>
     <row r="68">
       <c r="A68" s="8" t="n">
-        <v>253332</v>
+        <v>244743</v>
       </c>
       <c r="B68" s="8" t="inlineStr">
         <is>
@@ -2086,12 +2084,12 @@
       </c>
       <c r="C68" s="8" t="inlineStr">
         <is>
-          <t>10-09-2025 07:26:43</t>
+          <t>11-09-2025 07:07:43</t>
         </is>
       </c>
       <c r="D68" s="8" t="inlineStr">
         <is>
-          <t>10-09-2025 07:56:43</t>
+          <t>11-09-2025 07:37:43</t>
         </is>
       </c>
       <c r="E68" s="8" t="n">
@@ -2100,7 +2098,7 @@
     </row>
     <row r="69">
       <c r="A69" s="8" t="n">
-        <v>253247</v>
+        <v>253261</v>
       </c>
       <c r="B69" s="8" t="inlineStr">
         <is>
@@ -2109,12 +2107,12 @@
       </c>
       <c r="C69" s="8" t="inlineStr">
         <is>
-          <t>10-09-2025 11:01:32</t>
+          <t>11-09-2025 08:07:03</t>
         </is>
       </c>
       <c r="D69" s="8" t="inlineStr">
         <is>
-          <t>10-09-2025 11:36:32</t>
+          <t>11-09-2025 08:47:03</t>
         </is>
       </c>
       <c r="E69" s="8" t="n">
@@ -2123,7 +2121,7 @@
     </row>
     <row r="70">
       <c r="A70" s="8" t="n">
-        <v>253522</v>
+        <v>253436</v>
       </c>
       <c r="B70" s="8" t="inlineStr">
         <is>
@@ -2132,12 +2130,12 @@
       </c>
       <c r="C70" s="8" t="inlineStr">
         <is>
-          <t>10-09-2025 13:26:07</t>
+          <t>11-09-2025 09:05:54</t>
         </is>
       </c>
       <c r="D70" s="8" t="inlineStr">
         <is>
-          <t>10-09-2025 13:56:07</t>
+          <t>11-09-2025 09:30:54</t>
         </is>
       </c>
       <c r="E70" s="8" t="n">
@@ -2146,7 +2144,7 @@
     </row>
     <row r="71">
       <c r="A71" s="8" t="n">
-        <v>253245</v>
+        <v>253372</v>
       </c>
       <c r="B71" s="8" t="inlineStr">
         <is>
@@ -2155,12 +2153,12 @@
       </c>
       <c r="C71" s="8" t="inlineStr">
         <is>
-          <t>11-09-2025 09:14:44</t>
+          <t>11-09-2025 09:49:45</t>
         </is>
       </c>
       <c r="D71" s="8" t="inlineStr">
         <is>
-          <t>11-09-2025 09:44:44</t>
+          <t>11-09-2025 10:34:45</t>
         </is>
       </c>
       <c r="E71" s="8" t="n">
@@ -2169,7 +2167,7 @@
     </row>
     <row r="72">
       <c r="A72" s="8" t="n">
-        <v>253436</v>
+        <v>253371</v>
       </c>
       <c r="B72" s="8" t="inlineStr">
         <is>
@@ -2178,12 +2176,12 @@
       </c>
       <c r="C72" s="8" t="inlineStr">
         <is>
-          <t>11-09-2025 12:15:34</t>
+          <t>11-09-2025 12:18:32</t>
         </is>
       </c>
       <c r="D72" s="8" t="inlineStr">
         <is>
-          <t>11-09-2025 12:50:34</t>
+          <t>11-09-2025 12:43:32</t>
         </is>
       </c>
       <c r="E72" s="8" t="n">
@@ -2192,7 +2190,7 @@
     </row>
     <row r="73">
       <c r="A73" s="8" t="n">
-        <v>253261</v>
+        <v>252741</v>
       </c>
       <c r="B73" s="8" t="inlineStr">
         <is>
@@ -2201,12 +2199,12 @@
       </c>
       <c r="C73" s="8" t="inlineStr">
         <is>
-          <t>11-09-2025 13:09:25</t>
+          <t>11-09-2025 14:31:18</t>
         </is>
       </c>
       <c r="D73" s="8" t="inlineStr">
         <is>
-          <t>11-09-2025 13:34:25</t>
+          <t>12-09-2025 07:11:18</t>
         </is>
       </c>
       <c r="E73" s="8" t="n">
@@ -2215,7 +2213,7 @@
     </row>
     <row r="74">
       <c r="A74" s="8" t="n">
-        <v>253036</v>
+        <v>253295</v>
       </c>
       <c r="B74" s="8" t="inlineStr">
         <is>
@@ -2224,21 +2222,23 @@
       </c>
       <c r="C74" s="8" t="inlineStr">
         <is>
-          <t>11-09-2025 13:53:16</t>
+          <t>12-09-2025 08:12:47</t>
         </is>
       </c>
       <c r="D74" s="8" t="inlineStr">
         <is>
-          <t>11-09-2025 14:38:16</t>
-        </is>
-      </c>
-      <c r="E74" s="8" t="n">
-        <v>0</v>
+          <t>12-09-2025 08:57:47</t>
+        </is>
+      </c>
+      <c r="E74" s="8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="8" t="n">
-        <v>252529</v>
+        <v>252274</v>
       </c>
       <c r="B75" s="8" t="inlineStr">
         <is>
@@ -2247,12 +2247,12 @@
       </c>
       <c r="C75" s="8" t="inlineStr">
         <is>
-          <t>12-09-2025 07:57:00</t>
+          <t>12-09-2025 12:47:52</t>
         </is>
       </c>
       <c r="D75" s="8" t="inlineStr">
         <is>
-          <t>12-09-2025 08:32:00</t>
+          <t>12-09-2025 13:37:52</t>
         </is>
       </c>
       <c r="E75" s="8" t="n">
@@ -2261,7 +2261,7 @@
     </row>
     <row r="76">
       <c r="A76" s="8" t="n">
-        <v>253668</v>
+        <v>252397</v>
       </c>
       <c r="B76" s="8" t="inlineStr">
         <is>
@@ -2270,12 +2270,12 @@
       </c>
       <c r="C76" s="8" t="inlineStr">
         <is>
-          <t>12-09-2025 09:40:05</t>
+          <t>15-09-2025 08:31:17</t>
         </is>
       </c>
       <c r="D76" s="8" t="inlineStr">
         <is>
-          <t>12-09-2025 10:15:05</t>
+          <t>15-09-2025 09:01:17</t>
         </is>
       </c>
       <c r="E76" s="8" t="n">
@@ -2284,7 +2284,7 @@
     </row>
     <row r="77">
       <c r="A77" s="8" t="n">
-        <v>253455</v>
+        <v>253244</v>
       </c>
       <c r="B77" s="8" t="inlineStr">
         <is>
@@ -2293,12 +2293,12 @@
       </c>
       <c r="C77" s="8" t="inlineStr">
         <is>
-          <t>12-09-2025 13:24:57</t>
+          <t>15-09-2025 10:57:12</t>
         </is>
       </c>
       <c r="D77" s="8" t="inlineStr">
         <is>
-          <t>12-09-2025 13:59:57</t>
+          <t>15-09-2025 11:42:12</t>
         </is>
       </c>
       <c r="E77" s="8" t="n">
@@ -2307,7 +2307,7 @@
     </row>
     <row r="78">
       <c r="A78" s="8" t="n">
-        <v>253392</v>
+        <v>253549</v>
       </c>
       <c r="B78" s="8" t="inlineStr">
         <is>
@@ -2316,12 +2316,12 @@
       </c>
       <c r="C78" s="8" t="inlineStr">
         <is>
-          <t>12-09-2025 14:55:31</t>
+          <t>15-09-2025 14:28:42</t>
         </is>
       </c>
       <c r="D78" s="8" t="inlineStr">
         <is>
-          <t>15-09-2025 07:25:31</t>
+          <t>16-09-2025 07:03:42</t>
         </is>
       </c>
       <c r="E78" s="8" t="n">
@@ -2330,7 +2330,7 @@
     </row>
     <row r="79">
       <c r="A79" s="8" t="n">
-        <v>253244</v>
+        <v>253393</v>
       </c>
       <c r="B79" s="8" t="inlineStr">
         <is>
@@ -2339,12 +2339,12 @@
       </c>
       <c r="C79" s="8" t="inlineStr">
         <is>
-          <t>15-09-2025 09:34:54</t>
+          <t>16-09-2025 09:47:22</t>
         </is>
       </c>
       <c r="D79" s="8" t="inlineStr">
         <is>
-          <t>15-09-2025 10:04:54</t>
+          <t>16-09-2025 10:27:22</t>
         </is>
       </c>
       <c r="E79" s="8" t="n">
@@ -2353,7 +2353,7 @@
     </row>
     <row r="80">
       <c r="A80" s="8" t="n">
-        <v>253528</v>
+        <v>253392</v>
       </c>
       <c r="B80" s="8" t="inlineStr">
         <is>
@@ -2362,12 +2362,12 @@
       </c>
       <c r="C80" s="8" t="inlineStr">
         <is>
-          <t>15-09-2025 12:51:24</t>
+          <t>16-09-2025 11:45:00</t>
         </is>
       </c>
       <c r="D80" s="8" t="inlineStr">
         <is>
-          <t>15-09-2025 13:21:24</t>
+          <t>16-09-2025 12:10:00</t>
         </is>
       </c>
       <c r="E80" s="8" t="n">
@@ -2376,7 +2376,7 @@
     </row>
     <row r="81">
       <c r="A81" s="8" t="n">
-        <v>253367</v>
+        <v>253472</v>
       </c>
       <c r="B81" s="8" t="inlineStr">
         <is>
@@ -2385,12 +2385,12 @@
       </c>
       <c r="C81" s="8" t="inlineStr">
         <is>
-          <t>16-09-2025 07:20:34</t>
+          <t>16-09-2025 14:19:23</t>
         </is>
       </c>
       <c r="D81" s="8" t="inlineStr">
         <is>
-          <t>16-09-2025 07:50:34</t>
+          <t>16-09-2025 14:54:23</t>
         </is>
       </c>
       <c r="E81" s="8" t="n">
@@ -2398,31 +2398,33 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="8" t="n">
-        <v>253393</v>
-      </c>
-      <c r="B82" s="8" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C82" s="8" t="inlineStr">
-        <is>
-          <t>16-09-2025 10:06:16</t>
-        </is>
-      </c>
-      <c r="D82" s="8" t="inlineStr">
-        <is>
-          <t>16-09-2025 10:36:16</t>
-        </is>
-      </c>
-      <c r="E82" s="8" t="n">
-        <v>0</v>
+      <c r="A82" s="5" t="n">
+        <v>253362</v>
+      </c>
+      <c r="B82" s="5" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C82" s="5" t="inlineStr">
+        <is>
+          <t>05-09-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D82" s="5" t="inlineStr">
+        <is>
+          <t>05-09-2025 07:35:00</t>
+        </is>
+      </c>
+      <c r="E82" s="5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="5" t="n">
-        <v>253016</v>
+        <v>252702</v>
       </c>
       <c r="B83" s="5" t="inlineStr">
         <is>
@@ -2431,12 +2433,12 @@
       </c>
       <c r="C83" s="5" t="inlineStr">
         <is>
-          <t>05-09-2025 07:00:00</t>
+          <t>05-09-2025 08:33:23</t>
         </is>
       </c>
       <c r="D83" s="5" t="inlineStr">
         <is>
-          <t>05-09-2025 07:30:00</t>
+          <t>05-09-2025 08:58:23</t>
         </is>
       </c>
       <c r="E83" s="5" t="inlineStr">
@@ -2447,7 +2449,7 @@
     </row>
     <row r="84">
       <c r="A84" s="5" t="n">
-        <v>253425</v>
+        <v>253591</v>
       </c>
       <c r="B84" s="5" t="inlineStr">
         <is>
@@ -2456,21 +2458,23 @@
       </c>
       <c r="C84" s="5" t="inlineStr">
         <is>
-          <t>05-09-2025 08:43:23</t>
+          <t>05-09-2025 09:56:46</t>
         </is>
       </c>
       <c r="D84" s="5" t="inlineStr">
         <is>
-          <t>05-09-2025 09:28:23</t>
-        </is>
-      </c>
-      <c r="E84" s="5" t="n">
-        <v>0</v>
+          <t>05-09-2025 10:36:46</t>
+        </is>
+      </c>
+      <c r="E84" s="5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="5" t="n">
-        <v>252702</v>
+        <v>252995</v>
       </c>
       <c r="B85" s="5" t="inlineStr">
         <is>
@@ -2479,23 +2483,21 @@
       </c>
       <c r="C85" s="5" t="inlineStr">
         <is>
-          <t>05-09-2025 11:54:44</t>
+          <t>05-09-2025 10:54:11</t>
         </is>
       </c>
       <c r="D85" s="5" t="inlineStr">
         <is>
-          <t>05-09-2025 12:34:44</t>
-        </is>
-      </c>
-      <c r="E85" s="5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>05-09-2025 11:29:11</t>
+        </is>
+      </c>
+      <c r="E85" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="5" t="n">
-        <v>252827</v>
+        <v>253100</v>
       </c>
       <c r="B86" s="5" t="inlineStr">
         <is>
@@ -2504,12 +2506,12 @@
       </c>
       <c r="C86" s="5" t="inlineStr">
         <is>
-          <t>05-09-2025 13:33:07</t>
+          <t>05-09-2025 12:37:30</t>
         </is>
       </c>
       <c r="D86" s="5" t="inlineStr">
         <is>
-          <t>05-09-2025 14:08:07</t>
+          <t>05-09-2025 13:12:30</t>
         </is>
       </c>
       <c r="E86" s="5" t="n">
@@ -2518,7 +2520,7 @@
     </row>
     <row r="87">
       <c r="A87" s="5" t="n">
-        <v>252679</v>
+        <v>253259</v>
       </c>
       <c r="B87" s="5" t="inlineStr">
         <is>
@@ -2527,12 +2529,12 @@
       </c>
       <c r="C87" s="5" t="inlineStr">
         <is>
-          <t>08-09-2025 12:58:07</t>
+          <t>05-09-2025 13:59:51</t>
         </is>
       </c>
       <c r="D87" s="5" t="inlineStr">
         <is>
-          <t>08-09-2025 13:38:07</t>
+          <t>05-09-2025 14:34:51</t>
         </is>
       </c>
       <c r="E87" s="5" t="inlineStr">
@@ -2543,7 +2545,7 @@
     </row>
     <row r="88">
       <c r="A88" s="5" t="n">
-        <v>253706</v>
+        <v>253361</v>
       </c>
       <c r="B88" s="5" t="inlineStr">
         <is>
@@ -2552,12 +2554,12 @@
       </c>
       <c r="C88" s="5" t="inlineStr">
         <is>
-          <t>08-09-2025 14:38:07</t>
+          <t>08-09-2025 07:44:05</t>
         </is>
       </c>
       <c r="D88" s="5" t="inlineStr">
         <is>
-          <t>09-09-2025 07:18:07</t>
+          <t>08-09-2025 08:14:05</t>
         </is>
       </c>
       <c r="E88" s="5" t="n">
@@ -2566,7 +2568,7 @@
     </row>
     <row r="89">
       <c r="A89" s="5" t="n">
-        <v>253362</v>
+        <v>253267</v>
       </c>
       <c r="B89" s="5" t="inlineStr">
         <is>
@@ -2575,23 +2577,21 @@
       </c>
       <c r="C89" s="5" t="inlineStr">
         <is>
-          <t>09-09-2025 12:29:07</t>
+          <t>08-09-2025 09:30:47</t>
         </is>
       </c>
       <c r="D89" s="5" t="inlineStr">
         <is>
-          <t>09-09-2025 13:24:07</t>
-        </is>
-      </c>
-      <c r="E89" s="5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>08-09-2025 10:05:47</t>
+        </is>
+      </c>
+      <c r="E89" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="5" t="n">
-        <v>253524</v>
+        <v>253268</v>
       </c>
       <c r="B90" s="5" t="inlineStr">
         <is>
@@ -2600,12 +2600,12 @@
       </c>
       <c r="C90" s="5" t="inlineStr">
         <is>
-          <t>09-09-2025 14:22:30</t>
+          <t>08-09-2025 12:50:09</t>
         </is>
       </c>
       <c r="D90" s="5" t="inlineStr">
         <is>
-          <t>10-09-2025 07:02:30</t>
+          <t>08-09-2025 13:15:09</t>
         </is>
       </c>
       <c r="E90" s="5" t="n">
@@ -2614,7 +2614,7 @@
     </row>
     <row r="91">
       <c r="A91" s="5" t="n">
-        <v>253260</v>
+        <v>253271</v>
       </c>
       <c r="B91" s="5" t="inlineStr">
         <is>
@@ -2623,12 +2623,12 @@
       </c>
       <c r="C91" s="5" t="inlineStr">
         <is>
-          <t>10-09-2025 08:01:15</t>
+          <t>08-09-2025 14:33:43</t>
         </is>
       </c>
       <c r="D91" s="5" t="inlineStr">
         <is>
-          <t>10-09-2025 08:31:15</t>
+          <t>09-09-2025 07:08:43</t>
         </is>
       </c>
       <c r="E91" s="5" t="n">
@@ -2637,7 +2637,7 @@
     </row>
     <row r="92">
       <c r="A92" s="5" t="n">
-        <v>253359</v>
+        <v>253072</v>
       </c>
       <c r="B92" s="5" t="inlineStr">
         <is>
@@ -2646,12 +2646,12 @@
       </c>
       <c r="C92" s="5" t="inlineStr">
         <is>
-          <t>10-09-2025 10:20:40</t>
+          <t>09-09-2025 07:51:21</t>
         </is>
       </c>
       <c r="D92" s="5" t="inlineStr">
         <is>
-          <t>10-09-2025 10:50:40</t>
+          <t>09-09-2025 08:16:21</t>
         </is>
       </c>
       <c r="E92" s="5" t="n">
@@ -2660,7 +2660,7 @@
     </row>
     <row r="93">
       <c r="A93" s="5" t="n">
-        <v>253721</v>
+        <v>253246</v>
       </c>
       <c r="B93" s="5" t="inlineStr">
         <is>
@@ -2669,12 +2669,12 @@
       </c>
       <c r="C93" s="5" t="inlineStr">
         <is>
-          <t>10-09-2025 13:04:41</t>
+          <t>09-09-2025 08:45:29</t>
         </is>
       </c>
       <c r="D93" s="5" t="inlineStr">
         <is>
-          <t>10-09-2025 13:39:41</t>
+          <t>09-09-2025 09:20:29</t>
         </is>
       </c>
       <c r="E93" s="5" t="n">
